--- a/Supplementary file/Supplementary file3_Distance between data type of monomers.xlsx
+++ b/Supplementary file/Supplementary file3_Distance between data type of monomers.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="Workbook________" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365skku-my.sharepoint.com/personal/cymee95_o365_skku_edu/Documents/Research/Project/2020 Biomass/Supplementary file/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365skku-my.sharepoint.com/personal/cymee95_o365_skku_edu/Documents/Research/Project/2020 Biomass/Supplementary file/FInal_20220715/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{FB89EB8C-398C-4F2A-BC98-742A193701D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FB06FA4-1B84-4430-9C6F-C6E2B4EA59EC}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{FB89EB8C-398C-4F2A-BC98-742A193701D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B74267B1-0BE9-498E-8475-AAACB79AA75E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{F02EF2F1-5878-44A1-B87B-59AF94CCBEC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw_amino acid" sheetId="16" r:id="rId1"/>
-    <sheet name="Distance matrix_amino acid" sheetId="17" r:id="rId2"/>
-    <sheet name="Raw_RNA" sheetId="18" r:id="rId3"/>
-    <sheet name="Distance matrix_RNA" sheetId="19" r:id="rId4"/>
-    <sheet name="Ref" sheetId="21" r:id="rId5"/>
+    <sheet name="Summary" sheetId="22" r:id="rId1"/>
+    <sheet name="Raw_amino acid" sheetId="16" r:id="rId2"/>
+    <sheet name="Distance matrix_amino acid" sheetId="17" r:id="rId3"/>
+    <sheet name="Raw_ribonucleotides" sheetId="18" r:id="rId4"/>
+    <sheet name="Distance matrix_ribonucleotides" sheetId="19" r:id="rId5"/>
+    <sheet name="Ref" sheetId="21" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="EXPnEXPn">#REF!,#REF!,#REF!</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="260">
   <si>
     <t>Genome</t>
   </si>
@@ -1852,6 +1853,30 @@
       <t>, 513–525.</t>
     </r>
   </si>
+  <si>
+    <t>Raw_amino acid</t>
+  </si>
+  <si>
+    <t>Distance matrix_amino acid</t>
+  </si>
+  <si>
+    <t>Ribonucleotides composition including experimental measurements and estimation from omics data</t>
+  </si>
+  <si>
+    <t>Amino acids composition including experimental measurements and estimation from omics data</t>
+  </si>
+  <si>
+    <t>Distance between different datasets of ribonucleotides composition</t>
+  </si>
+  <si>
+    <t>Distance between different datasets of amino acids composition</t>
+  </si>
+  <si>
+    <t>Raw_ribonucleotides</t>
+  </si>
+  <si>
+    <t>Distance matrix_ribonucleotides</t>
+  </si>
 </sst>
 </file>
 
@@ -1861,10 +1886,10 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="169" formatCode="0.000_ "/>
+    <numFmt numFmtId="167" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="168" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2027,6 +2052,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2084,7 +2118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2284,21 +2318,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2622,23 +2641,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2648,6 +2652,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2663,16 +2668,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2690,10 +2695,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -2702,19 +2707,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2741,25 +2746,22 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2768,49 +2770,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2825,10 +2800,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2837,19 +2809,10 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2870,10 +2833,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2906,40 +2869,22 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2948,23 +2893,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2974,23 +2905,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3009,7 +2928,7 @@
     <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3031,7 +2950,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3056,38 +2975,121 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal 2" xfId="3" xr:uid="{9A66E230-5E16-4130-8A69-8AF971CA1048}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{5D2EB545-91D2-48CA-8A27-2B39C0E19490}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 4" xfId="1" xr:uid="{1BA0C932-6B78-407A-9DBB-0453D3265B4F}"/>
     <cellStyle name="표준 6" xfId="2" xr:uid="{03019145-E185-4141-89F1-1604011B1046}"/>
+    <cellStyle name="하이퍼링크" xfId="5" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3404,10 +3406,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ACFDD0-FC7F-42B0-8FC6-6B195ED5085E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="200" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="200" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Raw_amino acid'!A1" display="Raw_amino acid" xr:uid="{955BFF5E-6D4E-436B-A493-90B45A952A02}"/>
+    <hyperlink ref="A2" location="'Distance matrix_amino acid'!A1" display="Distance matrix_amino acid" xr:uid="{C3BBDF22-02A2-40A5-B568-CA54E98BECD2}"/>
+    <hyperlink ref="A3" location="Raw_ribonucleotides!A1" display="Raw_RNA" xr:uid="{70B9322F-7424-4658-BB32-A224F825FDC2}"/>
+    <hyperlink ref="A4" location="'Distance matrix_ribonucleotides'!A1" display="Distance matrix_ribonucleotides" xr:uid="{60E439E1-2CB9-42F8-894A-63F314D6CC1B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1384C5-064A-4B0D-BEB5-BD973E82F57D}">
   <dimension ref="B1:AV70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -3418,58 +3476,58 @@
     <row r="1" spans="2:48" ht="15" thickBot="1"/>
     <row r="2" spans="2:48">
       <c r="B2" s="13"/>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="164" t="s">
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="163" t="s">
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="163"/>
-      <c r="AK2" s="163"/>
-      <c r="AL2" s="163"/>
-      <c r="AM2" s="163"/>
-      <c r="AN2" s="163"/>
-      <c r="AO2" s="163"/>
-      <c r="AP2" s="163"/>
-      <c r="AQ2" s="163"/>
-      <c r="AR2" s="163"/>
-      <c r="AS2" s="163"/>
-      <c r="AT2" s="163"/>
-      <c r="AU2" s="163"/>
-      <c r="AV2" s="165"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="171"/>
+      <c r="AK2" s="171"/>
+      <c r="AL2" s="171"/>
+      <c r="AM2" s="171"/>
+      <c r="AN2" s="171"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="171"/>
+      <c r="AR2" s="171"/>
+      <c r="AS2" s="171"/>
+      <c r="AT2" s="171"/>
+      <c r="AU2" s="171"/>
+      <c r="AV2" s="173"/>
     </row>
     <row r="3" spans="2:48">
       <c r="B3" s="11"/>
@@ -3539,10 +3597,10 @@
       <c r="X3" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="166" t="s">
+      <c r="Y3" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="Z3" s="166" t="s">
+      <c r="Z3" s="136" t="s">
         <v>63</v>
       </c>
       <c r="AA3" s="57" t="s">
@@ -3614,3003 +3672,3003 @@
     </row>
     <row r="4" spans="2:48" ht="27" thickBot="1">
       <c r="B4" s="11"/>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="168" t="s">
+      <c r="H4" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="168" t="s">
+      <c r="I4" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="168" t="s">
+      <c r="J4" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="168" t="s">
+      <c r="K4" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="168" t="s">
+      <c r="L4" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="168" t="s">
+      <c r="M4" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="168" t="s">
+      <c r="O4" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="168" t="s">
+      <c r="P4" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="168" t="s">
+      <c r="Q4" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="168" t="s">
+      <c r="R4" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="169" t="s">
+      <c r="S4" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="169" t="s">
+      <c r="T4" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="169" t="s">
+      <c r="U4" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="169" t="s">
+      <c r="V4" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="169" t="s">
+      <c r="W4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="170" t="s">
+      <c r="X4" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="170" t="s">
+      <c r="Y4" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="Z4" s="170" t="s">
+      <c r="Z4" s="140" t="s">
         <v>235</v>
       </c>
-      <c r="AA4" s="171" t="s">
+      <c r="AA4" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" s="171" t="s">
+      <c r="AB4" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="AC4" s="171" t="s">
+      <c r="AC4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="AD4" s="168" t="s">
+      <c r="AD4" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="AE4" s="168" t="s">
+      <c r="AE4" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="168" t="s">
+      <c r="AF4" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="168" t="s">
+      <c r="AG4" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="AH4" s="168" t="s">
+      <c r="AH4" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" s="168" t="s">
+      <c r="AI4" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="AJ4" s="168" t="s">
+      <c r="AJ4" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="AK4" s="168" t="s">
+      <c r="AK4" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="AL4" s="168" t="s">
+      <c r="AL4" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="AM4" s="168" t="s">
+      <c r="AM4" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="AN4" s="168" t="s">
+      <c r="AN4" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="AO4" s="168" t="s">
+      <c r="AO4" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="AP4" s="168" t="s">
+      <c r="AP4" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="AQ4" s="172" t="s">
+      <c r="AQ4" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="AR4" s="173" t="s">
+      <c r="AR4" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="AS4" s="173" t="s">
+      <c r="AS4" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="AT4" s="173" t="s">
+      <c r="AT4" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="AU4" s="173" t="s">
+      <c r="AU4" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="AV4" s="174" t="s">
+      <c r="AV4" s="144" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:48">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="193">
+      <c r="C5" s="163">
         <v>9.7969080960880903E-2</v>
       </c>
-      <c r="D5" s="193">
+      <c r="D5" s="163">
         <v>9.6154017409000966E-2</v>
       </c>
-      <c r="E5" s="193">
+      <c r="E5" s="163">
         <v>0.10548407701432599</v>
       </c>
-      <c r="F5" s="193">
+      <c r="F5" s="163">
         <v>9.5561847630840205E-2</v>
       </c>
-      <c r="G5" s="193">
+      <c r="G5" s="163">
         <v>7.5463710086875802E-2</v>
       </c>
-      <c r="H5" s="194">
+      <c r="H5" s="164">
         <v>0.10289389067524118</v>
       </c>
-      <c r="I5" s="194">
+      <c r="I5" s="164">
         <v>0.11377245508982034</v>
       </c>
-      <c r="J5" s="194">
+      <c r="J5" s="164">
         <v>0.11238293444328824</v>
       </c>
-      <c r="K5" s="194">
+      <c r="K5" s="164">
         <v>0.11273486430062633</v>
       </c>
-      <c r="L5" s="194">
+      <c r="L5" s="164">
         <v>0.11437565582371458</v>
       </c>
-      <c r="M5" s="194">
+      <c r="M5" s="164">
         <v>0.11215932914046124</v>
       </c>
-      <c r="N5" s="194">
+      <c r="N5" s="164">
         <v>0.10912698412698411</v>
       </c>
-      <c r="O5" s="194">
+      <c r="O5" s="164">
         <v>0.10682492581602376</v>
       </c>
-      <c r="P5" s="194">
+      <c r="P5" s="164">
         <v>0.10714285714285716</v>
       </c>
-      <c r="Q5" s="194">
+      <c r="Q5" s="164">
         <v>0.10573122529644269</v>
       </c>
-      <c r="R5" s="194">
+      <c r="R5" s="164">
         <v>0.10594059405940595</v>
       </c>
-      <c r="S5" s="195">
+      <c r="S5" s="165">
         <v>7.1705667395126932E-2</v>
       </c>
-      <c r="T5" s="196">
+      <c r="T5" s="166">
         <v>5.4783646092624892E-2</v>
       </c>
-      <c r="U5" s="196">
+      <c r="U5" s="166">
         <v>7.6005316460953709E-2</v>
       </c>
-      <c r="V5" s="196">
+      <c r="V5" s="166">
         <v>5.4864134821015299E-2</v>
       </c>
-      <c r="W5" s="196">
+      <c r="W5" s="166">
         <v>5.4921600024014895E-2</v>
       </c>
-      <c r="X5" s="197">
+      <c r="X5" s="167">
         <v>9.7915413910603336E-2</v>
       </c>
-      <c r="Y5" s="197">
+      <c r="Y5" s="167">
         <v>0.12455902306648575</v>
       </c>
-      <c r="Z5" s="197">
+      <c r="Z5" s="167">
         <v>0.11427292850987529</v>
       </c>
-      <c r="AA5" s="194">
+      <c r="AA5" s="164">
         <v>7.1844367235896295E-2</v>
       </c>
-      <c r="AB5" s="194">
+      <c r="AB5" s="164">
         <v>6.7862141647113502E-2</v>
       </c>
-      <c r="AC5" s="194">
+      <c r="AC5" s="164">
         <v>6.6595138208690535E-2</v>
       </c>
-      <c r="AD5" s="198">
+      <c r="AD5" s="168">
         <v>7.7895845196780902E-2</v>
       </c>
-      <c r="AE5" s="198">
+      <c r="AE5" s="168">
         <v>7.8185452669590025E-2</v>
       </c>
-      <c r="AF5" s="198">
+      <c r="AF5" s="168">
         <v>7.789584519678075E-2</v>
       </c>
-      <c r="AG5" s="198">
+      <c r="AG5" s="168">
         <v>7.6284207020295619E-2</v>
       </c>
-      <c r="AH5" s="198">
+      <c r="AH5" s="168">
         <v>7.5746994294800946E-2</v>
       </c>
-      <c r="AI5" s="198">
+      <c r="AI5" s="168">
         <v>7.5209781569305162E-2</v>
       </c>
-      <c r="AJ5" s="198">
+      <c r="AJ5" s="168">
         <v>7.7916774138079029E-2</v>
       </c>
-      <c r="AK5" s="198">
+      <c r="AK5" s="168">
         <v>7.8433057922275562E-2</v>
       </c>
-      <c r="AL5" s="198">
+      <c r="AL5" s="168">
         <v>7.8433057922275562E-2</v>
       </c>
-      <c r="AM5" s="198">
+      <c r="AM5" s="168">
         <v>7.95288453271428E-2</v>
       </c>
-      <c r="AN5" s="198">
+      <c r="AN5" s="168">
         <v>7.870166428502344E-2</v>
       </c>
-      <c r="AO5" s="198">
+      <c r="AO5" s="168">
         <v>7.8722809732610921E-2</v>
       </c>
-      <c r="AP5" s="198">
+      <c r="AP5" s="168">
         <v>7.7648095606569059E-2</v>
       </c>
-      <c r="AQ5" s="199">
+      <c r="AQ5" s="169">
         <v>8.8616631837509688E-2</v>
       </c>
-      <c r="AR5" s="194">
+      <c r="AR5" s="164">
         <v>8.7555656197808029E-2</v>
       </c>
-      <c r="AS5" s="194">
+      <c r="AS5" s="164">
         <v>8.8031742269181271E-2</v>
       </c>
-      <c r="AT5" s="194">
+      <c r="AT5" s="164">
         <v>9.1970400425209708E-2</v>
       </c>
-      <c r="AU5" s="194">
+      <c r="AU5" s="164">
         <v>8.668757800275545E-2</v>
       </c>
-      <c r="AV5" s="200">
+      <c r="AV5" s="170">
         <v>8.7247650994367626E-2</v>
       </c>
     </row>
     <row r="6" spans="2:48">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="176">
+      <c r="C6" s="146">
         <v>5.5410472278674065E-2</v>
       </c>
-      <c r="D6" s="176">
+      <c r="D6" s="146">
         <v>5.5762204286562464E-2</v>
       </c>
-      <c r="E6" s="176">
+      <c r="E6" s="146">
         <v>4.9730814855369995E-2</v>
       </c>
-      <c r="F6" s="176">
+      <c r="F6" s="146">
         <v>5.5263726423484399E-2</v>
       </c>
-      <c r="G6" s="176">
+      <c r="G6" s="146">
         <v>5.0091078238237496E-2</v>
       </c>
-      <c r="H6" s="177">
+      <c r="H6" s="147">
         <v>5.8949624866023592E-2</v>
       </c>
-      <c r="I6" s="177">
+      <c r="I6" s="147">
         <v>4.9900199600798396E-2</v>
       </c>
-      <c r="J6" s="177">
+      <c r="J6" s="147">
         <v>4.9947970863683661E-2</v>
       </c>
-      <c r="K6" s="177">
+      <c r="K6" s="147">
         <v>5.1148225469728609E-2</v>
       </c>
-      <c r="L6" s="177">
+      <c r="L6" s="147">
         <v>5.2465897166841552E-2</v>
       </c>
-      <c r="M6" s="177">
+      <c r="M6" s="147">
         <v>5.2410901467505253E-2</v>
       </c>
-      <c r="N6" s="177">
+      <c r="N6" s="147">
         <v>4.8611111111111119E-2</v>
       </c>
-      <c r="O6" s="177">
+      <c r="O6" s="147">
         <v>4.8466864490603376E-2</v>
       </c>
-      <c r="P6" s="177">
+      <c r="P6" s="147">
         <v>4.9603174603174614E-2</v>
       </c>
-      <c r="Q6" s="177">
+      <c r="Q6" s="147">
         <v>4.9407114624505935E-2</v>
       </c>
-      <c r="R6" s="177">
+      <c r="R6" s="147">
         <v>5.0495049504950498E-2</v>
       </c>
-      <c r="S6" s="178">
+      <c r="S6" s="148">
         <v>4.1203221413576727E-2</v>
       </c>
-      <c r="T6" s="178">
+      <c r="T6" s="148">
         <v>4.4464271495191665E-2</v>
       </c>
-      <c r="U6" s="178">
+      <c r="U6" s="148">
         <v>4.4667271229500802E-2</v>
       </c>
-      <c r="V6" s="178">
+      <c r="V6" s="148">
         <v>4.4565828187863706E-2</v>
       </c>
-      <c r="W6" s="178">
+      <c r="W6" s="148">
         <v>4.4429040909348301E-2</v>
       </c>
-      <c r="X6" s="179">
+      <c r="X6" s="149">
         <v>3.8685107235919017E-2</v>
       </c>
-      <c r="Y6" s="179">
+      <c r="Y6" s="149">
         <v>4.3690637720488465E-2</v>
       </c>
-      <c r="Z6" s="179">
+      <c r="Z6" s="149">
         <v>5.0154044959353543E-2</v>
       </c>
-      <c r="AA6" s="177">
+      <c r="AA6" s="147">
         <v>5.6187723822038037E-2</v>
       </c>
-      <c r="AB6" s="177">
+      <c r="AB6" s="147">
         <v>5.5369820242647423E-2</v>
       </c>
-      <c r="AC6" s="177">
+      <c r="AC6" s="147">
         <v>5.4849174325597619E-2</v>
       </c>
-      <c r="AD6" s="180">
+      <c r="AD6" s="150">
         <v>6.3391101608415101E-2</v>
       </c>
-      <c r="AE6" s="180">
+      <c r="AE6" s="150">
         <v>6.4482847562548878E-2</v>
       </c>
-      <c r="AF6" s="180">
+      <c r="AF6" s="150">
         <v>6.3659707971162979E-2</v>
       </c>
-      <c r="AG6" s="180">
+      <c r="AG6" s="150">
         <v>6.2048069794677807E-2</v>
       </c>
-      <c r="AH6" s="180">
+      <c r="AH6" s="150">
         <v>6.1779463431930012E-2</v>
       </c>
-      <c r="AI6" s="180">
+      <c r="AI6" s="150">
         <v>6.0973644343687419E-2</v>
       </c>
-      <c r="AJ6" s="180">
+      <c r="AJ6" s="150">
         <v>6.6363597283123604E-2</v>
       </c>
-      <c r="AK6" s="180">
+      <c r="AK6" s="150">
         <v>5.9362006167202115E-2</v>
       </c>
-      <c r="AL6" s="180">
+      <c r="AL6" s="150">
         <v>5.64073361769796E-2</v>
       </c>
-      <c r="AM6" s="180">
+      <c r="AM6" s="150">
         <v>5.534777749118823E-2</v>
       </c>
-      <c r="AN6" s="180">
+      <c r="AN6" s="150">
         <v>5.6944548902474447E-2</v>
       </c>
-      <c r="AO6" s="180">
+      <c r="AO6" s="150">
         <v>7.0662453787292967E-2</v>
       </c>
-      <c r="AP6" s="180">
+      <c r="AP6" s="150">
         <v>6.9050382598228363E-2</v>
       </c>
-      <c r="AQ6" s="134">
+      <c r="AQ6" s="120">
         <v>4.7833721894003804E-2</v>
       </c>
-      <c r="AR6" s="177">
+      <c r="AR6" s="147">
         <v>4.7828976901024209E-2</v>
       </c>
-      <c r="AS6" s="177">
+      <c r="AS6" s="147">
         <v>4.8273519668383932E-2</v>
       </c>
-      <c r="AT6" s="177">
+      <c r="AT6" s="147">
         <v>4.9688587287440196E-2</v>
       </c>
-      <c r="AU6" s="177">
+      <c r="AU6" s="147">
         <v>4.8699063579073339E-2</v>
       </c>
-      <c r="AV6" s="181">
+      <c r="AV6" s="151">
         <v>5.0063097720327854E-2</v>
       </c>
     </row>
     <row r="7" spans="2:48">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="176">
+      <c r="C7" s="146">
         <v>4.0107810488160929E-2</v>
       </c>
-      <c r="D7" s="176">
+      <c r="D7" s="146">
         <v>3.8533532393346982E-2</v>
       </c>
-      <c r="E7" s="176">
+      <c r="E7" s="146">
         <v>4.0172460990966295E-2</v>
       </c>
-      <c r="F7" s="176">
+      <c r="F7" s="146">
         <v>3.8926299509060298E-2</v>
       </c>
-      <c r="G7" s="176">
+      <c r="G7" s="146">
         <v>5.0192232885336703E-2</v>
       </c>
-      <c r="H7" s="177">
+      <c r="H7" s="147">
         <v>4.8231511254019296E-2</v>
       </c>
-      <c r="I7" s="177">
+      <c r="I7" s="147">
         <v>4.9900199600798396E-2</v>
       </c>
-      <c r="J7" s="177">
+      <c r="J7" s="147">
         <v>5.3069719042663895E-2</v>
       </c>
-      <c r="K7" s="177">
+      <c r="K7" s="147">
         <v>5.4279749478079335E-2</v>
       </c>
-      <c r="L7" s="177">
+      <c r="L7" s="147">
         <v>5.5613850996852038E-2</v>
       </c>
-      <c r="M7" s="177">
+      <c r="M7" s="147">
         <v>5.3459119496855355E-2</v>
       </c>
-      <c r="N7" s="177">
+      <c r="N7" s="147">
         <v>5.0595238095238096E-2</v>
       </c>
-      <c r="O7" s="177">
+      <c r="O7" s="147">
         <v>5.1434223541048478E-2</v>
       </c>
-      <c r="P7" s="177">
+      <c r="P7" s="147">
         <v>5.1587301587301598E-2</v>
       </c>
-      <c r="Q7" s="177">
+      <c r="Q7" s="147">
         <v>5.0395256916996048E-2</v>
       </c>
-      <c r="R7" s="177">
+      <c r="R7" s="147">
         <v>5.0495049504950498E-2</v>
       </c>
-      <c r="S7" s="178">
+      <c r="S7" s="148">
         <v>5.4471062167833602E-2</v>
       </c>
-      <c r="T7" s="178">
+      <c r="T7" s="148">
         <v>6.1562035840975637E-2</v>
       </c>
-      <c r="U7" s="178">
+      <c r="U7" s="148">
         <v>4.8637310756834203E-2</v>
       </c>
-      <c r="V7" s="178">
+      <c r="V7" s="148">
         <v>6.1161600229327498E-2</v>
       </c>
-      <c r="W7" s="178">
+      <c r="W7" s="148">
         <v>6.1558802881522295E-2</v>
       </c>
-      <c r="X7" s="179">
+      <c r="X7" s="149">
         <v>4.650230507115654E-2</v>
       </c>
-      <c r="Y7" s="179">
+      <c r="Y7" s="149">
         <v>2.7679782903663498E-2</v>
       </c>
-      <c r="Z7" s="182">
+      <c r="Z7" s="152">
         <v>4.6790784598966927E-2</v>
       </c>
-      <c r="AA7" s="177">
+      <c r="AA7" s="147">
         <v>3.7836503272913366E-2</v>
       </c>
-      <c r="AB7" s="177">
+      <c r="AB7" s="147">
         <v>3.7221642261164971E-2</v>
       </c>
-      <c r="AC7" s="177">
+      <c r="AC7" s="147">
         <v>3.6156664631782638E-2</v>
       </c>
-      <c r="AD7" s="180">
+      <c r="AD7" s="150">
         <v>5.2915453461261412E-2</v>
       </c>
-      <c r="AE7" s="180">
+      <c r="AE7" s="150">
         <v>4.8899492734932631E-2</v>
       </c>
-      <c r="AF7" s="180">
+      <c r="AF7" s="150">
         <v>5.1303815284776219E-2</v>
       </c>
-      <c r="AG7" s="180">
+      <c r="AG7" s="150">
         <v>5.3049756642635316E-2</v>
       </c>
-      <c r="AH7" s="180">
+      <c r="AH7" s="150">
         <v>5.2915453461261412E-2</v>
       </c>
-      <c r="AI7" s="180">
+      <c r="AI7" s="150">
         <v>4.8886358020048433E-2</v>
       </c>
-      <c r="AJ7" s="180">
+      <c r="AJ7" s="150">
         <v>5.024288539248542E-2</v>
       </c>
-      <c r="AK7" s="180">
+      <c r="AK7" s="150">
         <v>5.1303815284776698E-2</v>
       </c>
-      <c r="AL7" s="180">
+      <c r="AL7" s="150">
         <v>5.0497996196533619E-2</v>
       </c>
-      <c r="AM7" s="180">
+      <c r="AM7" s="150">
         <v>5.0511563923996396E-2</v>
       </c>
-      <c r="AN7" s="180">
+      <c r="AN7" s="150">
         <v>5.0229389833786255E-2</v>
       </c>
-      <c r="AO7" s="180">
+      <c r="AO7" s="150">
         <v>5.064590318975138E-2</v>
       </c>
-      <c r="AP7" s="180">
+      <c r="AP7" s="150">
         <v>5.212363511305966E-2</v>
       </c>
-      <c r="AQ7" s="134">
+      <c r="AQ7" s="120">
         <v>4.4608529593964101E-2</v>
       </c>
-      <c r="AR7" s="177">
+      <c r="AR7" s="147">
         <v>4.1237782809295034E-2</v>
       </c>
-      <c r="AS7" s="177">
+      <c r="AS7" s="147">
         <v>4.0757687335734108E-2</v>
       </c>
-      <c r="AT7" s="177">
+      <c r="AT7" s="147">
         <v>3.9430649155058256E-2</v>
       </c>
-      <c r="AU7" s="177">
+      <c r="AU7" s="147">
         <v>3.9678446196198446E-2</v>
       </c>
-      <c r="AV7" s="181">
+      <c r="AV7" s="151">
         <v>4.0838559450891633E-2</v>
       </c>
     </row>
     <row r="8" spans="2:48">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="176">
+      <c r="C8" s="146">
         <v>5.8867361643316699E-2</v>
       </c>
-      <c r="D8" s="176">
+      <c r="D8" s="146">
         <v>5.2226943626198903E-2</v>
       </c>
-      <c r="E8" s="176">
+      <c r="E8" s="146">
         <v>5.9403230221735506E-2</v>
       </c>
-      <c r="F8" s="176">
+      <c r="F8" s="146">
         <v>5.1368882625652902E-2</v>
       </c>
-      <c r="G8" s="176">
+      <c r="G8" s="146">
         <v>5.4678968738136699E-2</v>
       </c>
-      <c r="H8" s="177">
+      <c r="H8" s="147">
         <v>4.8231511254019296E-2</v>
       </c>
-      <c r="I8" s="177">
+      <c r="I8" s="147">
         <v>4.9900199600798396E-2</v>
       </c>
-      <c r="J8" s="177">
+      <c r="J8" s="147">
         <v>5.3069719042663895E-2</v>
       </c>
-      <c r="K8" s="177">
+      <c r="K8" s="147">
         <v>5.4279749478079335E-2</v>
       </c>
-      <c r="L8" s="177">
+      <c r="L8" s="147">
         <v>5.5613850996852038E-2</v>
       </c>
-      <c r="M8" s="177">
+      <c r="M8" s="147">
         <v>5.3459119496855355E-2</v>
       </c>
-      <c r="N8" s="177">
+      <c r="N8" s="147">
         <v>5.0595238095238096E-2</v>
       </c>
-      <c r="O8" s="177">
+      <c r="O8" s="147">
         <v>5.1434223541048478E-2</v>
       </c>
-      <c r="P8" s="177">
+      <c r="P8" s="147">
         <v>5.1587301587301598E-2</v>
       </c>
-      <c r="Q8" s="177">
+      <c r="Q8" s="147">
         <v>5.0395256916996048E-2</v>
       </c>
-      <c r="R8" s="177">
+      <c r="R8" s="147">
         <v>5.0495049504950498E-2</v>
       </c>
-      <c r="S8" s="178">
+      <c r="S8" s="148">
         <v>5.870772096274713E-2</v>
       </c>
-      <c r="T8" s="178">
+      <c r="T8" s="148">
         <v>5.8844866030772429E-2</v>
       </c>
-      <c r="U8" s="178">
+      <c r="U8" s="148">
         <v>5.8920647666779707E-2</v>
       </c>
-      <c r="V8" s="178">
+      <c r="V8" s="148">
         <v>5.7819807764049803E-2</v>
       </c>
-      <c r="W8" s="178">
+      <c r="W8" s="148">
         <v>5.8411956175426501E-2</v>
       </c>
-      <c r="X8" s="179">
+      <c r="X8" s="149">
         <v>4.650230507115654E-2</v>
       </c>
-      <c r="Y8" s="179">
+      <c r="Y8" s="149">
         <v>8.0597014925373134E-2</v>
       </c>
-      <c r="Z8" s="182">
+      <c r="Z8" s="152">
         <v>4.6800628382543147E-2</v>
       </c>
-      <c r="AA8" s="177">
+      <c r="AA8" s="147">
         <v>5.5314410336581868E-2</v>
       </c>
-      <c r="AB8" s="177">
+      <c r="AB8" s="147">
         <v>5.191262630149393E-2</v>
       </c>
-      <c r="AC8" s="177">
+      <c r="AC8" s="147">
         <v>4.8788497176642333E-2</v>
       </c>
-      <c r="AD8" s="180">
+      <c r="AD8" s="150">
         <v>5.2915453461261412E-2</v>
       </c>
-      <c r="AE8" s="180">
+      <c r="AE8" s="150">
         <v>4.8899492734932631E-2</v>
       </c>
-      <c r="AF8" s="180">
+      <c r="AF8" s="150">
         <v>5.1303815284776219E-2</v>
       </c>
-      <c r="AG8" s="180">
+      <c r="AG8" s="150">
         <v>5.3049756642635316E-2</v>
       </c>
-      <c r="AH8" s="180">
+      <c r="AH8" s="150">
         <v>5.2915453461261412E-2</v>
       </c>
-      <c r="AI8" s="180">
+      <c r="AI8" s="150">
         <v>4.8886358020048433E-2</v>
       </c>
-      <c r="AJ8" s="180">
+      <c r="AJ8" s="150">
         <v>5.024288539248542E-2</v>
       </c>
-      <c r="AK8" s="180">
+      <c r="AK8" s="150">
         <v>5.1303815284776698E-2</v>
       </c>
-      <c r="AL8" s="180">
+      <c r="AL8" s="150">
         <v>5.0497996196533619E-2</v>
       </c>
-      <c r="AM8" s="180">
+      <c r="AM8" s="150">
         <v>5.0511563923996396E-2</v>
       </c>
-      <c r="AN8" s="180">
+      <c r="AN8" s="150">
         <v>5.0229389833786255E-2</v>
       </c>
-      <c r="AO8" s="180">
+      <c r="AO8" s="150">
         <v>5.064590318975138E-2</v>
       </c>
-      <c r="AP8" s="180">
+      <c r="AP8" s="150">
         <v>5.212363511305966E-2</v>
       </c>
-      <c r="AQ8" s="134">
+      <c r="AQ8" s="120">
         <v>4.4617914277609388E-2</v>
       </c>
-      <c r="AR8" s="177">
+      <c r="AR8" s="147">
         <v>5.2038154497443673E-2</v>
       </c>
-      <c r="AS8" s="177">
+      <c r="AS8" s="147">
         <v>5.1432319733188223E-2</v>
       </c>
-      <c r="AT8" s="177">
+      <c r="AT8" s="147">
         <v>4.9757723933763931E-2</v>
       </c>
-      <c r="AU8" s="177">
+      <c r="AU8" s="147">
         <v>5.0070420199964653E-2</v>
       </c>
-      <c r="AV8" s="181">
+      <c r="AV8" s="151">
         <v>5.153437264041081E-2</v>
       </c>
     </row>
     <row r="9" spans="2:48">
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="176">
+      <c r="C9" s="146">
         <v>8.4249533896539504E-3</v>
       </c>
-      <c r="D9" s="176">
+      <c r="D9" s="146">
         <v>1.0991415021412368E-2</v>
       </c>
-      <c r="E9" s="176">
+      <c r="E9" s="146">
         <v>7.1174377224199207E-3</v>
       </c>
-      <c r="F9" s="176">
+      <c r="F9" s="146">
         <v>1.15608613238651E-2</v>
       </c>
-      <c r="G9" s="176">
+      <c r="G9" s="146">
         <v>1.20159222882352E-2</v>
       </c>
-      <c r="H9" s="177">
+      <c r="H9" s="147">
         <v>1.8220793140407292E-2</v>
       </c>
-      <c r="I9" s="177">
+      <c r="I9" s="147">
         <v>1.6966067864271454E-2</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="147">
         <v>1.7689906347554633E-2</v>
       </c>
-      <c r="K9" s="177">
+      <c r="K9" s="147">
         <v>1.7745302713987474E-2</v>
       </c>
-      <c r="L9" s="177">
+      <c r="L9" s="147">
         <v>1.7838405036726124E-2</v>
       </c>
-      <c r="M9" s="177">
+      <c r="M9" s="147">
         <v>1.7819706498951787E-2</v>
       </c>
-      <c r="N9" s="177">
+      <c r="N9" s="147">
         <v>1.6865079365079364E-2</v>
       </c>
-      <c r="O9" s="177">
+      <c r="O9" s="147">
         <v>1.6815034619188925E-2</v>
       </c>
-      <c r="P9" s="177">
+      <c r="P9" s="147">
         <v>1.6865079365079368E-2</v>
       </c>
-      <c r="Q9" s="177">
+      <c r="Q9" s="147">
         <v>1.6798418972332016E-2</v>
       </c>
-      <c r="R9" s="177">
+      <c r="R9" s="147">
         <v>1.6831683168316833E-2</v>
       </c>
-      <c r="S9" s="178">
+      <c r="S9" s="148">
         <v>9.6682773575348657E-3</v>
       </c>
-      <c r="T9" s="178">
+      <c r="T9" s="148">
         <v>1.2533372454529665E-2</v>
       </c>
-      <c r="U9" s="178">
+      <c r="U9" s="148">
         <v>1.00237440899367E-2</v>
       </c>
-      <c r="V9" s="178">
+      <c r="V9" s="148">
         <v>1.3062091903813699E-2</v>
       </c>
-      <c r="W9" s="178">
+      <c r="W9" s="148">
         <v>1.26689148853865E-2</v>
       </c>
-      <c r="X9" s="179">
+      <c r="X9" s="149">
         <v>1.4030867909400684E-3</v>
       </c>
-      <c r="Y9" s="179">
+      <c r="Y9" s="149">
         <v>1.8995929443690637E-3</v>
       </c>
-      <c r="Z9" s="179">
+      <c r="Z9" s="149">
         <v>1.2971035483497727E-2</v>
       </c>
-      <c r="AA9" s="177">
+      <c r="AA9" s="147">
         <v>1.6444687544131833E-2</v>
       </c>
-      <c r="AB9" s="177">
+      <c r="AB9" s="147">
         <v>1.9557195155346464E-2</v>
       </c>
-      <c r="AC9" s="177">
+      <c r="AC9" s="147">
         <v>2.2017691190357954E-2</v>
       </c>
-      <c r="AD9" s="180">
+      <c r="AD9" s="150">
         <v>2.0682689931559604E-2</v>
       </c>
-      <c r="AE9" s="180">
+      <c r="AE9" s="150">
         <v>1.9344854268764252E-2</v>
       </c>
-      <c r="AF9" s="180">
+      <c r="AF9" s="150">
         <v>2.0145477206063838E-2</v>
       </c>
-      <c r="AG9" s="180">
+      <c r="AG9" s="150">
         <v>2.0414083568810793E-2</v>
       </c>
-      <c r="AH9" s="180">
+      <c r="AH9" s="150">
         <v>1.8802445392325496E-2</v>
       </c>
-      <c r="AI9" s="180">
+      <c r="AI9" s="150">
         <v>2.2831540833538541E-2</v>
       </c>
-      <c r="AJ9" s="180">
+      <c r="AJ9" s="150">
         <v>2.2568996646892738E-2</v>
       </c>
-      <c r="AK9" s="180">
+      <c r="AK9" s="150">
         <v>2.1219902657054233E-2</v>
       </c>
-      <c r="AL9" s="180">
+      <c r="AL9" s="150">
         <v>2.0951296294306563E-2</v>
       </c>
-      <c r="AM9" s="180">
+      <c r="AM9" s="150">
         <v>2.0150889863296273E-2</v>
       </c>
-      <c r="AN9" s="180">
+      <c r="AN9" s="150">
         <v>2.0145477206063838E-2</v>
       </c>
-      <c r="AO9" s="180">
+      <c r="AO9" s="150">
         <v>2.0150889863296127E-2</v>
       </c>
-      <c r="AP9" s="180">
+      <c r="AP9" s="150">
         <v>2.0150889863297123E-2</v>
       </c>
-      <c r="AQ9" s="134">
+      <c r="AQ9" s="120">
         <v>1.5742118177783416E-2</v>
       </c>
-      <c r="AR9" s="177">
+      <c r="AR9" s="147">
         <v>1.6156497231662261E-2</v>
       </c>
-      <c r="AS9" s="177">
+      <c r="AS9" s="147">
         <v>1.4570289088626785E-2</v>
       </c>
-      <c r="AT9" s="177">
+      <c r="AT9" s="147">
         <v>1.7026366413613089E-2</v>
       </c>
-      <c r="AU9" s="177">
+      <c r="AU9" s="147">
         <v>1.7971976671034361E-2</v>
       </c>
-      <c r="AV9" s="181">
+      <c r="AV9" s="151">
         <v>1.5934358904683293E-2</v>
       </c>
     </row>
     <row r="10" spans="2:48">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="176">
+      <c r="C10" s="146">
         <v>3.8367131866514997E-2</v>
       </c>
-      <c r="D10" s="176">
+      <c r="D10" s="146">
         <v>4.466981849969219E-2</v>
       </c>
-      <c r="E10" s="176">
+      <c r="E10" s="146">
         <v>3.7343735742312201E-2</v>
       </c>
-      <c r="F10" s="176">
+      <c r="F10" s="146">
         <v>4.44937428288536E-2</v>
       </c>
-      <c r="G10" s="176">
+      <c r="G10" s="146">
         <v>4.2293187566492502E-2</v>
       </c>
-      <c r="H10" s="177">
+      <c r="H10" s="147">
         <v>5.2518756698821022E-2</v>
       </c>
-      <c r="I10" s="177">
+      <c r="I10" s="147">
         <v>5.5888223552894196E-2</v>
       </c>
-      <c r="J10" s="177">
+      <c r="J10" s="147">
         <v>6.0353798126951096E-2</v>
       </c>
-      <c r="K10" s="177">
+      <c r="K10" s="147">
         <v>6.0542797494780795E-2</v>
       </c>
-      <c r="L10" s="177">
+      <c r="L10" s="147">
         <v>6.190975865687303E-2</v>
       </c>
-      <c r="M10" s="177">
+      <c r="M10" s="147">
         <v>6.0796645702306099E-2</v>
       </c>
-      <c r="N10" s="177">
+      <c r="N10" s="147">
         <v>5.753968253968253E-2</v>
       </c>
-      <c r="O10" s="177">
+      <c r="O10" s="147">
         <v>5.8358061325420388E-2</v>
       </c>
-      <c r="P10" s="177">
+      <c r="P10" s="147">
         <v>5.753968253968255E-2</v>
       </c>
-      <c r="Q10" s="177">
+      <c r="Q10" s="147">
         <v>5.8300395256917013E-2</v>
       </c>
-      <c r="R10" s="177">
+      <c r="R10" s="147">
         <v>5.7425742574257421E-2</v>
       </c>
-      <c r="S10" s="178">
+      <c r="S10" s="148">
         <v>3.9778224357826499E-2</v>
       </c>
-      <c r="T10" s="178">
+      <c r="T10" s="148">
         <v>3.9597200668119933E-2</v>
       </c>
-      <c r="U10" s="178">
+      <c r="U10" s="148">
         <v>3.7194459250849701E-2</v>
       </c>
-      <c r="V10" s="178">
+      <c r="V10" s="148">
         <v>3.9248228973899901E-2</v>
       </c>
-      <c r="W10" s="178">
+      <c r="W10" s="148">
         <v>3.9505291819290099E-2</v>
       </c>
-      <c r="X10" s="179">
+      <c r="X10" s="149">
         <f>0.0775706554419723/2</f>
         <v>3.8785327720986147E-2</v>
       </c>
-      <c r="Y10" s="179">
+      <c r="Y10" s="149">
         <v>2.8493894165535955E-2</v>
       </c>
-      <c r="Z10" s="182">
+      <c r="Z10" s="152">
         <v>5.9151408296366975E-2</v>
       </c>
-      <c r="AA10" s="177">
+      <c r="AA10" s="147">
         <v>4.8557846882685232E-2</v>
       </c>
-      <c r="AB10" s="177">
+      <c r="AB10" s="147">
         <v>4.9820264437904431E-2</v>
       </c>
-      <c r="AC10" s="177">
+      <c r="AC10" s="147">
         <v>4.9820480352122803E-2</v>
       </c>
-      <c r="AD10" s="180">
+      <c r="AD10" s="150">
         <v>6.4857692349016241E-2</v>
       </c>
-      <c r="AE10" s="180">
+      <c r="AE10" s="150">
         <v>6.0844940245894243E-2</v>
       </c>
-      <c r="AF10" s="180">
+      <c r="AF10" s="150">
         <v>6.3246054172531055E-2</v>
       </c>
-      <c r="AG10" s="180">
+      <c r="AG10" s="150">
         <v>6.5529208255884888E-2</v>
       </c>
-      <c r="AH10" s="180">
+      <c r="AH10" s="150">
         <v>6.4454782804894958E-2</v>
       </c>
-      <c r="AI10" s="180">
+      <c r="AI10" s="150">
         <v>6.5663511437258834E-2</v>
       </c>
-      <c r="AJ10" s="180">
+      <c r="AJ10" s="150">
         <v>6.4069082624021778E-2</v>
       </c>
-      <c r="AK10" s="180">
+      <c r="AK10" s="150">
         <v>6.0425687363681979E-2</v>
       </c>
-      <c r="AL10" s="180">
+      <c r="AL10" s="150">
         <v>6.5663511437258834E-2</v>
       </c>
-      <c r="AM10" s="180">
+      <c r="AM10" s="150">
         <v>6.7158885736393878E-2</v>
       </c>
-      <c r="AN10" s="180">
+      <c r="AN10" s="150">
         <v>6.6737936888248792E-2</v>
       </c>
-      <c r="AO10" s="180">
+      <c r="AO10" s="150">
         <v>6.47407789527982E-2</v>
       </c>
-      <c r="AP10" s="180">
+      <c r="AP10" s="150">
         <v>6.4069082624021792E-2</v>
       </c>
-      <c r="AQ10" s="134">
+      <c r="AQ10" s="120">
         <v>5.9009069684736425E-2</v>
       </c>
-      <c r="AR10" s="177">
+      <c r="AR10" s="147">
         <v>7.0538628564777633E-2</v>
       </c>
-      <c r="AS10" s="177">
+      <c r="AS10" s="147">
         <v>6.775248258175752E-2</v>
       </c>
-      <c r="AT10" s="177">
+      <c r="AT10" s="147">
         <v>6.844168667127784E-2</v>
       </c>
-      <c r="AU10" s="177">
+      <c r="AU10" s="147">
         <v>7.1716701735113575E-2</v>
       </c>
-      <c r="AV10" s="181">
+      <c r="AV10" s="151">
         <v>6.9915252711002185E-2</v>
       </c>
     </row>
     <row r="11" spans="2:48">
-      <c r="B11" s="175" t="s">
+      <c r="B11" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="176">
+      <c r="C11" s="146">
         <v>7.1722434436860438E-2</v>
       </c>
-      <c r="D11" s="176">
+      <c r="D11" s="146">
         <v>5.9265864836162009E-2</v>
       </c>
-      <c r="E11" s="176">
+      <c r="E11" s="146">
         <v>7.1972807737932298E-2</v>
       </c>
-      <c r="F11" s="176">
+      <c r="F11" s="146">
         <v>5.7799726246376706E-2</v>
       </c>
-      <c r="G11" s="176">
+      <c r="G11" s="146">
         <v>6.1296591674230398E-2</v>
       </c>
-      <c r="H11" s="177">
+      <c r="H11" s="147">
         <v>5.2518756698821022E-2</v>
       </c>
-      <c r="I11" s="177">
+      <c r="I11" s="147">
         <v>5.5888223552894196E-2</v>
       </c>
-      <c r="J11" s="177">
+      <c r="J11" s="147">
         <v>6.0353798126951096E-2</v>
       </c>
-      <c r="K11" s="177">
+      <c r="K11" s="147">
         <v>6.0542797494780795E-2</v>
       </c>
-      <c r="L11" s="177">
+      <c r="L11" s="147">
         <v>6.190975865687303E-2</v>
       </c>
-      <c r="M11" s="177">
+      <c r="M11" s="147">
         <v>6.0796645702306099E-2</v>
       </c>
-      <c r="N11" s="177">
+      <c r="N11" s="147">
         <v>5.753968253968253E-2</v>
       </c>
-      <c r="O11" s="177">
+      <c r="O11" s="147">
         <v>5.8358061325420388E-2</v>
       </c>
-      <c r="P11" s="177">
+      <c r="P11" s="147">
         <v>5.753968253968255E-2</v>
       </c>
-      <c r="Q11" s="177">
+      <c r="Q11" s="147">
         <v>5.8300395256917013E-2</v>
       </c>
-      <c r="R11" s="177">
+      <c r="R11" s="147">
         <v>5.7425742574257421E-2</v>
       </c>
-      <c r="S11" s="178">
+      <c r="S11" s="148">
         <v>6.8884968213361805E-2</v>
       </c>
-      <c r="T11" s="178">
+      <c r="T11" s="148">
         <v>6.5794700049687807E-2</v>
       </c>
-      <c r="U11" s="178">
+      <c r="U11" s="148">
         <v>7.132918446319661E-2</v>
       </c>
-      <c r="V11" s="178">
+      <c r="V11" s="148">
         <v>6.4623615512025195E-2</v>
       </c>
-      <c r="W11" s="178">
+      <c r="W11" s="148">
         <v>6.5274299285077303E-2</v>
       </c>
-      <c r="X11" s="179">
+      <c r="X11" s="149">
         <v>7.7570655441972336E-2</v>
       </c>
-      <c r="Y11" s="179">
+      <c r="Y11" s="149">
         <v>8.1953867028493887E-2</v>
       </c>
-      <c r="Z11" s="182">
+      <c r="Z11" s="152">
         <v>6.7823923407642081E-2</v>
       </c>
-      <c r="AA11" s="177">
+      <c r="AA11" s="147">
         <v>8.1130231843577996E-2</v>
       </c>
-      <c r="AB11" s="177">
+      <c r="AB11" s="147">
         <v>7.5878499131112637E-2</v>
       </c>
-      <c r="AC11" s="177">
+      <c r="AC11" s="147">
         <v>7.1817216454374486E-2</v>
       </c>
-      <c r="AD11" s="180">
+      <c r="AD11" s="150">
         <v>6.4857692349016241E-2</v>
       </c>
-      <c r="AE11" s="180">
+      <c r="AE11" s="150">
         <v>6.0844940245894243E-2</v>
       </c>
-      <c r="AF11" s="180">
+      <c r="AF11" s="150">
         <v>6.3246054172531055E-2</v>
       </c>
-      <c r="AG11" s="180">
+      <c r="AG11" s="150">
         <v>6.5529208255884888E-2</v>
       </c>
-      <c r="AH11" s="180">
+      <c r="AH11" s="150">
         <v>6.4454782804894958E-2</v>
       </c>
-      <c r="AI11" s="180">
+      <c r="AI11" s="150">
         <v>6.5663511437258834E-2</v>
       </c>
-      <c r="AJ11" s="180">
+      <c r="AJ11" s="150">
         <v>6.4069082624021778E-2</v>
       </c>
-      <c r="AK11" s="180">
+      <c r="AK11" s="150">
         <v>6.0425687363681979E-2</v>
       </c>
-      <c r="AL11" s="180">
+      <c r="AL11" s="150">
         <v>6.5663511437258834E-2</v>
       </c>
-      <c r="AM11" s="180">
+      <c r="AM11" s="150">
         <v>6.7158885736393878E-2</v>
       </c>
-      <c r="AN11" s="180">
+      <c r="AN11" s="150">
         <v>6.6737936888248792E-2</v>
       </c>
-      <c r="AO11" s="180">
+      <c r="AO11" s="150">
         <v>6.47407789527982E-2</v>
       </c>
-      <c r="AP11" s="180">
+      <c r="AP11" s="150">
         <v>6.4069082624021792E-2</v>
       </c>
-      <c r="AQ11" s="134">
+      <c r="AQ11" s="120">
         <v>5.9020124644047232E-2</v>
       </c>
-      <c r="AR11" s="177">
+      <c r="AR11" s="147">
         <v>5.9778498783709798E-2</v>
       </c>
-      <c r="AS11" s="177">
+      <c r="AS11" s="147">
         <v>5.741735812013344E-2</v>
       </c>
-      <c r="AT11" s="177">
+      <c r="AT11" s="147">
         <v>5.8001429382438789E-2</v>
       </c>
-      <c r="AU11" s="177">
+      <c r="AU11" s="147">
         <v>6.0776865877214835E-2</v>
       </c>
-      <c r="AV11" s="181">
+      <c r="AV11" s="151">
         <v>5.9250214161866203E-2</v>
       </c>
     </row>
     <row r="12" spans="2:48">
-      <c r="B12" s="175" t="s">
+      <c r="B12" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="176">
+      <c r="C12" s="146">
         <v>8.0875842698461431E-2</v>
       </c>
-      <c r="D12" s="176">
+      <c r="D12" s="146">
         <v>7.4302213870783756E-2</v>
       </c>
-      <c r="E12" s="176">
+      <c r="E12" s="146">
         <v>8.034492198193259E-2</v>
       </c>
-      <c r="F12" s="176">
+      <c r="F12" s="146">
         <v>7.3750875042082095E-2</v>
       </c>
-      <c r="G12" s="176">
+      <c r="G12" s="146">
         <v>6.1962493887759706E-2</v>
       </c>
-      <c r="H12" s="177">
+      <c r="H12" s="147">
         <v>5.2518756698821022E-2</v>
       </c>
-      <c r="I12" s="177">
+      <c r="I12" s="147">
         <v>8.5828343313373245E-2</v>
       </c>
-      <c r="J12" s="177">
+      <c r="J12" s="147">
         <v>8.7408949011446413E-2</v>
       </c>
-      <c r="K12" s="177">
+      <c r="K12" s="147">
         <v>8.6638830897703564E-2</v>
       </c>
-      <c r="L12" s="177">
+      <c r="L12" s="147">
         <v>8.8142707240293786E-2</v>
       </c>
-      <c r="M12" s="177">
+      <c r="M12" s="147">
         <v>8.8050314465408827E-2</v>
       </c>
-      <c r="N12" s="177">
+      <c r="N12" s="147">
         <v>8.4325396825396817E-2</v>
       </c>
-      <c r="O12" s="177">
+      <c r="O12" s="147">
         <v>8.407517309594463E-2</v>
       </c>
-      <c r="P12" s="177">
+      <c r="P12" s="147">
         <v>8.3333333333333356E-2</v>
       </c>
-      <c r="Q12" s="177">
+      <c r="Q12" s="147">
         <v>8.3003952569169967E-2</v>
       </c>
-      <c r="R12" s="177">
+      <c r="R12" s="147">
         <v>8.4158415841584164E-2</v>
       </c>
-      <c r="S12" s="178">
+      <c r="S12" s="148">
         <v>5.8564165501712798E-2</v>
       </c>
-      <c r="T12" s="178">
+      <c r="T12" s="148">
         <v>4.9593561709298871E-2</v>
       </c>
-      <c r="U12" s="178">
+      <c r="U12" s="148">
         <v>6.3302574468526898E-2</v>
       </c>
-      <c r="V12" s="178">
+      <c r="V12" s="148">
         <v>4.9607484222010993E-2</v>
       </c>
-      <c r="W12" s="178">
+      <c r="W12" s="148">
         <v>4.9725635901819699E-2</v>
       </c>
-      <c r="X12" s="179">
+      <c r="X12" s="149">
         <v>8.9096011224694335E-2</v>
       </c>
-      <c r="Y12" s="179">
+      <c r="Y12" s="149">
         <v>7.8697421981004059E-2</v>
       </c>
-      <c r="Z12" s="182">
+      <c r="Z12" s="152">
         <v>9.0994957965048043E-2</v>
       </c>
-      <c r="AA12" s="177">
+      <c r="AA12" s="147">
         <v>6.4860897388234071E-2</v>
       </c>
-      <c r="AB12" s="177">
+      <c r="AB12" s="147">
         <v>6.1282673641440299E-2</v>
       </c>
-      <c r="AC12" s="177">
+      <c r="AC12" s="147">
         <v>6.1852874370336944E-2</v>
       </c>
-      <c r="AD12" s="180">
+      <c r="AD12" s="150">
         <v>8.7297067892945099E-2</v>
       </c>
-      <c r="AE12" s="180">
+      <c r="AE12" s="150">
         <v>8.6514487146418809E-2</v>
       </c>
-      <c r="AF12" s="180">
+      <c r="AF12" s="150">
         <v>8.7028461530197249E-2</v>
       </c>
-      <c r="AG12" s="180">
+      <c r="AG12" s="150">
         <v>8.4879610628216348E-2</v>
       </c>
-      <c r="AH12" s="180">
+      <c r="AH12" s="150">
         <v>8.7297067892944155E-2</v>
       </c>
-      <c r="AI12" s="180">
+      <c r="AI12" s="150">
         <v>9.2937801510642265E-2</v>
       </c>
-      <c r="AJ12" s="180">
+      <c r="AJ12" s="150">
         <v>9.1350700713610122E-2</v>
       </c>
-      <c r="AK12" s="180">
+      <c r="AK12" s="150">
         <v>9.3475014236137008E-2</v>
       </c>
-      <c r="AL12" s="180">
+      <c r="AL12" s="150">
         <v>8.6491248804702547E-2</v>
       </c>
-      <c r="AM12" s="180">
+      <c r="AM12" s="150">
         <v>8.5977130083396941E-2</v>
       </c>
-      <c r="AN12" s="180">
+      <c r="AN12" s="150">
         <v>8.5954036079206791E-2</v>
       </c>
-      <c r="AO12" s="180">
+      <c r="AO12" s="150">
         <v>9.2962771902674865E-2</v>
       </c>
-      <c r="AP12" s="180">
+      <c r="AP12" s="150">
         <v>9.3768807497205814E-2</v>
       </c>
-      <c r="AQ12" s="134">
+      <c r="AQ12" s="120">
         <v>0.10545459145806892</v>
       </c>
-      <c r="AR12" s="177">
+      <c r="AR12" s="147">
         <v>9.3981631148071079E-2</v>
       </c>
-      <c r="AS12" s="177">
+      <c r="AS12" s="147">
         <v>9.6732350408020751E-2</v>
       </c>
-      <c r="AT12" s="177">
+      <c r="AT12" s="147">
         <v>8.9362385332015556E-2</v>
       </c>
-      <c r="AU12" s="177">
+      <c r="AU12" s="147">
         <v>9.4332621065772435E-2</v>
       </c>
-      <c r="AV12" s="181">
+      <c r="AV12" s="151">
         <v>9.5195617330982515E-2</v>
       </c>
     </row>
     <row r="13" spans="2:48">
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="176">
+      <c r="C13" s="146">
         <v>1.9477441397181099E-2</v>
       </c>
-      <c r="D13" s="176">
+      <c r="D13" s="146">
         <v>2.2585419174411238E-2</v>
       </c>
-      <c r="E13" s="176">
+      <c r="E13" s="146">
         <v>1.9002646226845502E-2</v>
       </c>
-      <c r="F13" s="176">
+      <c r="F13" s="146">
         <v>2.2674372889688498E-2</v>
       </c>
-      <c r="G13" s="176">
+      <c r="G13" s="146">
         <v>2.2393061181767399E-2</v>
       </c>
-      <c r="H13" s="177">
+      <c r="H13" s="147">
         <v>1.9292604501607722E-2</v>
       </c>
-      <c r="I13" s="177">
+      <c r="I13" s="147">
         <v>1.6966067864271454E-2</v>
       </c>
-      <c r="J13" s="177">
+      <c r="J13" s="147">
         <v>1.7689906347554633E-2</v>
       </c>
-      <c r="K13" s="177">
+      <c r="K13" s="147">
         <v>1.8789144050104387E-2</v>
       </c>
-      <c r="L13" s="177">
+      <c r="L13" s="147">
         <v>1.8887722980062957E-2</v>
       </c>
-      <c r="M13" s="177">
+      <c r="M13" s="147">
         <v>1.8867924528301893E-2</v>
       </c>
-      <c r="N13" s="177">
+      <c r="N13" s="147">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="O13" s="177">
+      <c r="O13" s="147">
         <v>1.7804154302670627E-2</v>
       </c>
-      <c r="P13" s="177">
+      <c r="P13" s="147">
         <v>1.785714285714286E-2</v>
       </c>
-      <c r="Q13" s="177">
+      <c r="Q13" s="147">
         <v>1.7786561264822136E-2</v>
       </c>
-      <c r="R13" s="177">
+      <c r="R13" s="147">
         <v>1.7821782178217824E-2</v>
       </c>
-      <c r="S13" s="178">
+      <c r="S13" s="148">
         <v>1.9796049640725899E-2</v>
       </c>
-      <c r="T13" s="178">
+      <c r="T13" s="148">
         <v>2.1607270422843699E-2</v>
       </c>
-      <c r="U13" s="178">
+      <c r="U13" s="148">
         <v>1.9912499913468999E-2</v>
       </c>
-      <c r="V13" s="178">
+      <c r="V13" s="148">
         <v>2.1747269535538002E-2</v>
       </c>
-      <c r="W13" s="178">
+      <c r="W13" s="148">
         <v>2.17089782521338E-2</v>
       </c>
-      <c r="X13" s="179">
+      <c r="X13" s="149">
         <v>1.9342553617959508E-2</v>
       </c>
-      <c r="Y13" s="179">
+      <c r="Y13" s="149">
         <v>1.7910447761194031E-2</v>
       </c>
-      <c r="Z13" s="182">
+      <c r="Z13" s="152">
         <v>1.7898049338071431E-2</v>
       </c>
-      <c r="AA13" s="177">
+      <c r="AA13" s="147">
         <v>2.1862754812544363E-2</v>
       </c>
-      <c r="AB13" s="177">
+      <c r="AB13" s="147">
         <v>2.5568458738886034E-2</v>
       </c>
-      <c r="AC13" s="177">
+      <c r="AC13" s="147">
         <v>2.6822820293030333E-2</v>
       </c>
-      <c r="AD13" s="180">
+      <c r="AD13" s="150">
         <v>1.8802445392326485E-2</v>
       </c>
-      <c r="AE13" s="180">
+      <c r="AE13" s="150">
         <v>1.9076175737254338E-2</v>
       </c>
-      <c r="AF13" s="180">
+      <c r="AF13" s="150">
         <v>1.7996626304084898E-2</v>
       </c>
-      <c r="AG13" s="180">
+      <c r="AG13" s="150">
         <v>1.8533839029579665E-2</v>
       </c>
-      <c r="AH13" s="180">
+      <c r="AH13" s="150">
         <v>1.9339658117822255E-2</v>
       </c>
-      <c r="AI13" s="180">
+      <c r="AI13" s="150">
         <v>1.9339658117822251E-2</v>
       </c>
-      <c r="AJ13" s="180">
+      <c r="AJ13" s="150">
         <v>1.5314676296104883E-2</v>
       </c>
-      <c r="AK13" s="180">
+      <c r="AK13" s="150">
         <v>1.5579169039355162E-2</v>
       </c>
-      <c r="AL13" s="180">
+      <c r="AL13" s="150">
         <v>1.7190807215841323E-2</v>
       </c>
-      <c r="AM13" s="180">
+      <c r="AM13" s="150">
         <v>1.8001461611211418E-2</v>
       </c>
-      <c r="AN13" s="180">
+      <c r="AN13" s="150">
         <v>1.7190807215841323E-2</v>
       </c>
-      <c r="AO13" s="180">
+      <c r="AO13" s="150">
         <v>1.5314676296105882E-2</v>
       </c>
-      <c r="AP13" s="180">
+      <c r="AP13" s="150">
         <v>1.5314676296104886E-2</v>
       </c>
-      <c r="AQ13" s="134">
+      <c r="AQ13" s="120">
         <v>1.9504054572146188E-2</v>
       </c>
-      <c r="AR13" s="177">
+      <c r="AR13" s="147">
         <v>1.843270974443903E-2</v>
       </c>
-      <c r="AS13" s="177">
+      <c r="AS13" s="147">
         <v>1.8514871250636417E-2</v>
       </c>
-      <c r="AT13" s="177">
+      <c r="AT13" s="147">
         <v>1.9248666310530679E-2</v>
       </c>
-      <c r="AU13" s="177">
+      <c r="AU13" s="147">
         <v>1.8736063383557936E-2</v>
       </c>
-      <c r="AV13" s="181">
+      <c r="AV13" s="151">
         <v>1.9754294599335764E-2</v>
       </c>
     </row>
     <row r="14" spans="2:48">
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="176">
+      <c r="C14" s="146">
         <v>6.0797261339830398E-2</v>
       </c>
-      <c r="D14" s="176">
+      <c r="D14" s="146">
         <v>5.8936261120536272E-2</v>
       </c>
-      <c r="E14" s="176">
+      <c r="E14" s="146">
         <v>6.1159777351948101E-2</v>
       </c>
-      <c r="F14" s="176">
+      <c r="F14" s="146">
         <v>6.0038765223060307E-2</v>
       </c>
-      <c r="G14" s="176">
+      <c r="G14" s="146">
         <v>6.2679949821046105E-2</v>
       </c>
-      <c r="H14" s="177">
+      <c r="H14" s="147">
         <v>5.7877813504823156E-2</v>
       </c>
-      <c r="I14" s="177">
+      <c r="I14" s="147">
         <v>4.590818363273453E-2</v>
       </c>
-      <c r="J14" s="177">
+      <c r="J14" s="147">
         <v>4.8907388137356927E-2</v>
       </c>
-      <c r="K14" s="177">
+      <c r="K14" s="147">
         <v>5.0104384133611693E-2</v>
       </c>
-      <c r="L14" s="177">
+      <c r="L14" s="147">
         <v>5.1416579223504719E-2</v>
       </c>
-      <c r="M14" s="177">
+      <c r="M14" s="147">
         <v>5.0314465408805041E-2</v>
       </c>
-      <c r="N14" s="177">
+      <c r="N14" s="147">
         <v>4.8611111111111119E-2</v>
       </c>
-      <c r="O14" s="177">
+      <c r="O14" s="147">
         <v>4.7477744807121663E-2</v>
       </c>
-      <c r="P14" s="177">
+      <c r="P14" s="147">
         <v>4.761904761904763E-2</v>
       </c>
-      <c r="Q14" s="177">
+      <c r="Q14" s="147">
         <v>4.8418972332015822E-2</v>
       </c>
-      <c r="R14" s="177">
+      <c r="R14" s="147">
         <v>4.8514851485148516E-2</v>
       </c>
-      <c r="S14" s="178">
+      <c r="S14" s="148">
         <v>6.2227733845198474E-2</v>
       </c>
-      <c r="T14" s="178">
+      <c r="T14" s="148">
         <v>6.5533761311644845E-2</v>
       </c>
-      <c r="U14" s="178">
+      <c r="U14" s="148">
         <v>6.2696857888506596E-2</v>
       </c>
-      <c r="V14" s="178">
+      <c r="V14" s="148">
         <v>6.5612523533867609E-2</v>
       </c>
-      <c r="W14" s="178">
+      <c r="W14" s="148">
         <v>6.5593930218802207E-2</v>
       </c>
-      <c r="X14" s="179">
+      <c r="X14" s="149">
         <v>5.9029865704550009E-2</v>
       </c>
-      <c r="Y14" s="179">
+      <c r="Y14" s="149">
         <v>5.2374491180461329E-2</v>
       </c>
-      <c r="Z14" s="182">
+      <c r="Z14" s="152">
         <v>4.7111873911691492E-2</v>
       </c>
-      <c r="AA14" s="177">
+      <c r="AA14" s="147">
         <v>4.6583862750562727E-2</v>
       </c>
-      <c r="AB14" s="177">
+      <c r="AB14" s="147">
         <v>4.3786011349168062E-2</v>
       </c>
-      <c r="AC14" s="177">
+      <c r="AC14" s="147">
         <v>4.3593304704377743E-2</v>
       </c>
-      <c r="AD14" s="180">
+      <c r="AD14" s="150">
         <v>3.7067678059158345E-2</v>
       </c>
-      <c r="AE14" s="180">
+      <c r="AE14" s="150">
         <v>3.7614994411485726E-2</v>
       </c>
-      <c r="AF14" s="180">
+      <c r="AF14" s="150">
         <v>3.6799071696409537E-2</v>
       </c>
-      <c r="AG14" s="180">
+      <c r="AG14" s="150">
         <v>3.679907169640953E-2</v>
       </c>
-      <c r="AH14" s="180">
+      <c r="AH14" s="150">
         <v>3.7873497147399939E-2</v>
       </c>
-      <c r="AI14" s="180">
+      <c r="AI14" s="150">
         <v>3.6799071696409537E-2</v>
       </c>
-      <c r="AJ14" s="180">
+      <c r="AJ14" s="150">
         <v>4.1376493852635171E-2</v>
       </c>
-      <c r="AK14" s="180">
+      <c r="AK14" s="150">
         <v>4.3245624402350337E-2</v>
       </c>
-      <c r="AL14" s="180">
+      <c r="AL14" s="150">
         <v>3.7604890784652116E-2</v>
       </c>
-      <c r="AM14" s="180">
+      <c r="AM14" s="150">
         <v>3.7614994411485733E-2</v>
       </c>
-      <c r="AN14" s="180">
+      <c r="AN14" s="150">
         <v>3.6799071696410529E-2</v>
       </c>
-      <c r="AO14" s="180">
+      <c r="AO14" s="150">
         <v>4.2451207978677963E-2</v>
       </c>
-      <c r="AP14" s="180">
+      <c r="AP14" s="150">
         <v>4.1645172384146084E-2</v>
       </c>
-      <c r="AQ14" s="134">
+      <c r="AQ14" s="120">
         <v>4.4058727816319768E-2</v>
       </c>
-      <c r="AR14" s="177">
+      <c r="AR14" s="147">
         <v>4.117211107711137E-2</v>
       </c>
-      <c r="AS14" s="177">
+      <c r="AS14" s="147">
         <v>4.2816702738990964E-2</v>
       </c>
-      <c r="AT14" s="177">
+      <c r="AT14" s="147">
         <v>4.4253129092468771E-2</v>
       </c>
-      <c r="AU14" s="177">
+      <c r="AU14" s="147">
         <v>4.3493064764925399E-2</v>
       </c>
-      <c r="AV14" s="181">
+      <c r="AV14" s="151">
         <v>4.5044997816047032E-2</v>
       </c>
     </row>
     <row r="15" spans="2:48">
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="176">
+      <c r="C15" s="146">
         <v>8.7414443520425919E-2</v>
       </c>
-      <c r="D15" s="176">
+      <c r="D15" s="146">
         <v>0.10678782633637623</v>
       </c>
-      <c r="E15" s="176">
+      <c r="E15" s="146">
         <v>8.2147093712930011E-2</v>
       </c>
-      <c r="F15" s="176">
+      <c r="F15" s="146">
         <v>0.107132633096095</v>
       </c>
-      <c r="G15" s="176">
+      <c r="G15" s="146">
         <v>0.101106608405755</v>
       </c>
-      <c r="H15" s="177">
+      <c r="H15" s="147">
         <v>9.0032154340836043E-2</v>
       </c>
-      <c r="I15" s="177">
+      <c r="I15" s="147">
         <v>9.0818363273453079E-2</v>
       </c>
-      <c r="J15" s="177">
+      <c r="J15" s="147">
         <v>5.5150884495317382E-2</v>
       </c>
-      <c r="K15" s="177">
+      <c r="K15" s="147">
         <v>4.697286012526096E-2</v>
       </c>
-      <c r="L15" s="177">
+      <c r="L15" s="147">
         <v>2.7282266526757602E-2</v>
       </c>
-      <c r="M15" s="177">
+      <c r="M15" s="147">
         <v>4.821802935010483E-2</v>
       </c>
-      <c r="N15" s="177">
+      <c r="N15" s="147">
         <v>8.9285714285714274E-2</v>
       </c>
-      <c r="O15" s="177">
+      <c r="O15" s="147">
         <v>8.9020771513353136E-2</v>
       </c>
-      <c r="P15" s="177">
+      <c r="P15" s="147">
         <v>8.9285714285714302E-2</v>
       </c>
-      <c r="Q15" s="177">
+      <c r="Q15" s="147">
         <v>9.3873517786561292E-2</v>
       </c>
-      <c r="R15" s="177">
+      <c r="R15" s="147">
         <v>9.3069306930693069E-2</v>
       </c>
-      <c r="S15" s="178">
+      <c r="S15" s="148">
         <v>8.9169361070417799E-2</v>
       </c>
-      <c r="T15" s="178">
+      <c r="T15" s="148">
         <v>9.5489908517193134E-2</v>
       </c>
-      <c r="U15" s="178">
+      <c r="U15" s="148">
         <v>8.8327322317367785E-2</v>
       </c>
-      <c r="V15" s="178">
+      <c r="V15" s="148">
         <v>9.5629381518906389E-2</v>
       </c>
-      <c r="W15" s="178">
+      <c r="W15" s="148">
         <v>9.5077751844956107E-2</v>
       </c>
-      <c r="X15" s="179">
+      <c r="X15" s="149">
         <v>8.0276608538785335E-2</v>
       </c>
-      <c r="Y15" s="179">
+      <c r="Y15" s="149">
         <v>8.032564450474898E-2</v>
       </c>
-      <c r="Z15" s="182">
+      <c r="Z15" s="152">
         <v>6.9390813889813302E-2</v>
       </c>
-      <c r="AA15" s="177">
+      <c r="AA15" s="147">
         <v>8.9398725374337809E-2</v>
       </c>
-      <c r="AB15" s="177">
+      <c r="AB15" s="147">
         <v>9.7441526313059426E-2</v>
       </c>
-      <c r="AC15" s="177">
+      <c r="AC15" s="147">
         <v>9.9994209893894334E-2</v>
       </c>
-      <c r="AD15" s="180">
+      <c r="AD15" s="150">
         <v>8.2462153363488541E-2</v>
       </c>
-      <c r="AE15" s="180">
+      <c r="AE15" s="150">
         <v>8.4902415957355037E-2</v>
       </c>
-      <c r="AF15" s="180">
+      <c r="AF15" s="150">
         <v>8.2999366088984311E-2</v>
       </c>
-      <c r="AG15" s="180">
+      <c r="AG15" s="150">
         <v>8.1656334275246947E-2</v>
       </c>
-      <c r="AH15" s="180">
+      <c r="AH15" s="150">
         <v>8.2193547000741662E-2</v>
       </c>
-      <c r="AI15" s="180">
+      <c r="AI15" s="150">
         <v>8.2730759726237418E-2</v>
       </c>
-      <c r="AJ15" s="180">
+      <c r="AJ15" s="150">
         <v>8.3021666236781325E-2</v>
       </c>
-      <c r="AK15" s="180">
+      <c r="AK15" s="150">
         <v>8.6222642441954711E-2</v>
       </c>
-      <c r="AL15" s="180">
+      <c r="AL15" s="150">
         <v>8.1924940637993812E-2</v>
       </c>
-      <c r="AM15" s="180">
+      <c r="AM15" s="150">
         <v>8.2484309173760387E-2</v>
       </c>
-      <c r="AN15" s="180">
+      <c r="AN15" s="150">
         <v>8.246215336348954E-2</v>
       </c>
-      <c r="AO15" s="180">
+      <c r="AO15" s="150">
         <v>8.40963803628232E-2</v>
       </c>
-      <c r="AP15" s="180">
+      <c r="AP15" s="150">
         <v>8.43650588943341E-2</v>
       </c>
-      <c r="AQ15" s="134">
+      <c r="AQ15" s="120">
         <v>8.2530398581042025E-2</v>
       </c>
-      <c r="AR15" s="177">
+      <c r="AR15" s="147">
         <v>8.384685394535818E-2</v>
       </c>
-      <c r="AS15" s="177">
+      <c r="AS15" s="147">
         <v>8.4030641204329848E-2</v>
       </c>
-      <c r="AT15" s="177">
+      <c r="AT15" s="147">
         <v>8.3300007703470624E-2</v>
       </c>
-      <c r="AU15" s="177">
+      <c r="AU15" s="147">
         <v>8.3597059548168304E-2</v>
       </c>
-      <c r="AV15" s="181">
+      <c r="AV15" s="151">
         <v>8.5778383750457307E-2</v>
       </c>
     </row>
     <row r="16" spans="2:48">
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="176">
+      <c r="C16" s="146">
         <v>6.0048636085953531E-2</v>
       </c>
-      <c r="D16" s="176">
+      <c r="D16" s="146">
         <v>4.421162778930763E-2</v>
       </c>
-      <c r="E16" s="176">
+      <c r="E16" s="146">
         <v>6.99425130030112E-2</v>
       </c>
-      <c r="F16" s="176">
+      <c r="F16" s="146">
         <v>4.3908218486843203E-2</v>
       </c>
-      <c r="G16" s="176">
+      <c r="G16" s="146">
         <v>5.8490819532298399E-2</v>
       </c>
-      <c r="H16" s="177">
+      <c r="H16" s="147">
         <v>6.8595927116827451E-2</v>
       </c>
-      <c r="I16" s="177">
+      <c r="I16" s="147">
         <v>5.5888223552894196E-2</v>
       </c>
-      <c r="J16" s="177">
+      <c r="J16" s="147">
         <v>6.0353798126951096E-2</v>
       </c>
-      <c r="K16" s="177">
+      <c r="K16" s="147">
         <v>6.1586638830897711E-2</v>
       </c>
-      <c r="L16" s="177">
+      <c r="L16" s="147">
         <v>6.2959076600209857E-2</v>
       </c>
-      <c r="M16" s="177">
+      <c r="M16" s="147">
         <v>6.1844863731656201E-2</v>
       </c>
-      <c r="N16" s="177">
+      <c r="N16" s="147">
         <v>5.6547619047619041E-2</v>
       </c>
-      <c r="O16" s="177">
+      <c r="O16" s="147">
         <v>5.8358061325420388E-2</v>
       </c>
-      <c r="P16" s="177">
+      <c r="P16" s="147">
         <v>5.9523809523809534E-2</v>
       </c>
-      <c r="Q16" s="177">
+      <c r="Q16" s="147">
         <v>5.8300395256917013E-2</v>
       </c>
-      <c r="R16" s="177">
+      <c r="R16" s="147">
         <v>5.9405940594059403E-2</v>
       </c>
-      <c r="S16" s="178">
+      <c r="S16" s="148">
         <v>7.1732525623518131E-2</v>
       </c>
-      <c r="T16" s="178">
+      <c r="T16" s="148">
         <v>7.3758311391677975E-2</v>
       </c>
-      <c r="U16" s="178">
+      <c r="U16" s="148">
         <v>7.862893456184189E-2</v>
       </c>
-      <c r="V16" s="178">
+      <c r="V16" s="148">
         <v>7.2899901611521503E-2</v>
       </c>
-      <c r="W16" s="178">
+      <c r="W16" s="148">
         <v>7.3439385762812601E-2</v>
       </c>
-      <c r="X16" s="179">
+      <c r="X16" s="149">
         <v>6.5844858689116062E-2</v>
       </c>
-      <c r="Y16" s="179">
+      <c r="Y16" s="149">
         <v>7.7611940298507459E-2</v>
       </c>
-      <c r="Z16" s="182">
+      <c r="Z16" s="152">
         <v>6.6412568933053598E-2</v>
       </c>
-      <c r="AA16" s="177">
+      <c r="AA16" s="147">
         <v>6.6541435651955722E-2</v>
       </c>
-      <c r="AB16" s="177">
+      <c r="AB16" s="147">
         <v>6.3198921996650434E-2</v>
       </c>
-      <c r="AC16" s="177">
+      <c r="AC16" s="147">
         <v>5.899775459860946E-2</v>
       </c>
-      <c r="AD16" s="180">
+      <c r="AD16" s="150">
         <v>7.1180686128093251E-2</v>
       </c>
-      <c r="AE16" s="180">
+      <c r="AE16" s="150">
         <v>7.2005846444845797E-2</v>
       </c>
-      <c r="AF16" s="180">
+      <c r="AF16" s="150">
         <v>7.2255111579082723E-2</v>
       </c>
-      <c r="AG16" s="180">
+      <c r="AG16" s="150">
         <v>7.1449292490841115E-2</v>
       </c>
-      <c r="AH16" s="180">
+      <c r="AH16" s="150">
         <v>7.2792324304578424E-2</v>
       </c>
-      <c r="AI16" s="180">
+      <c r="AI16" s="150">
         <v>7.198650521633583E-2</v>
       </c>
-      <c r="AJ16" s="180">
+      <c r="AJ16" s="150">
         <v>7.1199810850313933E-2</v>
       </c>
-      <c r="AK16" s="180">
+      <c r="AK16" s="150">
         <v>7.3329537030073111E-2</v>
       </c>
-      <c r="AL16" s="180">
+      <c r="AL16" s="150">
         <v>7.0643473402598481E-2</v>
       </c>
-      <c r="AM16" s="180">
+      <c r="AM16" s="150">
         <v>7.3080560570888742E-2</v>
       </c>
-      <c r="AN16" s="180">
+      <c r="AN16" s="150">
         <v>7.0912079765345359E-2</v>
       </c>
-      <c r="AO16" s="180">
+      <c r="AO16" s="150">
         <v>7.0393775255782054E-2</v>
       </c>
-      <c r="AP16" s="180">
+      <c r="AP16" s="150">
         <v>7.227452497635585E-2</v>
       </c>
-      <c r="AQ16" s="134">
+      <c r="AQ16" s="120">
         <v>6.9391435037333651E-2</v>
       </c>
-      <c r="AR16" s="177">
+      <c r="AR16" s="147">
         <v>7.5262949395573084E-2</v>
       </c>
-      <c r="AS16" s="177">
+      <c r="AS16" s="147">
         <v>7.6915989902994003E-2</v>
       </c>
-      <c r="AT16" s="177">
+      <c r="AT16" s="147">
         <v>7.8757111350988729E-2</v>
       </c>
-      <c r="AU16" s="177">
+      <c r="AU16" s="147">
         <v>7.3106099991405812E-2</v>
       </c>
-      <c r="AV16" s="181">
+      <c r="AV16" s="151">
         <v>8.0337958431093176E-2</v>
       </c>
     </row>
     <row r="17" spans="2:48">
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="176">
+      <c r="C17" s="146">
         <v>2.7509143717035833E-2</v>
       </c>
-      <c r="D17" s="176">
+      <c r="D17" s="146">
         <v>2.8106865272101818E-2</v>
       </c>
-      <c r="E17" s="176">
+      <c r="E17" s="146">
         <v>2.61428962496578E-2</v>
       </c>
-      <c r="F17" s="176">
+      <c r="F17" s="146">
         <v>2.8229601881617203E-2</v>
       </c>
-      <c r="G17" s="176">
+      <c r="G17" s="146">
         <v>2.4707120193591999E-2</v>
       </c>
-      <c r="H17" s="177">
+      <c r="H17" s="147">
         <v>3.108252947481244E-2</v>
       </c>
-      <c r="I17" s="177">
+      <c r="I17" s="147">
         <v>2.3952095808383228E-2</v>
       </c>
-      <c r="J17" s="177">
+      <c r="J17" s="147">
         <v>2.6014568158168577E-2</v>
       </c>
-      <c r="K17" s="177">
+      <c r="K17" s="147">
         <v>2.6096033402922755E-2</v>
       </c>
-      <c r="L17" s="177">
+      <c r="L17" s="147">
         <v>2.7282266526757602E-2</v>
       </c>
-      <c r="M17" s="177">
+      <c r="M17" s="147">
         <v>2.6205450733752626E-2</v>
       </c>
-      <c r="N17" s="177">
+      <c r="N17" s="147">
         <v>2.4801587301587304E-2</v>
       </c>
-      <c r="O17" s="177">
+      <c r="O17" s="147">
         <v>2.4727992087042537E-2</v>
       </c>
-      <c r="P17" s="177">
+      <c r="P17" s="147">
         <v>2.4801587301587307E-2</v>
       </c>
-      <c r="Q17" s="177">
+      <c r="Q17" s="147">
         <v>2.4703557312252968E-2</v>
       </c>
-      <c r="R17" s="177">
+      <c r="R17" s="147">
         <v>2.3762376237623763E-2</v>
       </c>
-      <c r="S17" s="178">
+      <c r="S17" s="148">
         <v>1.9967027582164967E-2</v>
       </c>
-      <c r="T17" s="178">
+      <c r="T17" s="148">
         <v>2.0687375801482298E-2</v>
       </c>
-      <c r="U17" s="178">
+      <c r="U17" s="148">
         <v>1.93933142734516E-2</v>
       </c>
-      <c r="V17" s="178">
+      <c r="V17" s="148">
         <v>2.0936519003577198E-2</v>
       </c>
-      <c r="W17" s="178">
+      <c r="W17" s="148">
         <v>2.08275200528329E-2</v>
       </c>
-      <c r="X17" s="179">
+      <c r="X17" s="149">
         <v>1.1425135297654839E-2</v>
       </c>
-      <c r="Y17" s="179">
+      <c r="Y17" s="149">
         <v>1.3839891451831749E-2</v>
       </c>
-      <c r="Z17" s="182">
+      <c r="Z17" s="152">
         <v>1.367220572671282E-2</v>
       </c>
-      <c r="AA17" s="177">
+      <c r="AA17" s="147">
         <v>2.3215502348457769E-2</v>
       </c>
-      <c r="AB17" s="177">
+      <c r="AB17" s="147">
         <v>2.2223689897049703E-2</v>
       </c>
-      <c r="AC17" s="177">
+      <c r="AC17" s="147">
         <v>2.214184020291203E-2</v>
       </c>
-      <c r="AD17" s="180">
+      <c r="AD17" s="150">
         <v>1.7996626304084048E-2</v>
       </c>
-      <c r="AE17" s="180">
+      <c r="AE17" s="150">
         <v>1.9076175737254338E-2</v>
       </c>
-      <c r="AF17" s="180">
+      <c r="AF17" s="150">
         <v>1.8802445392325635E-2</v>
       </c>
-      <c r="AG17" s="180">
+      <c r="AG17" s="150">
         <v>1.907105175507344E-2</v>
       </c>
-      <c r="AH17" s="180">
+      <c r="AH17" s="150">
         <v>1.7996626304084051E-2</v>
       </c>
-      <c r="AI17" s="180">
+      <c r="AI17" s="150">
         <v>1.9071051755073443E-2</v>
       </c>
-      <c r="AJ17" s="180">
+      <c r="AJ17" s="150">
         <v>1.7732783079700502E-2</v>
       </c>
-      <c r="AK17" s="180">
+      <c r="AK17" s="150">
         <v>1.960826448056921E-2</v>
       </c>
-      <c r="AL17" s="180">
+      <c r="AL17" s="150">
         <v>1.8802445392326627E-2</v>
       </c>
-      <c r="AM17" s="180">
+      <c r="AM17" s="150">
         <v>1.9076175737253346E-2</v>
       </c>
-      <c r="AN17" s="180">
+      <c r="AN17" s="150">
         <v>1.9071051755073443E-2</v>
       </c>
-      <c r="AO17" s="180">
+      <c r="AO17" s="150">
         <v>1.8270140142721471E-2</v>
       </c>
-      <c r="AP17" s="180">
+      <c r="AP17" s="150">
         <v>1.9344854268764252E-2</v>
       </c>
-      <c r="AQ17" s="134">
+      <c r="AQ17" s="120">
         <v>1.7900380977724572E-2</v>
       </c>
-      <c r="AR17" s="177">
+      <c r="AR17" s="147">
         <v>2.0736430041883129E-2</v>
       </c>
-      <c r="AS17" s="177">
+      <c r="AS17" s="147">
         <v>1.9847193792534301E-2</v>
       </c>
-      <c r="AT17" s="177">
+      <c r="AT17" s="147">
         <v>2.0638638849668368E-2</v>
       </c>
-      <c r="AU17" s="177">
+      <c r="AU17" s="147">
         <v>2.0851365003547631E-2</v>
       </c>
-      <c r="AV17" s="181">
+      <c r="AV17" s="151">
         <v>2.1823397430274116E-2</v>
       </c>
     </row>
     <row r="18" spans="2:48">
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="176">
+      <c r="C18" s="146">
         <v>3.3985017254176901E-2</v>
       </c>
-      <c r="D18" s="176">
+      <c r="D18" s="146">
         <v>3.821006067902049E-2</v>
       </c>
-      <c r="E18" s="176">
+      <c r="E18" s="146">
         <v>3.2416278857559905E-2</v>
       </c>
-      <c r="F18" s="176">
+      <c r="F18" s="146">
         <v>3.8930879882009502E-2</v>
       </c>
-      <c r="G18" s="176">
+      <c r="G18" s="146">
         <v>4.1192593761375004E-2</v>
       </c>
-      <c r="H18" s="177">
+      <c r="H18" s="147">
         <v>3.7513397642015014E-2</v>
       </c>
-      <c r="I18" s="177">
+      <c r="I18" s="147">
         <v>3.3932135728542909E-2</v>
       </c>
-      <c r="J18" s="177">
+      <c r="J18" s="147">
         <v>3.5379812695109265E-2</v>
       </c>
-      <c r="K18" s="177">
+      <c r="K18" s="147">
         <v>3.5490605427974949E-2</v>
       </c>
-      <c r="L18" s="177">
+      <c r="L18" s="147">
         <v>3.5676810073452248E-2</v>
       </c>
-      <c r="M18" s="177">
+      <c r="M18" s="147">
         <v>3.4591194968553465E-2</v>
       </c>
-      <c r="N18" s="177">
+      <c r="N18" s="147">
         <v>3.4722222222222217E-2</v>
       </c>
-      <c r="O18" s="177">
+      <c r="O18" s="147">
         <v>3.3630069238377851E-2</v>
       </c>
-      <c r="P18" s="177">
+      <c r="P18" s="147">
         <v>3.3730158730158735E-2</v>
       </c>
-      <c r="Q18" s="177">
+      <c r="Q18" s="147">
         <v>3.3596837944664032E-2</v>
       </c>
-      <c r="R18" s="177">
+      <c r="R18" s="147">
         <v>3.2673267326732675E-2</v>
       </c>
-      <c r="S18" s="178">
+      <c r="S18" s="148">
         <v>4.1762855723038339E-2</v>
       </c>
-      <c r="T18" s="178">
+      <c r="T18" s="148">
         <v>4.4254773104759108E-2</v>
       </c>
-      <c r="U18" s="178">
+      <c r="U18" s="148">
         <v>4.0458406307759404E-2</v>
       </c>
-      <c r="V18" s="178">
+      <c r="V18" s="148">
         <v>4.4928840817622301E-2</v>
       </c>
-      <c r="W18" s="178">
+      <c r="W18" s="148">
         <v>4.4300438068351197E-2</v>
       </c>
-      <c r="X18" s="179">
+      <c r="X18" s="149">
         <v>3.7682902385247546E-2</v>
       </c>
-      <c r="Y18" s="179">
+      <c r="Y18" s="149">
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="Z18" s="182">
+      <c r="Z18" s="152">
         <v>2.9865033779235134E-2</v>
       </c>
-      <c r="AA18" s="177">
+      <c r="AA18" s="147">
         <v>3.2856299173359103E-2</v>
       </c>
-      <c r="AB18" s="177">
+      <c r="AB18" s="147">
         <v>3.4633819158019635E-2</v>
       </c>
-      <c r="AC18" s="177">
+      <c r="AC18" s="147">
         <v>3.6186845230375936E-2</v>
       </c>
-      <c r="AD18" s="180">
+      <c r="AD18" s="150">
         <v>3.3038582617944436E-2</v>
       </c>
-      <c r="AE18" s="180">
+      <c r="AE18" s="150">
         <v>3.4659530564870131E-2</v>
       </c>
-      <c r="AF18" s="180">
+      <c r="AF18" s="150">
         <v>3.3844401706188014E-2</v>
       </c>
-      <c r="AG18" s="180">
+      <c r="AG18" s="150">
         <v>3.3575795343440053E-2</v>
       </c>
-      <c r="AH18" s="180">
+      <c r="AH18" s="150">
         <v>3.3575795343440212E-2</v>
       </c>
-      <c r="AI18" s="180">
+      <c r="AI18" s="150">
         <v>3.46502207944306E-2</v>
       </c>
-      <c r="AJ18" s="180">
+      <c r="AJ18" s="150">
         <v>3.224142378127437E-2</v>
       </c>
-      <c r="AK18" s="180">
+      <c r="AK18" s="150">
         <v>3.3038582617945289E-2</v>
       </c>
-      <c r="AL18" s="180">
+      <c r="AL18" s="150">
         <v>3.46502207944306E-2</v>
       </c>
-      <c r="AM18" s="180">
+      <c r="AM18" s="150">
         <v>3.5196887627891103E-2</v>
       </c>
-      <c r="AN18" s="180">
+      <c r="AN18" s="150">
         <v>3.46502207944306E-2</v>
       </c>
-      <c r="AO18" s="180">
+      <c r="AO18" s="150">
         <v>3.2778780844295335E-2</v>
       </c>
-      <c r="AP18" s="180">
+      <c r="AP18" s="150">
         <v>3.2778780844295335E-2</v>
       </c>
-      <c r="AQ18" s="134">
+      <c r="AQ18" s="120">
         <v>3.384346197199882E-2</v>
       </c>
-      <c r="AR18" s="177">
+      <c r="AR18" s="147">
         <v>3.6970423158205964E-2</v>
       </c>
-      <c r="AS18" s="177">
+      <c r="AS18" s="147">
         <v>3.6793387090758314E-2</v>
       </c>
-      <c r="AT18" s="177">
+      <c r="AT18" s="147">
         <v>3.6411177702694468E-2</v>
       </c>
-      <c r="AU18" s="177">
+      <c r="AU18" s="147">
         <v>3.6827904546992273E-2</v>
       </c>
-      <c r="AV18" s="181">
+      <c r="AV18" s="151">
         <v>3.672738685295341E-2</v>
       </c>
     </row>
     <row r="19" spans="2:48">
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="176">
+      <c r="C19" s="146">
         <v>3.8997821703663935E-2</v>
       </c>
-      <c r="D19" s="176">
+      <c r="D19" s="146">
         <v>4.4819343339961334E-2</v>
       </c>
-      <c r="E19" s="176">
+      <c r="E19" s="146">
         <v>3.9031845971347699E-2</v>
       </c>
-      <c r="F19" s="176">
+      <c r="F19" s="146">
         <v>4.4450992681327399E-2</v>
       </c>
-      <c r="G19" s="176">
+      <c r="G19" s="146">
         <v>4.4536164934409601E-2</v>
       </c>
-      <c r="H19" s="177">
+      <c r="H19" s="147">
         <v>4.3944265809217592E-2</v>
       </c>
-      <c r="I19" s="177">
+      <c r="I19" s="147">
         <v>4.1916167664670656E-2</v>
       </c>
-      <c r="J19" s="177">
+      <c r="J19" s="147">
         <v>4.2663891779396466E-2</v>
       </c>
-      <c r="K19" s="177">
+      <c r="K19" s="147">
         <v>4.1753653444676415E-2</v>
       </c>
-      <c r="L19" s="177">
+      <c r="L19" s="147">
         <v>4.197271773347324E-2</v>
       </c>
-      <c r="M19" s="177">
+      <c r="M19" s="147">
         <v>3.9832285115303991E-2</v>
       </c>
-      <c r="N19" s="177">
+      <c r="N19" s="147">
         <v>4.1666666666666657E-2</v>
       </c>
-      <c r="O19" s="177">
+      <c r="O19" s="147">
         <v>4.2532146389713164E-2</v>
       </c>
-      <c r="P19" s="177">
+      <c r="P19" s="147">
         <v>3.9682539682539687E-2</v>
       </c>
-      <c r="Q19" s="177">
+      <c r="Q19" s="147">
         <v>3.9525691699604751E-2</v>
       </c>
-      <c r="R19" s="177">
+      <c r="R19" s="147">
         <v>3.7623762376237622E-2</v>
       </c>
-      <c r="S19" s="178">
+      <c r="S19" s="148">
         <v>4.3778215113980334E-2</v>
       </c>
-      <c r="T19" s="178">
+      <c r="T19" s="148">
         <v>4.3592484785799461E-2</v>
       </c>
-      <c r="U19" s="178">
+      <c r="U19" s="148">
         <v>4.3095869359048002E-2</v>
       </c>
-      <c r="V19" s="178">
+      <c r="V19" s="148">
         <v>4.3875970238322397E-2</v>
       </c>
-      <c r="W19" s="178">
+      <c r="W19" s="148">
         <v>4.3765559408713399E-2</v>
       </c>
-      <c r="X19" s="179">
+      <c r="X19" s="149">
         <v>4.2293044698336335E-2</v>
       </c>
-      <c r="Y19" s="179">
+      <c r="Y19" s="149">
         <v>4.4776119402985079E-2</v>
       </c>
-      <c r="Z19" s="182">
+      <c r="Z19" s="152">
         <v>4.0367406671958879E-2</v>
       </c>
-      <c r="AA19" s="177">
+      <c r="AA19" s="147">
         <v>5.5046919162428098E-2</v>
       </c>
-      <c r="AB19" s="177">
+      <c r="AB19" s="147">
         <v>5.9331618829975195E-2</v>
       </c>
-      <c r="AC19" s="177">
+      <c r="AC19" s="147">
         <v>6.109936981855793E-2</v>
       </c>
-      <c r="AD19" s="180">
+      <c r="AD19" s="150">
         <v>5.5332910725989212E-2</v>
       </c>
-      <c r="AE19" s="180">
+      <c r="AE19" s="150">
         <v>5.5347777491187231E-2</v>
       </c>
-      <c r="AF19" s="180">
+      <c r="AF19" s="150">
         <v>5.4258485274998672E-2</v>
       </c>
-      <c r="AG19" s="180">
+      <c r="AG19" s="150">
         <v>5.4527091637746619E-2</v>
       </c>
-      <c r="AH19" s="180">
+      <c r="AH19" s="150">
         <v>5.5870123451483851E-2</v>
       </c>
-      <c r="AI19" s="180">
+      <c r="AI19" s="150">
         <v>5.3721272549503901E-2</v>
       </c>
-      <c r="AJ19" s="180">
+      <c r="AJ19" s="150">
         <v>5.1048920987016799E-2</v>
       </c>
-      <c r="AK19" s="180">
+      <c r="AK19" s="150">
         <v>5.2109634373018875E-2</v>
       </c>
-      <c r="AL19" s="180">
+      <c r="AL19" s="150">
         <v>5.5064304363241397E-2</v>
       </c>
-      <c r="AM19" s="180">
+      <c r="AM19" s="150">
         <v>5.454174189665522E-2</v>
       </c>
-      <c r="AN19" s="180">
+      <c r="AN19" s="150">
         <v>5.533291072598906E-2</v>
       </c>
-      <c r="AO19" s="180">
+      <c r="AO19" s="150">
         <v>4.9705528329464115E-2</v>
       </c>
-      <c r="AP19" s="180">
+      <c r="AP19" s="150">
         <v>4.9436849797953916E-2</v>
       </c>
-      <c r="AQ19" s="134">
+      <c r="AQ19" s="120">
         <v>5.5116897442889806E-2</v>
       </c>
-      <c r="AR19" s="177">
+      <c r="AR19" s="147">
         <v>4.8673669420208905E-2</v>
       </c>
-      <c r="AS19" s="177">
+      <c r="AS19" s="147">
         <v>4.6154540926810386E-2</v>
       </c>
-      <c r="AT19" s="177">
+      <c r="AT19" s="147">
         <v>4.8646823747071528E-2</v>
       </c>
-      <c r="AU19" s="177">
+      <c r="AU19" s="147">
         <v>4.3438012026121436E-2</v>
       </c>
-      <c r="AV19" s="181">
+      <c r="AV19" s="151">
         <v>3.0275286738582131E-2</v>
       </c>
     </row>
     <row r="20" spans="2:48">
-      <c r="B20" s="175" t="s">
+      <c r="B20" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="176">
+      <c r="C20" s="146">
         <v>5.1078463703059705E-2</v>
       </c>
-      <c r="D20" s="176">
+      <c r="D20" s="146">
         <v>5.6614641233964313E-2</v>
       </c>
-      <c r="E20" s="176">
+      <c r="E20" s="146">
         <v>4.7997080025549706E-2</v>
       </c>
-      <c r="F20" s="176">
+      <c r="F20" s="146">
         <v>5.7660788266916604E-2</v>
       </c>
-      <c r="G20" s="176">
+      <c r="G20" s="146">
         <v>7.3295719947696403E-2</v>
       </c>
-      <c r="H20" s="177">
+      <c r="H20" s="147">
         <v>4.2872454448017155E-2</v>
       </c>
-      <c r="I20" s="177">
+      <c r="I20" s="147">
         <v>4.8902195608782423E-2</v>
       </c>
-      <c r="J20" s="177">
+      <c r="J20" s="147">
         <v>4.9947970863683661E-2</v>
       </c>
-      <c r="K20" s="177">
+      <c r="K20" s="147">
         <v>5.0104384133611693E-2</v>
       </c>
-      <c r="L20" s="177">
+      <c r="L20" s="147">
         <v>5.1416579223504719E-2</v>
       </c>
-      <c r="M20" s="177">
+      <c r="M20" s="147">
         <v>5.0314465408805041E-2</v>
       </c>
-      <c r="N20" s="177">
+      <c r="N20" s="147">
         <v>4.8611111111111119E-2</v>
       </c>
-      <c r="O20" s="177">
+      <c r="O20" s="147">
         <v>4.7477744807121663E-2</v>
       </c>
-      <c r="P20" s="177">
+      <c r="P20" s="147">
         <v>4.8611111111111126E-2</v>
       </c>
-      <c r="Q20" s="177">
+      <c r="Q20" s="147">
         <v>4.7430830039525695E-2</v>
       </c>
-      <c r="R20" s="177">
+      <c r="R20" s="147">
         <v>4.8514851485148516E-2</v>
       </c>
-      <c r="S20" s="178">
+      <c r="S20" s="148">
         <v>8.4280310252793131E-2</v>
       </c>
-      <c r="T20" s="178">
+      <c r="T20" s="148">
         <v>8.9898963221665976E-2</v>
       </c>
-      <c r="U20" s="178">
+      <c r="U20" s="148">
         <v>7.1813757727212893E-2</v>
       </c>
-      <c r="V20" s="178">
+      <c r="V20" s="148">
         <v>9.0394498282387603E-2</v>
       </c>
-      <c r="W20" s="178">
+      <c r="W20" s="148">
         <v>8.984869892812769E-2</v>
       </c>
-      <c r="X20" s="179">
+      <c r="X20" s="149">
         <v>5.3417518540789737E-2</v>
       </c>
-      <c r="Y20" s="179">
+      <c r="Y20" s="149">
         <v>5.0203527815468114E-2</v>
       </c>
-      <c r="Z20" s="182">
+      <c r="Z20" s="152">
         <v>6.6557121961138541E-2</v>
       </c>
-      <c r="AA20" s="177">
+      <c r="AA20" s="147">
         <v>7.6858938847053387E-2</v>
       </c>
-      <c r="AB20" s="177">
+      <c r="AB20" s="147">
         <v>8.4724573109402304E-2</v>
       </c>
-      <c r="AC20" s="177">
+      <c r="AC20" s="147">
         <v>8.7061581776155028E-2</v>
       </c>
-      <c r="AD20" s="180">
+      <c r="AD20" s="150">
         <v>6.419692069665775E-2</v>
       </c>
-      <c r="AE20" s="180">
+      <c r="AE20" s="150">
         <v>6.7975668472186432E-2</v>
       </c>
-      <c r="AF20" s="180">
+      <c r="AF20" s="150">
         <v>6.60771652358908E-2</v>
       </c>
-      <c r="AG20" s="180">
+      <c r="AG20" s="150">
         <v>6.6077165235889787E-2</v>
       </c>
-      <c r="AH20" s="180">
+      <c r="AH20" s="150">
         <v>6.5002739784900343E-2</v>
       </c>
-      <c r="AI20" s="180">
+      <c r="AI20" s="150">
         <v>6.5808558873142908E-2</v>
       </c>
-      <c r="AJ20" s="180">
+      <c r="AJ20" s="150">
         <v>6.367681196801607E-2</v>
       </c>
-      <c r="AK20" s="180">
+      <c r="AK20" s="150">
         <v>6.1242250706435235E-2</v>
       </c>
-      <c r="AL20" s="180">
+      <c r="AL20" s="150">
         <v>6.9300441588860201E-2</v>
       </c>
-      <c r="AM20" s="180">
+      <c r="AM20" s="150">
         <v>6.7169632877653582E-2</v>
       </c>
-      <c r="AN20" s="180">
+      <c r="AN20" s="150">
         <v>6.9031835226113308E-2</v>
       </c>
-      <c r="AO20" s="180">
+      <c r="AO20" s="150">
         <v>5.7765884274782922E-2</v>
       </c>
-      <c r="AP20" s="180">
+      <c r="AP20" s="150">
         <v>5.7497205743272856E-2</v>
       </c>
-      <c r="AQ20" s="134">
+      <c r="AQ20" s="120">
         <v>6.2750331950881727E-2</v>
       </c>
-      <c r="AR20" s="177">
+      <c r="AR20" s="147">
         <v>6.3657761967168644E-2</v>
       </c>
-      <c r="AS20" s="177">
+      <c r="AS20" s="147">
         <v>6.3525879361436818E-2</v>
       </c>
-      <c r="AT20" s="177">
+      <c r="AT20" s="147">
         <v>6.505383630554834E-2</v>
       </c>
-      <c r="AU20" s="177">
+      <c r="AU20" s="147">
         <v>6.2685681248801459E-2</v>
       </c>
-      <c r="AV20" s="181">
+      <c r="AV20" s="151">
         <v>6.2665164839289064E-2</v>
       </c>
     </row>
     <row r="21" spans="2:48">
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="176">
+      <c r="C21" s="146">
         <v>5.3961597509094898E-2</v>
       </c>
-      <c r="D21" s="176">
+      <c r="D21" s="146">
         <v>5.3385279572707341E-2</v>
       </c>
-      <c r="E21" s="176">
+      <c r="E21" s="146">
         <v>5.5662012957386597E-2</v>
       </c>
-      <c r="F21" s="176">
+      <c r="F21" s="146">
         <v>5.3742279208847402E-2</v>
       </c>
-      <c r="G21" s="176">
+      <c r="G21" s="146">
         <v>5.6309159846213604E-2</v>
       </c>
-      <c r="H21" s="177">
+      <c r="H21" s="147">
         <v>5.0375133976420156E-2</v>
       </c>
-      <c r="I21" s="177">
+      <c r="I21" s="147">
         <v>5.2894211576846296E-2</v>
       </c>
-      <c r="J21" s="177">
+      <c r="J21" s="147">
         <v>5.4110301768990648E-2</v>
       </c>
-      <c r="K21" s="177">
+      <c r="K21" s="147">
         <v>5.5323590814196244E-2</v>
       </c>
-      <c r="L21" s="177">
+      <c r="L21" s="147">
         <v>5.5613850996852038E-2</v>
       </c>
-      <c r="M21" s="177">
+      <c r="M21" s="147">
         <v>5.4507337526205471E-2</v>
       </c>
-      <c r="N21" s="177">
+      <c r="N21" s="147">
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="O21" s="177">
+      <c r="O21" s="147">
         <v>5.2423343224530176E-2</v>
       </c>
-      <c r="P21" s="177">
+      <c r="P21" s="147">
         <v>5.2579365079365087E-2</v>
       </c>
-      <c r="Q21" s="177">
+      <c r="Q21" s="147">
         <v>5.2371541501976288E-2</v>
       </c>
-      <c r="R21" s="177">
+      <c r="R21" s="147">
         <v>5.247524752475248E-2</v>
       </c>
-      <c r="S21" s="178">
+      <c r="S21" s="148">
         <v>6.0312938981154723E-2</v>
       </c>
-      <c r="T21" s="178">
+      <c r="T21" s="148">
         <v>5.8637947326409305E-2</v>
       </c>
-      <c r="U21" s="178">
+      <c r="U21" s="148">
         <v>5.6598157237101605E-2</v>
       </c>
-      <c r="V21" s="178">
+      <c r="V21" s="148">
         <v>5.9064231133222206E-2</v>
       </c>
-      <c r="W21" s="178">
+      <c r="W21" s="148">
         <v>5.9137521806197899E-2</v>
       </c>
-      <c r="X21" s="179">
+      <c r="X21" s="149">
         <v>5.5822810182401289E-2</v>
       </c>
-      <c r="Y21" s="179">
+      <c r="Y21" s="149">
         <v>5.1831750339213029E-2</v>
       </c>
-      <c r="Z21" s="182">
+      <c r="Z21" s="152">
         <v>5.3520756840451177E-2</v>
       </c>
-      <c r="AA21" s="177">
+      <c r="AA21" s="147">
         <v>5.650331996816093E-2</v>
       </c>
-      <c r="AB21" s="177">
+      <c r="AB21" s="147">
         <v>5.3055062494935502E-2</v>
       </c>
-      <c r="AC21" s="177">
+      <c r="AC21" s="147">
         <v>5.430324375977684E-2</v>
       </c>
-      <c r="AD21" s="180">
+      <c r="AD21" s="150">
         <v>4.9154964382796359E-2</v>
       </c>
-      <c r="AE21" s="180">
+      <c r="AE21" s="150">
         <v>5.2929670707592601E-2</v>
       </c>
-      <c r="AF21" s="180">
+      <c r="AF21" s="150">
         <v>5.1572421647523958E-2</v>
       </c>
-      <c r="AG21" s="180">
+      <c r="AG21" s="150">
         <v>5.0766602559281379E-2</v>
       </c>
-      <c r="AH21" s="180">
+      <c r="AH21" s="150">
         <v>4.9692177108291997E-2</v>
       </c>
-      <c r="AI21" s="180">
+      <c r="AI21" s="150">
         <v>5.049799619653457E-2</v>
       </c>
-      <c r="AJ21" s="180">
+      <c r="AJ21" s="150">
         <v>4.8362135671911256E-2</v>
       </c>
-      <c r="AK21" s="180">
+      <c r="AK21" s="150">
         <v>4.8349145294553642E-2</v>
       </c>
-      <c r="AL21" s="180">
+      <c r="AL21" s="150">
         <v>5.3989878912251855E-2</v>
       </c>
-      <c r="AM21" s="180">
+      <c r="AM21" s="150">
         <v>5.1586278050038632E-2</v>
       </c>
-      <c r="AN21" s="180">
+      <c r="AN21" s="150">
         <v>5.3721272549503908E-2</v>
       </c>
-      <c r="AO21" s="180">
+      <c r="AO21" s="150">
         <v>4.675006448284752E-2</v>
       </c>
-      <c r="AP21" s="180">
+      <c r="AP21" s="150">
         <v>4.5137993293783638E-2</v>
       </c>
-      <c r="AQ21" s="134">
+      <c r="AQ21" s="120">
         <v>5.3966958546881133E-2</v>
       </c>
-      <c r="AR21" s="177">
+      <c r="AR21" s="147">
         <v>5.1014106388398435E-2</v>
       </c>
-      <c r="AS21" s="177">
+      <c r="AS21" s="147">
         <v>5.125298711027404E-2</v>
       </c>
-      <c r="AT21" s="177">
+      <c r="AT21" s="147">
         <v>4.7848371715856639E-2</v>
       </c>
-      <c r="AU21" s="177">
+      <c r="AU21" s="147">
         <v>4.9184295645997349E-2</v>
       </c>
-      <c r="AV21" s="181">
+      <c r="AV21" s="151">
         <v>5.2193384323707577E-2</v>
       </c>
     </row>
     <row r="22" spans="2:48">
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="176">
+      <c r="C22" s="146">
         <v>9.2357935891378869E-3</v>
       </c>
-      <c r="D22" s="176">
+      <c r="D22" s="146">
         <v>1.5035074810041025E-2</v>
       </c>
-      <c r="E22" s="176">
+      <c r="E22" s="146">
         <v>8.600237247924079E-3</v>
       </c>
-      <c r="F22" s="176">
+      <c r="F22" s="146">
         <v>1.5285467927083501E-2</v>
       </c>
-      <c r="G22" s="176">
+      <c r="G22" s="146">
         <v>1.2857575819118301E-2</v>
       </c>
-      <c r="H22" s="177">
+      <c r="H22" s="147">
         <v>1.178992497320472E-2</v>
       </c>
-      <c r="I22" s="177">
+      <c r="I22" s="147">
         <v>1.0978043912175647E-2</v>
       </c>
-      <c r="J22" s="177">
+      <c r="J22" s="147">
         <v>1.1446409989594175E-2</v>
       </c>
-      <c r="K22" s="177">
+      <c r="K22" s="147">
         <v>1.1482254697286014E-2</v>
       </c>
-      <c r="L22" s="177">
+      <c r="L22" s="147">
         <v>1.1542497376705142E-2</v>
       </c>
-      <c r="M22" s="177">
+      <c r="M22" s="147">
         <v>1.1530398322851156E-2</v>
       </c>
-      <c r="N22" s="177">
+      <c r="N22" s="147">
         <v>1.0912698412698412E-2</v>
       </c>
-      <c r="O22" s="177">
+      <c r="O22" s="147">
         <v>1.0880316518298717E-2</v>
       </c>
-      <c r="P22" s="177">
+      <c r="P22" s="147">
         <v>1.0912698412698416E-2</v>
       </c>
-      <c r="Q22" s="177">
+      <c r="Q22" s="147">
         <v>1.0869565217391306E-2</v>
       </c>
-      <c r="R22" s="177">
+      <c r="R22" s="147">
         <v>1.0891089108910892E-2</v>
       </c>
-      <c r="S22" s="178">
+      <c r="S22" s="148">
         <v>9.236221958229273E-3</v>
       </c>
-      <c r="T22" s="178">
+      <c r="T22" s="148">
         <v>1.0329431847265633E-2</v>
       </c>
-      <c r="U22" s="178">
+      <c r="U22" s="148">
         <v>9.3730314211149298E-3</v>
       </c>
-      <c r="V22" s="178">
+      <c r="V22" s="148">
         <v>1.04208736280701E-2</v>
       </c>
-      <c r="W22" s="178">
+      <c r="W22" s="148">
         <v>1.03994329194618E-2</v>
       </c>
-      <c r="X22" s="179">
+      <c r="X22" s="149">
         <v>6.5143315293646024E-3</v>
       </c>
-      <c r="Y22" s="179">
+      <c r="Y22" s="149">
         <v>7.5983717774762548E-3</v>
       </c>
-      <c r="Z22" s="182">
+      <c r="Z22" s="152">
         <v>8.438426435353889E-3</v>
       </c>
-      <c r="AA22" s="177">
+      <c r="AA22" s="147">
         <v>1.02085835709191E-2</v>
       </c>
-      <c r="AB22" s="177">
+      <c r="AB22" s="147">
         <v>1.0711629339318766E-2</v>
       </c>
-      <c r="AC22" s="177">
+      <c r="AC22" s="147">
         <v>1.153285459084246E-2</v>
       </c>
-      <c r="AD22" s="180">
+      <c r="AD22" s="150">
         <v>8.058190882424824E-3</v>
       </c>
-      <c r="AE22" s="180">
+      <c r="AE22" s="150">
         <v>7.791677413807826E-3</v>
       </c>
-      <c r="AF22" s="180">
+      <c r="AF22" s="150">
         <v>7.7895845196780077E-3</v>
       </c>
-      <c r="AG22" s="180">
+      <c r="AG22" s="150">
         <v>7.7895845196780068E-3</v>
       </c>
-      <c r="AH22" s="180">
+      <c r="AH22" s="150">
         <v>8.0581908824248257E-3</v>
       </c>
-      <c r="AI22" s="180">
+      <c r="AI22" s="150">
         <v>7.7895845196780077E-3</v>
       </c>
-      <c r="AJ22" s="180">
+      <c r="AJ22" s="150">
         <v>7.5229988822979122E-3</v>
       </c>
-      <c r="AK22" s="180">
+      <c r="AK22" s="150">
         <v>7.7895845196780085E-3</v>
       </c>
-      <c r="AL22" s="180">
+      <c r="AL22" s="150">
         <v>8.058190882424824E-3</v>
       </c>
-      <c r="AM22" s="180">
+      <c r="AM22" s="150">
         <v>7.5229988822979139E-3</v>
       </c>
-      <c r="AN22" s="180">
+      <c r="AN22" s="150">
         <v>7.7895845196780077E-3</v>
       </c>
-      <c r="AO22" s="180">
+      <c r="AO22" s="150">
         <v>7.5229988822979122E-3</v>
       </c>
-      <c r="AP22" s="180">
+      <c r="AP22" s="150">
         <v>7.522998882297913E-3</v>
       </c>
-      <c r="AQ22" s="134">
+      <c r="AQ22" s="120">
         <v>8.1214898062966345E-3</v>
       </c>
-      <c r="AR22" s="177">
+      <c r="AR22" s="147">
         <v>4.9309035250529511E-3</v>
       </c>
-      <c r="AS22" s="177">
+      <c r="AS22" s="147">
         <v>5.3568873716442825E-3</v>
       </c>
-      <c r="AT22" s="177">
+      <c r="AT22" s="147">
         <v>4.6239750309023933E-3</v>
       </c>
-      <c r="AU22" s="177">
+      <c r="AU22" s="147">
         <v>4.8741378025563128E-3</v>
       </c>
-      <c r="AV22" s="181">
+      <c r="AV22" s="151">
         <v>5.0333727811085402E-3</v>
       </c>
     </row>
     <row r="23" spans="2:48">
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="176">
+      <c r="C23" s="146">
         <v>2.8398920846600863E-2</v>
       </c>
-      <c r="D23" s="176">
+      <c r="D23" s="146">
         <v>2.7926791941899023E-2</v>
       </c>
-      <c r="E23" s="176">
+      <c r="E23" s="146">
         <v>2.5914773245734001E-2</v>
       </c>
-      <c r="F23" s="176">
+      <c r="F23" s="146">
         <v>2.8287619938974096E-2</v>
       </c>
-      <c r="G23" s="176">
+      <c r="G23" s="146">
         <v>3.1142742876603801E-2</v>
       </c>
-      <c r="H23" s="177">
+      <c r="H23" s="147">
         <v>2.7867095391211148E-2</v>
       </c>
-      <c r="I23" s="177">
+      <c r="I23" s="147">
         <v>2.7944111776447098E-2</v>
       </c>
-      <c r="J23" s="177">
+      <c r="J23" s="147">
         <v>2.9136316337148801E-2</v>
       </c>
-      <c r="K23" s="177">
+      <c r="K23" s="147">
         <v>2.9227557411273485E-2</v>
       </c>
-      <c r="L23" s="177">
+      <c r="L23" s="147">
         <v>3.0430220356768095E-2</v>
       </c>
-      <c r="M23" s="177">
+      <c r="M23" s="147">
         <v>2.8301886792452838E-2</v>
       </c>
-      <c r="N23" s="177">
+      <c r="N23" s="147">
         <v>2.8769841269841265E-2</v>
       </c>
-      <c r="O23" s="177">
+      <c r="O23" s="147">
         <v>2.7695351137487639E-2</v>
       </c>
-      <c r="P23" s="177">
+      <c r="P23" s="147">
         <v>2.777777777777778E-2</v>
       </c>
-      <c r="Q23" s="177">
+      <c r="Q23" s="147">
         <v>2.766798418972332E-2</v>
       </c>
-      <c r="R23" s="177">
+      <c r="R23" s="147">
         <v>2.8712871287128711E-2</v>
       </c>
-      <c r="S23" s="178">
+      <c r="S23" s="148">
         <v>3.1847313045350503E-2</v>
       </c>
-      <c r="T23" s="178">
+      <c r="T23" s="148">
         <v>3.3481125780133937E-2</v>
       </c>
-      <c r="U23" s="178">
+      <c r="U23" s="148">
         <v>3.1694552704264897E-2</v>
       </c>
-      <c r="V23" s="178">
+      <c r="V23" s="148">
         <v>3.3748453680057203E-2</v>
       </c>
-      <c r="W23" s="178">
+      <c r="W23" s="148">
         <v>3.3828005127739799E-2</v>
       </c>
-      <c r="X23" s="179">
+      <c r="X23" s="149">
         <v>1.9643215073160955E-2</v>
       </c>
-      <c r="Y23" s="179">
+      <c r="Y23" s="149">
         <v>2.7679782903663498E-2</v>
       </c>
-      <c r="Z23" s="182">
+      <c r="Z23" s="152">
         <v>2.3052520926850128E-2</v>
       </c>
-      <c r="AA23" s="177">
+      <c r="AA23" s="147">
         <v>2.6030039664224899E-2</v>
       </c>
-      <c r="AB23" s="177">
+      <c r="AB23" s="147">
         <v>2.5832741126725834E-2</v>
       </c>
-      <c r="AC23" s="177">
+      <c r="AC23" s="147">
         <v>2.5976884912371708E-2</v>
       </c>
-      <c r="AD23" s="180">
+      <c r="AD23" s="150">
         <v>2.7397849000247217E-2</v>
       </c>
-      <c r="AE23" s="180">
+      <c r="AE23" s="150">
         <v>2.874860287163597E-2</v>
       </c>
-      <c r="AF23" s="180">
+      <c r="AF23" s="150">
         <v>2.8740880813984571E-2</v>
       </c>
-      <c r="AG23" s="180">
+      <c r="AG23" s="150">
         <v>2.8740880813985559E-2</v>
       </c>
-      <c r="AH23" s="180">
+      <c r="AH23" s="150">
         <v>2.7129242637500408E-2</v>
       </c>
-      <c r="AI23" s="180">
+      <c r="AI23" s="150">
         <v>2.6860636274752447E-2</v>
       </c>
-      <c r="AJ23" s="180">
+      <c r="AJ23" s="150">
         <v>2.4718424898976597E-2</v>
       </c>
-      <c r="AK23" s="180">
+      <c r="AK23" s="150">
         <v>2.5248998098267427E-2</v>
       </c>
-      <c r="AL23" s="180">
+      <c r="AL23" s="150">
         <v>2.7666455362995029E-2</v>
       </c>
-      <c r="AM23" s="180">
+      <c r="AM23" s="150">
         <v>2.6330496088041205E-2</v>
       </c>
-      <c r="AN23" s="180">
+      <c r="AN23" s="150">
         <v>2.7666455362995172E-2</v>
       </c>
-      <c r="AO23" s="180">
+      <c r="AO23" s="150">
         <v>2.4181067835955635E-2</v>
       </c>
-      <c r="AP23" s="180">
+      <c r="AP23" s="150">
         <v>2.3912389304444729E-2</v>
       </c>
-      <c r="AQ23" s="134">
+      <c r="AQ23" s="120">
         <v>2.4564369437488836E-2</v>
       </c>
-      <c r="AR23" s="177">
+      <c r="AR23" s="147">
         <v>2.5009106031153552E-2</v>
       </c>
-      <c r="AS23" s="177">
+      <c r="AS23" s="147">
         <v>2.6834448307870688E-2</v>
       </c>
-      <c r="AT23" s="177">
+      <c r="AT23" s="147">
         <v>2.5481332370808459E-2</v>
       </c>
-      <c r="AU23" s="177">
+      <c r="AU23" s="147">
         <v>2.6087824772673365E-2</v>
       </c>
-      <c r="AV23" s="181">
+      <c r="AV23" s="151">
         <v>2.5887273647839267E-2</v>
       </c>
     </row>
     <row r="24" spans="2:48" ht="15" thickBot="1">
-      <c r="B24" s="183" t="s">
+      <c r="B24" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="184">
+      <c r="C24" s="154">
         <v>7.7350371571314899E-2</v>
       </c>
-      <c r="D24" s="184">
+      <c r="D24" s="154">
         <v>7.1474798786513041E-2</v>
       </c>
-      <c r="E24" s="184">
+      <c r="E24" s="154">
         <v>8.0413358883109701E-2</v>
       </c>
-      <c r="F24" s="184">
+      <c r="F24" s="154">
         <v>7.0932418887320492E-2</v>
       </c>
-      <c r="G24" s="184">
+      <c r="G24" s="154">
         <v>6.3294298314818198E-2</v>
       </c>
-      <c r="H24" s="185">
+      <c r="H24" s="155">
         <v>8.4673097534833902E-2</v>
       </c>
-      <c r="I24" s="185">
+      <c r="I24" s="155">
         <v>7.1856287425149684E-2</v>
       </c>
-      <c r="J24" s="185">
+      <c r="J24" s="155">
         <v>7.4921956295525505E-2</v>
       </c>
-      <c r="K24" s="185">
+      <c r="K24" s="155">
         <v>7.5156576200417546E-2</v>
       </c>
-      <c r="L24" s="185">
+      <c r="L24" s="155">
         <v>7.7649527806925495E-2</v>
       </c>
-      <c r="M24" s="185">
+      <c r="M24" s="155">
         <v>7.6519916142557667E-2</v>
       </c>
-      <c r="N24" s="185">
+      <c r="N24" s="155">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="O24" s="185">
+      <c r="O24" s="155">
         <v>7.2205736894164207E-2</v>
       </c>
-      <c r="P24" s="185">
+      <c r="P24" s="155">
         <v>7.2420634920634927E-2</v>
       </c>
-      <c r="Q24" s="185">
+      <c r="Q24" s="155">
         <v>7.3122529644268783E-2</v>
       </c>
-      <c r="R24" s="185">
+      <c r="R24" s="155">
         <v>7.3267326732673277E-2</v>
       </c>
-      <c r="S24" s="186">
+      <c r="S24" s="156">
         <v>6.2906139793707141E-2</v>
       </c>
-      <c r="T24" s="186">
+      <c r="T24" s="156">
         <v>5.5554992147922963E-2</v>
       </c>
-      <c r="U24" s="186">
+      <c r="U24" s="156">
         <v>6.7926787902282293E-2</v>
       </c>
-      <c r="V24" s="186">
+      <c r="V24" s="156">
         <v>5.5788745402900401E-2</v>
       </c>
-      <c r="W24" s="186">
+      <c r="W24" s="156">
         <v>5.5577235727984099E-2</v>
       </c>
-      <c r="X24" s="187">
+      <c r="X24" s="157">
         <v>7.3461615554219276E-2</v>
       </c>
-      <c r="Y24" s="187">
+      <c r="Y24" s="157">
         <v>7.1913161465400277E-2</v>
       </c>
-      <c r="Z24" s="188">
+      <c r="Z24" s="158">
         <v>6.6093698855006142E-2</v>
       </c>
-      <c r="AA24" s="185">
+      <c r="AA24" s="155">
         <v>6.2716950349936337E-2</v>
       </c>
-      <c r="AB24" s="185">
+      <c r="AB24" s="155">
         <v>6.0587084828584492E-2</v>
       </c>
-      <c r="AC24" s="185">
+      <c r="AC24" s="155">
         <v>6.0391553509190891E-2</v>
       </c>
-      <c r="AD24" s="189">
+      <c r="AD24" s="159">
         <v>5.0497996196533571E-2</v>
       </c>
-      <c r="AE24" s="189">
+      <c r="AE24" s="159">
         <v>5.1854956581548685E-2</v>
       </c>
-      <c r="AF24" s="189">
+      <c r="AF24" s="159">
         <v>5.1035208922029479E-2</v>
       </c>
-      <c r="AG24" s="189">
+      <c r="AG24" s="159">
         <v>5.0229389833786747E-2</v>
       </c>
-      <c r="AH24" s="189">
+      <c r="AH24" s="159">
         <v>5.2109634373018889E-2</v>
       </c>
-      <c r="AI24" s="189">
+      <c r="AI24" s="159">
         <v>4.969217710829113E-2</v>
       </c>
-      <c r="AJ24" s="189">
+      <c r="AJ24" s="159">
         <v>5.6959848680250967E-2</v>
       </c>
-      <c r="AK24" s="189">
+      <c r="AK24" s="159">
         <v>5.8287580716212713E-2</v>
       </c>
-      <c r="AL24" s="189">
+      <c r="AL24" s="159">
         <v>5.049799619653457E-2</v>
       </c>
-      <c r="AM24" s="189">
+      <c r="AM24" s="159">
         <v>5.1048920987017951E-2</v>
       </c>
-      <c r="AN24" s="189">
+      <c r="AN24" s="159">
         <v>4.9692177108291137E-2</v>
       </c>
-      <c r="AO24" s="189">
+      <c r="AO24" s="159">
         <v>5.7497205743271794E-2</v>
       </c>
-      <c r="AP24" s="189">
+      <c r="AP24" s="159">
         <v>5.7765884274782985E-2</v>
       </c>
-      <c r="AQ24" s="190">
+      <c r="AQ24" s="160">
         <v>6.3348792291273784E-2</v>
       </c>
-      <c r="AR24" s="185">
+      <c r="AR24" s="155">
         <v>6.117714917165492E-2</v>
       </c>
-      <c r="AS24" s="185">
+      <c r="AS24" s="155">
         <v>6.2988721736693828E-2</v>
       </c>
-      <c r="AT24" s="185">
+      <c r="AT24" s="155">
         <v>6.2057701219173464E-2</v>
       </c>
-      <c r="AU24" s="185">
+      <c r="AU24" s="155">
         <v>6.7184817938125474E-2</v>
       </c>
-      <c r="AV24" s="191">
+      <c r="AV24" s="161">
         <v>6.449997487478086E-2</v>
       </c>
     </row>
@@ -6719,46 +6777,46 @@
       <c r="B29" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="127">
+      <c r="C29" s="113">
         <v>0.11994814644872114</v>
       </c>
-      <c r="D29" s="128">
+      <c r="D29" s="114">
         <v>0.13587537112387865</v>
       </c>
-      <c r="E29" s="129">
+      <c r="E29" s="115">
         <v>0.12019944833439422</v>
       </c>
-      <c r="F29" s="130">
+      <c r="F29" s="116">
         <v>9.8228003687391166E-2</v>
       </c>
-      <c r="G29" s="131">
+      <c r="G29" s="117">
         <v>0.10100000000000002</v>
       </c>
-      <c r="H29" s="131">
+      <c r="H29" s="117">
         <v>0.16650856698156585</v>
       </c>
-      <c r="I29" s="132">
+      <c r="I29" s="118">
         <v>0.12455281986531988</v>
       </c>
-      <c r="J29" s="129">
+      <c r="J29" s="115">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="K29" s="129">
+      <c r="K29" s="115">
         <v>6.3492063492063475E-2</v>
       </c>
-      <c r="L29" s="129">
+      <c r="L29" s="115">
         <v>7.6742081447963795E-2</v>
       </c>
-      <c r="M29" s="129">
+      <c r="M29" s="115">
         <v>8.9426153783565596E-2</v>
       </c>
-      <c r="N29" s="129">
+      <c r="N29" s="115">
         <v>9.6228183151664537E-2</v>
       </c>
-      <c r="O29" s="129">
+      <c r="O29" s="115">
         <v>9.1653609738861094E-2</v>
       </c>
-      <c r="P29" s="133">
+      <c r="P29" s="119">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="S29" s="7"/>
@@ -6772,46 +6830,46 @@
       <c r="B30" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="127">
+      <c r="C30" s="113">
         <v>5.9135501787233542E-2</v>
       </c>
-      <c r="D30" s="128">
+      <c r="D30" s="114">
         <v>5.3964400080145837E-2</v>
       </c>
-      <c r="E30" s="129">
+      <c r="E30" s="115">
         <v>5.2302143008699342E-2</v>
       </c>
-      <c r="F30" s="130">
+      <c r="F30" s="116">
         <v>3.0318549626139505E-2</v>
       </c>
-      <c r="G30" s="131">
+      <c r="G30" s="117">
         <v>5.9566666666666671E-2</v>
       </c>
-      <c r="H30" s="131">
+      <c r="H30" s="117">
         <v>3.2182180150016941E-2</v>
       </c>
-      <c r="I30" s="132">
+      <c r="I30" s="118">
         <v>4.7900883838383854E-2</v>
       </c>
-      <c r="J30" s="129">
+      <c r="J30" s="115">
         <v>5.45E-2</v>
       </c>
-      <c r="K30" s="129">
+      <c r="K30" s="115">
         <v>3.3910533910533905E-2</v>
       </c>
-      <c r="L30" s="129">
+      <c r="L30" s="115">
         <v>3.8733031674208142E-2</v>
       </c>
-      <c r="M30" s="129">
+      <c r="M30" s="115">
         <v>4.6518805382683305E-2</v>
       </c>
-      <c r="N30" s="129">
+      <c r="N30" s="115">
         <v>4.5453963650756352E-2</v>
       </c>
-      <c r="O30" s="129">
+      <c r="O30" s="115">
         <v>4.73423440003891E-2</v>
       </c>
-      <c r="P30" s="133">
+      <c r="P30" s="119">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="U30" s="30"/>
@@ -6823,46 +6881,46 @@
       <c r="B31" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="127">
+      <c r="C31" s="113">
         <v>3.941749053633524E-2</v>
       </c>
-      <c r="D31" s="128">
+      <c r="D31" s="114">
         <v>4.1090535005295907E-2</v>
       </c>
-      <c r="E31" s="129">
+      <c r="E31" s="115">
         <v>4.3496711224273281E-2</v>
       </c>
-      <c r="F31" s="130">
+      <c r="F31" s="116">
         <v>2.9294274300932087E-2</v>
       </c>
-      <c r="G31" s="131">
+      <c r="G31" s="117">
         <v>4.6783333333333336E-2</v>
       </c>
-      <c r="H31" s="131">
+      <c r="H31" s="117">
         <v>4.8193787749778394E-2</v>
       </c>
-      <c r="I31" s="132">
+      <c r="I31" s="118">
         <v>3.9746422558922571E-2</v>
       </c>
-      <c r="J31" s="129">
+      <c r="J31" s="115">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K31" s="129">
+      <c r="K31" s="115">
         <v>5.5796055796055788E-2</v>
       </c>
-      <c r="L31" s="129">
+      <c r="L31" s="115">
         <v>4.1719457013574664E-2</v>
       </c>
-      <c r="M31" s="129">
+      <c r="M31" s="115">
         <v>3.67161999817728E-2</v>
       </c>
-      <c r="N31" s="129">
+      <c r="N31" s="115">
         <v>3.3653362520570614E-2</v>
       </c>
-      <c r="O31" s="129">
+      <c r="O31" s="115">
         <v>3.4704944161960391E-2</v>
       </c>
-      <c r="P31" s="133">
+      <c r="P31" s="119">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="U31" s="30"/>
@@ -6874,46 +6932,46 @@
       <c r="B32" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="127">
+      <c r="C32" s="113">
         <v>5.9811918526573568E-2</v>
       </c>
-      <c r="D32" s="128">
+      <c r="D32" s="114">
         <v>5.3646042032905912E-2</v>
       </c>
-      <c r="E32" s="129">
+      <c r="E32" s="115">
         <v>4.3496711224273281E-2</v>
       </c>
-      <c r="F32" s="130">
+      <c r="F32" s="116">
         <v>2.9294274300932087E-2</v>
       </c>
-      <c r="G32" s="131">
+      <c r="G32" s="117">
         <v>4.6783333333333336E-2</v>
       </c>
-      <c r="H32" s="131">
+      <c r="H32" s="117">
         <v>4.8193787749778394E-2</v>
       </c>
-      <c r="I32" s="132">
+      <c r="I32" s="118">
         <v>4.1193181818181823E-2</v>
       </c>
-      <c r="J32" s="129">
+      <c r="J32" s="115">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="K32" s="129">
+      <c r="K32" s="115">
         <v>5.5796055796055788E-2</v>
       </c>
-      <c r="L32" s="129">
+      <c r="L32" s="115">
         <v>4.1719457013574664E-2</v>
       </c>
-      <c r="M32" s="129">
+      <c r="M32" s="115">
         <v>3.6722870853490595E-2</v>
       </c>
-      <c r="N32" s="129">
+      <c r="N32" s="115">
         <v>3.3659476913246292E-2</v>
       </c>
-      <c r="O32" s="129">
+      <c r="O32" s="115">
         <v>3.4711249613793446E-2</v>
       </c>
-      <c r="P32" s="133">
+      <c r="P32" s="119">
         <v>4.6900000000000004E-2</v>
       </c>
       <c r="U32" s="30"/>
@@ -6925,46 +6983,46 @@
       <c r="B33" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="127">
+      <c r="C33" s="113">
         <v>1.5100568204577749E-2</v>
       </c>
-      <c r="D33" s="134">
+      <c r="D33" s="120">
         <v>1.0087769374104419E-2</v>
       </c>
-      <c r="E33" s="129">
+      <c r="E33" s="115">
         <v>1.0184595798854232E-2</v>
       </c>
-      <c r="F33" s="130">
+      <c r="F33" s="116">
         <v>3.4825361057052137E-3</v>
       </c>
-      <c r="G33" s="131">
+      <c r="G33" s="117">
         <v>1.7499999999999998E-3</v>
       </c>
-      <c r="H33" s="131">
+      <c r="H33" s="117">
         <v>9.5251244859132053E-4</v>
       </c>
-      <c r="I33" s="132">
+      <c r="I33" s="118">
         <v>1.3441708754208756E-2</v>
       </c>
-      <c r="J33" s="129">
+      <c r="J33" s="115">
         <v>6.5000000000000006E-3</v>
       </c>
-      <c r="K33" s="129">
+      <c r="K33" s="115">
         <v>6.7580567580567574E-2</v>
       </c>
-      <c r="L33" s="129">
+      <c r="L33" s="115">
         <v>4.5972850678733031E-2</v>
       </c>
-      <c r="M33" s="129">
+      <c r="M33" s="115">
         <v>2.0717951257302053E-2</v>
       </c>
-      <c r="N33" s="129">
+      <c r="N33" s="115">
         <v>1.6403860703008619E-2</v>
       </c>
-      <c r="O33" s="129">
+      <c r="O33" s="115">
         <v>1.5991226569748308E-2</v>
       </c>
-      <c r="P33" s="133">
+      <c r="P33" s="119">
         <v>2.7999999999999997E-2</v>
       </c>
       <c r="U33" s="30"/>
@@ -6976,46 +7034,46 @@
       <c r="B34" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="127">
+      <c r="C34" s="113">
         <v>4.8380784497818144E-2</v>
       </c>
-      <c r="D34" s="134">
+      <c r="D34" s="120">
         <v>4.5509213357641368E-2</v>
       </c>
-      <c r="E34" s="129">
+      <c r="E34" s="115">
         <v>5.2938680246127731E-2</v>
       </c>
-      <c r="F34" s="130">
+      <c r="F34" s="116">
         <v>3.7488476902591418E-2</v>
       </c>
-      <c r="G34" s="131">
+      <c r="G34" s="117">
         <v>8.1783333333333333E-2</v>
       </c>
-      <c r="H34" s="131">
+      <c r="H34" s="117">
         <v>6.0551514017090434E-2</v>
       </c>
-      <c r="I34" s="132">
+      <c r="I34" s="118">
         <v>4.7795664983164995E-2</v>
       </c>
-      <c r="J34" s="129">
+      <c r="J34" s="115">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="K34" s="129">
+      <c r="K34" s="115">
         <v>5.5194805194805185E-2</v>
       </c>
-      <c r="L34" s="129">
+      <c r="L34" s="115">
         <v>5.4570135746606331E-2</v>
       </c>
-      <c r="M34" s="129">
+      <c r="M34" s="115">
         <v>6.2283624152815027E-2</v>
       </c>
-      <c r="N34" s="129">
+      <c r="N34" s="115">
         <v>6.6355624553969511E-2</v>
       </c>
-      <c r="O34" s="129">
+      <c r="O34" s="115">
         <v>6.6774054124732446E-2</v>
       </c>
-      <c r="P34" s="133">
+      <c r="P34" s="119">
         <v>6.2E-2</v>
       </c>
       <c r="U34" s="30"/>
@@ -7027,46 +7085,46 @@
       <c r="B35" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="127">
+      <c r="C35" s="113">
         <v>5.8715443903442473E-2</v>
       </c>
-      <c r="D35" s="134">
+      <c r="D35" s="120">
         <v>7.3158982575007567E-2</v>
       </c>
-      <c r="E35" s="129">
+      <c r="E35" s="115">
         <v>5.2938680246127731E-2</v>
       </c>
-      <c r="F35" s="130">
+      <c r="F35" s="116">
         <v>3.7488476902591418E-2</v>
       </c>
-      <c r="G35" s="131">
+      <c r="G35" s="117">
         <v>8.1783333333333333E-2</v>
       </c>
-      <c r="H35" s="131">
+      <c r="H35" s="117">
         <v>6.0551514017090434E-2</v>
       </c>
-      <c r="I35" s="132">
+      <c r="I35" s="118">
         <v>8.3912037037037063E-2</v>
       </c>
-      <c r="J35" s="129">
+      <c r="J35" s="115">
         <v>5.8499999999999996E-2</v>
       </c>
-      <c r="K35" s="129">
+      <c r="K35" s="115">
         <v>5.5194805194805185E-2</v>
       </c>
-      <c r="L35" s="129">
+      <c r="L35" s="115">
         <v>5.4570135746606303E-2</v>
       </c>
-      <c r="M35" s="129">
+      <c r="M35" s="115">
         <v>6.2293854008549726E-2</v>
       </c>
-      <c r="N35" s="129">
+      <c r="N35" s="115">
         <v>6.6366523220763654E-2</v>
       </c>
-      <c r="O35" s="129">
+      <c r="O35" s="115">
         <v>6.6785021517041562E-2</v>
       </c>
-      <c r="P35" s="133">
+      <c r="P35" s="119">
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="U35" s="30"/>
@@ -7078,46 +7136,46 @@
       <c r="B36" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="127">
+      <c r="C36" s="113">
         <v>0.10406007472650608</v>
       </c>
-      <c r="D36" s="134">
+      <c r="D36" s="120">
         <v>9.2903166110579569E-2</v>
       </c>
-      <c r="E36" s="129">
+      <c r="E36" s="115">
         <v>0.11043921069382558</v>
       </c>
-      <c r="F36" s="130">
+      <c r="F36" s="116">
         <v>0.12178633616716174</v>
       </c>
-      <c r="G36" s="131">
+      <c r="G36" s="117">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="H36" s="131">
+      <c r="H36" s="117">
         <v>0.15060558671805749</v>
       </c>
-      <c r="I36" s="132">
+      <c r="I36" s="118">
         <v>0.12426346801346803</v>
       </c>
-      <c r="J36" s="129">
+      <c r="J36" s="115">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="K36" s="129">
+      <c r="K36" s="115">
         <v>0.10533910533910532</v>
       </c>
-      <c r="L36" s="129">
+      <c r="L36" s="115">
         <v>9.3574660633484172E-2</v>
       </c>
-      <c r="M36" s="129">
+      <c r="M36" s="115">
         <v>0.13731971044477145</v>
       </c>
-      <c r="N36" s="129">
+      <c r="N36" s="115">
         <v>0.15788332335165053</v>
       </c>
-      <c r="O36" s="129">
+      <c r="O36" s="115">
         <v>0.14204485873376779</v>
       </c>
-      <c r="P36" s="133">
+      <c r="P36" s="119">
         <v>8.539999999999999E-2</v>
       </c>
       <c r="U36" s="30"/>
@@ -7129,46 +7187,46 @@
       <c r="B37" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="127">
+      <c r="C37" s="113">
         <v>1.7089560816293908E-2</v>
       </c>
-      <c r="D37" s="134">
+      <c r="D37" s="120">
         <v>1.7319024633954763E-2</v>
       </c>
-      <c r="E37" s="129">
+      <c r="E37" s="115">
         <v>2.0157012518565668E-2</v>
       </c>
-      <c r="F37" s="130">
+      <c r="F37" s="116">
         <v>2.5709310662706136E-2</v>
       </c>
-      <c r="G37" s="131">
+      <c r="G37" s="117">
         <v>1.7499999999999998E-3</v>
       </c>
-      <c r="H37" s="131">
+      <c r="H37" s="117">
         <v>1.3248266210151542E-2</v>
       </c>
-      <c r="I37" s="132">
+      <c r="I37" s="118">
         <v>1.3441708754208756E-2</v>
       </c>
-      <c r="J37" s="129">
+      <c r="J37" s="115">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="K37" s="129">
+      <c r="K37" s="115">
         <v>2.02020202020202E-2</v>
       </c>
-      <c r="L37" s="129">
+      <c r="L37" s="115">
         <v>3.0588235294117645E-2</v>
       </c>
-      <c r="M37" s="129">
+      <c r="M37" s="115">
         <v>1.9449433736245809E-2</v>
       </c>
-      <c r="N37" s="129">
+      <c r="N37" s="115">
         <v>1.8138176305657124E-2</v>
       </c>
-      <c r="O37" s="129">
+      <c r="O37" s="115">
         <v>1.923878877652517E-2</v>
       </c>
-      <c r="P37" s="135">
+      <c r="P37" s="121">
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="U37" s="30"/>
@@ -7180,46 +7238,46 @@
       <c r="B38" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="127">
+      <c r="C38" s="113">
         <v>3.8429119045062139E-2</v>
       </c>
-      <c r="D38" s="134">
+      <c r="D38" s="120">
         <v>4.8087215734222997E-2</v>
       </c>
-      <c r="E38" s="129">
+      <c r="E38" s="115">
         <v>4.625503925312964E-2</v>
       </c>
-      <c r="F38" s="130">
+      <c r="F38" s="116">
         <v>6.0739526784799755E-2</v>
       </c>
-      <c r="G38" s="131">
+      <c r="G38" s="117">
         <v>4.4233333333333326E-2</v>
       </c>
-      <c r="H38" s="131">
+      <c r="H38" s="117">
         <v>2.4310140723339542E-2</v>
       </c>
-      <c r="I38" s="132">
+      <c r="I38" s="118">
         <v>3.8247053872053884E-2</v>
       </c>
-      <c r="J38" s="129">
+      <c r="J38" s="115">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="K38" s="129">
+      <c r="K38" s="115">
         <v>2.9341029341029334E-2</v>
       </c>
-      <c r="L38" s="129">
+      <c r="L38" s="115">
         <v>3.2579185520361993E-2</v>
       </c>
-      <c r="M38" s="129">
+      <c r="M38" s="115">
         <v>3.8485445279700881E-2</v>
       </c>
-      <c r="N38" s="129">
+      <c r="N38" s="115">
         <v>3.4282610447113462E-2</v>
       </c>
-      <c r="O38" s="129">
+      <c r="O38" s="115">
         <v>3.8182127142966725E-2</v>
       </c>
-      <c r="P38" s="133">
+      <c r="P38" s="119">
         <v>4.2199999999999994E-2</v>
       </c>
       <c r="U38" s="30"/>
@@ -7231,46 +7289,46 @@
       <c r="B39" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="127">
+      <c r="C39" s="113">
         <v>7.3914744242676592E-2</v>
       </c>
-      <c r="D39" s="134">
+      <c r="D39" s="120">
         <v>7.7443711072965632E-2</v>
       </c>
-      <c r="E39" s="129">
+      <c r="E39" s="115">
         <v>8.1476766390833857E-2</v>
       </c>
-      <c r="F39" s="130">
+      <c r="F39" s="116">
         <v>7.7844924715763597E-2</v>
       </c>
-      <c r="G39" s="131">
+      <c r="G39" s="117">
         <v>7.3866666666666664E-2</v>
       </c>
-      <c r="H39" s="131">
+      <c r="H39" s="117">
         <v>5.1659049037096526E-2</v>
       </c>
-      <c r="I39" s="132">
+      <c r="I39" s="118">
         <v>6.447285353535355E-2</v>
       </c>
-      <c r="J39" s="129">
+      <c r="J39" s="115">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K39" s="129">
+      <c r="K39" s="115">
         <v>6.782106782106781E-2</v>
       </c>
-      <c r="L39" s="129">
+      <c r="L39" s="115">
         <v>8.253393665158372E-2</v>
       </c>
-      <c r="M39" s="129">
+      <c r="M39" s="115">
         <v>7.7185893046997855E-2</v>
       </c>
-      <c r="N39" s="129">
+      <c r="N39" s="115">
         <v>7.1772303807021418E-2</v>
       </c>
-      <c r="O39" s="129">
+      <c r="O39" s="115">
         <v>7.4176166770577187E-2</v>
       </c>
-      <c r="P39" s="133">
+      <c r="P39" s="119">
         <v>8.1099999999999992E-2</v>
       </c>
       <c r="U39" s="30"/>
@@ -7282,46 +7340,46 @@
       <c r="B40" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="127">
+      <c r="C40" s="113">
         <v>4.6116796050620704E-2</v>
       </c>
-      <c r="D40" s="134">
+      <c r="D40" s="120">
         <v>5.9856626575826369E-2</v>
       </c>
-      <c r="E40" s="129">
+      <c r="E40" s="115">
         <v>4.7528113727986418E-2</v>
       </c>
-      <c r="F40" s="130">
+      <c r="F40" s="116">
         <v>2.2534057154563147E-2</v>
       </c>
-      <c r="G40" s="131">
+      <c r="G40" s="117">
         <v>6.7633333333333323E-2</v>
       </c>
-      <c r="H40" s="131">
+      <c r="H40" s="117">
         <v>6.3884788412496923E-2</v>
       </c>
-      <c r="I40" s="132">
+      <c r="I40" s="118">
         <v>6.9023569023569042E-2</v>
       </c>
-      <c r="J40" s="129">
+      <c r="J40" s="115">
         <v>8.5499999999999993E-2</v>
       </c>
-      <c r="K40" s="129">
+      <c r="K40" s="115">
         <v>2.6936026936026931E-2</v>
       </c>
-      <c r="L40" s="129">
+      <c r="L40" s="115">
         <v>5.7918552036199097E-2</v>
       </c>
-      <c r="M40" s="129">
+      <c r="M40" s="115">
         <v>6.0257803687049812E-2</v>
       </c>
-      <c r="N40" s="129">
+      <c r="N40" s="115">
         <v>5.7159621881522384E-2</v>
       </c>
-      <c r="O40" s="129">
+      <c r="O40" s="115">
         <v>6.0447110522103401E-2</v>
       </c>
-      <c r="P40" s="133">
+      <c r="P40" s="119">
         <v>6.7900000000000002E-2</v>
       </c>
       <c r="S40" s="7"/>
@@ -7334,46 +7392,46 @@
       <c r="B41" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="127">
+      <c r="C41" s="113">
         <v>1.8275606605821629E-2</v>
       </c>
-      <c r="D41" s="134">
+      <c r="D41" s="120">
         <v>2.0028576664908378E-2</v>
       </c>
-      <c r="E41" s="129">
+      <c r="E41" s="115">
         <v>2.5249310417992783E-2</v>
       </c>
-      <c r="F41" s="130">
+      <c r="F41" s="116">
         <v>1.5159274813069753E-2</v>
       </c>
-      <c r="G41" s="131">
+      <c r="G41" s="117">
         <v>7.5666666666666669E-3</v>
       </c>
-      <c r="H41" s="131">
+      <c r="H41" s="117">
         <v>8.2381420172058482E-3</v>
       </c>
-      <c r="I41" s="132">
+      <c r="I41" s="118">
         <v>1.470433501683502E-2</v>
       </c>
-      <c r="J41" s="129">
+      <c r="J41" s="115">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="K41" s="129">
+      <c r="K41" s="115">
         <v>1.1303511303511302E-2</v>
       </c>
-      <c r="L41" s="129">
+      <c r="L41" s="115">
         <v>1.1583710407239819E-2</v>
       </c>
-      <c r="M41" s="129">
+      <c r="M41" s="115">
         <v>1.7956680435966429E-2</v>
       </c>
-      <c r="N41" s="129">
+      <c r="N41" s="115">
         <v>1.7597449544291054E-2</v>
       </c>
-      <c r="O41" s="129">
+      <c r="O41" s="115">
         <v>1.8755483642377474E-2</v>
       </c>
-      <c r="P41" s="133">
+      <c r="P41" s="119">
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="S41" s="20"/>
@@ -7386,46 +7444,46 @@
       <c r="B42" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="127">
+      <c r="C42" s="113">
         <v>4.0733260084092546E-2</v>
       </c>
-      <c r="D42" s="134">
+      <c r="D42" s="120">
         <v>3.3192465253377906E-2</v>
       </c>
-      <c r="E42" s="129">
+      <c r="E42" s="115">
         <v>3.0659876936134093E-2</v>
       </c>
-      <c r="F42" s="130">
+      <c r="F42" s="116">
         <v>4.8857933012393731E-2</v>
       </c>
-      <c r="G42" s="131">
+      <c r="G42" s="117">
         <v>3.203333333333333E-2</v>
       </c>
-      <c r="H42" s="131">
+      <c r="H42" s="117">
         <v>2.1357013813312876E-2</v>
       </c>
-      <c r="I42" s="132">
+      <c r="I42" s="118">
         <v>2.9645412457912464E-2</v>
       </c>
-      <c r="J42" s="129">
+      <c r="J42" s="115">
         <v>3.9E-2</v>
       </c>
-      <c r="K42" s="129">
+      <c r="K42" s="115">
         <v>3.0303030303030297E-2</v>
       </c>
-      <c r="L42" s="129">
+      <c r="L42" s="115">
         <v>2.9683257918552034E-2</v>
       </c>
-      <c r="M42" s="129">
+      <c r="M42" s="115">
         <v>3.388956992540746E-2</v>
       </c>
-      <c r="N42" s="129">
+      <c r="N42" s="115">
         <v>3.0208745763241632E-2</v>
       </c>
-      <c r="O42" s="129">
+      <c r="O42" s="115">
         <v>3.2317644103706883E-2</v>
       </c>
-      <c r="P42" s="133">
+      <c r="P42" s="119">
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="S42" s="20"/>
@@ -7438,46 +7496,46 @@
       <c r="B43" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="127">
+      <c r="C43" s="113">
         <v>3.6850813319935415E-2</v>
       </c>
-      <c r="D43" s="134">
+      <c r="D43" s="120">
         <v>3.8210352180348725E-2</v>
       </c>
-      <c r="E43" s="129">
+      <c r="E43" s="115">
         <v>4.4557606619987269E-2</v>
       </c>
-      <c r="F43" s="130">
+      <c r="F43" s="116">
         <v>0.12270818395984841</v>
       </c>
-      <c r="G43" s="131">
+      <c r="G43" s="117">
         <v>4.1433333333333336E-2</v>
       </c>
-      <c r="H43" s="131">
+      <c r="H43" s="117">
         <v>5.3605829452165146E-2</v>
       </c>
-      <c r="I43" s="132">
+      <c r="I43" s="118">
         <v>4.1877104377104388E-2</v>
       </c>
-      <c r="J43" s="129">
+      <c r="J43" s="115">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K43" s="129">
+      <c r="K43" s="115">
         <v>4.2328042328042326E-2</v>
       </c>
-      <c r="L43" s="129">
+      <c r="L43" s="115">
         <v>4.995475113122172E-2</v>
       </c>
-      <c r="M43" s="129">
+      <c r="M43" s="115">
         <v>5.8423408674691792E-2</v>
       </c>
-      <c r="N43" s="129">
+      <c r="N43" s="115">
         <v>6.9677465535947516E-2</v>
       </c>
-      <c r="O43" s="129">
+      <c r="O43" s="115">
         <v>6.294787800635919E-2</v>
       </c>
-      <c r="P43" s="133">
+      <c r="P43" s="119">
         <v>5.2600000000000001E-2</v>
       </c>
       <c r="S43" s="7"/>
@@ -7490,46 +7548,46 @@
       <c r="B44" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="127">
+      <c r="C44" s="113">
         <v>8.5738138207031009E-2</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="120">
         <v>4.5684555904826986E-2</v>
       </c>
-      <c r="E44" s="129">
+      <c r="E44" s="115">
         <v>5.6651814131126674E-2</v>
       </c>
-      <c r="F44" s="130">
+      <c r="F44" s="116">
         <v>6.6373041073440539E-2</v>
       </c>
-      <c r="G44" s="131">
+      <c r="G44" s="117">
         <v>6.696666666666666E-2</v>
       </c>
-      <c r="H44" s="131">
+      <c r="H44" s="117">
         <v>8.1193474928198062E-2</v>
       </c>
-      <c r="I44" s="132">
+      <c r="I44" s="118">
         <v>6.1289983164983179E-2</v>
       </c>
-      <c r="J44" s="129">
+      <c r="J44" s="115">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K44" s="129">
+      <c r="K44" s="115">
         <v>9.1630591630591618E-2</v>
       </c>
-      <c r="L44" s="129">
+      <c r="L44" s="115">
         <v>9.0859728506787335E-2</v>
       </c>
-      <c r="M44" s="129">
+      <c r="M44" s="115">
         <v>6.2259947893931085E-2</v>
       </c>
-      <c r="N44" s="129">
+      <c r="N44" s="115">
         <v>5.6318312891016784E-2</v>
       </c>
-      <c r="O44" s="129">
+      <c r="O44" s="115">
         <v>5.8173015237095331E-2</v>
       </c>
-      <c r="P44" s="133">
+      <c r="P44" s="119">
         <v>6.8900000000000003E-2</v>
       </c>
       <c r="S44" s="7"/>
@@ -7542,46 +7600,46 @@
       <c r="B45" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="127">
+      <c r="C45" s="113">
         <v>5.1209997891587394E-2</v>
       </c>
-      <c r="D45" s="134">
+      <c r="D45" s="120">
         <v>4.7859141265501545E-2</v>
       </c>
-      <c r="E45" s="129">
+      <c r="E45" s="115">
         <v>6.1850201570125184E-2</v>
       </c>
-      <c r="F45" s="130">
+      <c r="F45" s="116">
         <v>7.8664344975929529E-2</v>
       </c>
-      <c r="G45" s="131">
+      <c r="G45" s="117">
         <v>5.9433333333333324E-2</v>
       </c>
-      <c r="H45" s="131">
+      <c r="H45" s="117">
         <v>5.6825383752346546E-2</v>
       </c>
-      <c r="I45" s="132">
+      <c r="I45" s="118">
         <v>4.7585227272727286E-2</v>
       </c>
-      <c r="J45" s="129">
+      <c r="J45" s="115">
         <v>4.7E-2</v>
       </c>
-      <c r="K45" s="129">
+      <c r="K45" s="115">
         <v>7.864357864357864E-2</v>
       </c>
-      <c r="L45" s="129">
+      <c r="L45" s="115">
         <v>5.7194570135746609E-2</v>
       </c>
-      <c r="M45" s="129">
+      <c r="M45" s="115">
         <v>4.8772733125806253E-2</v>
       </c>
-      <c r="N45" s="129">
+      <c r="N45" s="115">
         <v>4.4937089895054051E-2</v>
       </c>
-      <c r="O45" s="129">
+      <c r="O45" s="115">
         <v>4.7106174660972631E-2</v>
       </c>
-      <c r="P45" s="133">
+      <c r="P45" s="119">
         <v>5.7300000000000004E-2</v>
       </c>
       <c r="S45" s="7"/>
@@ -7594,46 +7652,46 @@
       <c r="B46" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="127">
+      <c r="C46" s="113">
         <v>1.2690903065549384E-2</v>
       </c>
-      <c r="D46" s="134">
+      <c r="D46" s="120">
         <v>1.1804694685639782E-2</v>
       </c>
-      <c r="E46" s="129">
+      <c r="E46" s="115">
         <v>1.4852535539995756E-3</v>
       </c>
-      <c r="F46" s="130">
+      <c r="F46" s="116">
         <v>4.097101300829663E-4</v>
       </c>
-      <c r="G46" s="131">
+      <c r="G46" s="117">
         <v>1.3999999999999997E-2</v>
       </c>
-      <c r="H46" s="131">
+      <c r="H46" s="117">
         <v>5.274665709941184E-4</v>
       </c>
-      <c r="I46" s="132">
+      <c r="I46" s="118">
         <v>6.5235690235690251E-3</v>
       </c>
-      <c r="J46" s="129">
+      <c r="J46" s="115">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K46" s="129">
+      <c r="K46" s="115">
         <v>7.6960076960076954E-3</v>
       </c>
-      <c r="L46" s="129">
+      <c r="L46" s="115">
         <v>1.5203619909502263E-2</v>
       </c>
-      <c r="M46" s="129">
+      <c r="M46" s="115">
         <v>6.3523581875209352E-3</v>
       </c>
-      <c r="N46" s="129">
+      <c r="N46" s="115">
         <v>6.108636787774277E-3</v>
       </c>
-      <c r="O46" s="129">
+      <c r="O46" s="115">
         <v>6.2540069736889241E-3</v>
       </c>
-      <c r="P46" s="133">
+      <c r="P46" s="119">
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="S46" s="7"/>
@@ -7646,46 +7704,46 @@
       <c r="B47" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="127">
+      <c r="C47" s="113">
         <v>1.2830297421088903E-2</v>
       </c>
-      <c r="D47" s="134">
+      <c r="D47" s="120">
         <v>2.2245563317666323E-2</v>
       </c>
-      <c r="E47" s="129">
+      <c r="E47" s="115">
         <v>2.7477190748992148E-2</v>
       </c>
-      <c r="F47" s="130">
+      <c r="F47" s="116">
         <v>1.1574311174843798E-2</v>
       </c>
-      <c r="G47" s="131">
+      <c r="G47" s="117">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="H47" s="131">
+      <c r="H47" s="117">
         <v>1.0834098648394528E-2</v>
       </c>
-      <c r="I47" s="132">
+      <c r="I47" s="118">
         <v>1.9491792929292932E-2</v>
       </c>
-      <c r="J47" s="129">
+      <c r="J47" s="115">
         <v>2.35E-2</v>
       </c>
-      <c r="K47" s="129">
+      <c r="K47" s="115">
         <v>3.1505531505531502E-2</v>
       </c>
-      <c r="L47" s="129">
+      <c r="L47" s="115">
         <v>2.6063348416289593E-2</v>
       </c>
-      <c r="M47" s="129">
+      <c r="M47" s="115">
         <v>2.8873660767270333E-2</v>
       </c>
-      <c r="N47" s="129">
+      <c r="N47" s="115">
         <v>2.6900844767701677E-2</v>
       </c>
-      <c r="O47" s="129">
+      <c r="O47" s="115">
         <v>2.7879938214109362E-2</v>
       </c>
-      <c r="P47" s="133">
+      <c r="P47" s="119">
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="S47" s="7"/>
@@ -7698,46 +7756,46 @@
       <c r="B48" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="127">
+      <c r="C48" s="113">
         <v>6.1550834619032178E-2</v>
       </c>
-      <c r="D48" s="134">
+      <c r="D48" s="120">
         <v>7.2032593051201174E-2</v>
       </c>
-      <c r="E48" s="129">
+      <c r="E48" s="115">
         <v>7.0655633354551245E-2</v>
       </c>
-      <c r="F48" s="130">
+      <c r="F48" s="116">
         <v>8.2044453549114008E-2</v>
       </c>
-      <c r="G48" s="131">
+      <c r="G48" s="117">
         <v>6.1733333333333328E-2</v>
       </c>
-      <c r="H48" s="131">
+      <c r="H48" s="117">
         <v>4.657689660232911E-2</v>
       </c>
-      <c r="I48" s="132">
+      <c r="I48" s="118">
         <v>5.7896675084175092E-2</v>
       </c>
-      <c r="J48" s="129">
+      <c r="J48" s="115">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K48" s="129">
+      <c r="K48" s="115">
         <v>6.9985569985569984E-2</v>
       </c>
-      <c r="L48" s="129">
+      <c r="L48" s="115">
         <v>6.8235294117647061E-2</v>
       </c>
-      <c r="M48" s="129">
+      <c r="M48" s="115">
         <v>5.6093895374460669E-2</v>
       </c>
-      <c r="N48" s="129">
+      <c r="N48" s="115">
         <v>5.0894424308028471E-2</v>
       </c>
-      <c r="O48" s="129">
+      <c r="O48" s="115">
         <v>5.4514357489223668E-2</v>
       </c>
-      <c r="P48" s="133">
+      <c r="P48" s="119">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="Q48" s="2"/>
@@ -7768,46 +7826,46 @@
       <c r="B50" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C50" s="84" t="s">
+      <c r="C50" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="84" t="s">
+      <c r="E50" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="84" t="s">
+      <c r="F50" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="G50" s="84" t="s">
+      <c r="G50" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="H50" s="84" t="s">
+      <c r="H50" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="I50" s="84" t="s">
+      <c r="I50" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="J50" s="84" t="s">
+      <c r="J50" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="K50" s="84" t="s">
+      <c r="K50" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="L50" s="84" t="s">
+      <c r="L50" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="M50" s="84" t="s">
+      <c r="M50" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="N50" s="84" t="s">
+      <c r="N50" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="O50" s="84" t="s">
+      <c r="O50" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="P50" s="85"/>
+      <c r="P50" s="84"/>
       <c r="Q50" s="16"/>
     </row>
     <row r="51" spans="2:22">
@@ -7882,11 +7940,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00113CFE-16E5-4CBA-ABA2-582F0E287C6D}">
   <dimension ref="A1:CF48"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="G30" sqref="G30"/>
       <selection pane="topRight" activeCell="N52" sqref="N52"/>
@@ -17847,53 +17905,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAED59D8-1592-4F53-9C3A-5C5E0838C9AC}">
   <dimension ref="B1:AF27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:I32"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="88"/>
-    <col min="2" max="2" width="16" style="88" customWidth="1"/>
-    <col min="3" max="27" width="17.109375" style="88" customWidth="1"/>
-    <col min="28" max="32" width="14.21875" style="88" customWidth="1"/>
-    <col min="33" max="34" width="8.88671875" style="88"/>
-    <col min="35" max="35" width="20.5546875" style="88" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="88"/>
+    <col min="1" max="1" width="8.88671875" style="87"/>
+    <col min="2" max="2" width="16" style="87" customWidth="1"/>
+    <col min="3" max="27" width="17.109375" style="87" customWidth="1"/>
+    <col min="28" max="32" width="14.21875" style="87" customWidth="1"/>
+    <col min="33" max="34" width="8.88671875" style="87"/>
+    <col min="35" max="35" width="20.5546875" style="87" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" thickBot="1"/>
-    <row r="2" spans="2:21">
-      <c r="B2" s="89"/>
-      <c r="C2" s="90" t="s">
+    <row r="1" spans="2:18" ht="15" thickBot="1"/>
+    <row r="2" spans="2:18">
+      <c r="B2" s="88"/>
+      <c r="C2" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93" t="s">
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="96" t="s">
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="178"/>
     </row>
-    <row r="3" spans="2:21">
-      <c r="B3" s="99"/>
+    <row r="3" spans="2:18">
+      <c r="B3" s="89"/>
       <c r="C3" s="62" t="s">
         <v>146</v>
       </c>
@@ -17943,1236 +18001,1165 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="103" customFormat="1" ht="15" thickBot="1">
-      <c r="B4" s="100"/>
-      <c r="C4" s="101" t="s">
+    <row r="4" spans="2:18" s="93" customFormat="1" ht="15" thickBot="1">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="101" t="s">
+      <c r="J4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="M4" s="101" t="s">
+      <c r="M4" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="92" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="15" thickBot="1">
-      <c r="B5" s="104" t="s">
+    <row r="5" spans="2:18" ht="15" thickBot="1">
+      <c r="B5" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="105">
-        <f>AVERAGE(C21:D21)</f>
+      <c r="C5" s="95">
+        <f>AVERAGE(C22:D22)</f>
         <v>0.240081071012436</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="96">
         <v>0.24619295026856799</v>
       </c>
-      <c r="E5" s="106">
+      <c r="E5" s="96">
         <v>0.23363544813695875</v>
       </c>
-      <c r="F5" s="106">
+      <c r="F5" s="96">
         <v>0.23923923923923923</v>
       </c>
-      <c r="G5" s="106">
+      <c r="G5" s="96">
         <v>0.26190476190476192</v>
       </c>
-      <c r="H5" s="107">
+      <c r="H5" s="97">
         <v>0.25701298296958203</v>
       </c>
-      <c r="I5" s="106">
-        <f>AVERAGE(J21:O21)</f>
+      <c r="I5" s="96">
+        <f>AVERAGE(J22:O22)</f>
         <v>0.2904675180899407</v>
       </c>
-      <c r="J5" s="106">
+      <c r="J5" s="96">
         <v>0.30980502765660201</v>
       </c>
-      <c r="K5" s="106">
+      <c r="K5" s="96">
         <v>0.26626626626626598</v>
       </c>
-      <c r="L5" s="106">
+      <c r="L5" s="96">
         <v>0.23287671232876711</v>
       </c>
-      <c r="M5" s="106">
+      <c r="M5" s="96">
         <v>0.26513256628314158</v>
       </c>
-      <c r="N5" s="106">
+      <c r="N5" s="96">
         <f>PRODUCT(25,1/(25+26+20+26))</f>
         <v>0.25773195876288657</v>
       </c>
-      <c r="O5" s="106">
+      <c r="O5" s="96">
         <v>0.25600000000000001</v>
       </c>
-      <c r="P5" s="106">
-        <f>AVERAGE(V21:AD21)</f>
+      <c r="P5" s="96">
+        <f>AVERAGE(V22:AD22)</f>
         <v>0.24496970257805201</v>
       </c>
-      <c r="Q5" s="108">
+      <c r="Q5" s="98">
         <v>0.29332235999329997</v>
       </c>
-      <c r="R5" s="108">
+      <c r="R5" s="98">
         <v>0.26790000218605098</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15" thickBot="1">
-      <c r="B6" s="109" t="s">
+    <row r="6" spans="2:18" ht="15" thickBot="1">
+      <c r="B6" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="110">
-        <f t="shared" ref="C6:C8" si="0">AVERAGE(C22:D22)</f>
+      <c r="C6" s="95">
+        <f t="shared" ref="C6:C8" si="0">AVERAGE(C23:D23)</f>
         <v>0.23540183757161748</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="85">
         <v>0.24589995113808602</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="85">
         <v>0.21047331319234644</v>
       </c>
-      <c r="F6" s="86">
+      <c r="F6" s="85">
         <v>0.21821821821821824</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="85">
         <v>0.21587301587301588</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="100">
         <v>0.20262150129206999</v>
       </c>
-      <c r="I6" s="106">
-        <f t="shared" ref="I6:I8" si="1">AVERAGE(J22:O22)</f>
+      <c r="I6" s="96">
+        <f t="shared" ref="I6:I8" si="1">AVERAGE(J23:O23)</f>
         <v>0.29473113653888089</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="85">
         <v>0.308711036006802</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="85">
         <v>0.26526526526526523</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="85">
         <v>0.30593607305936077</v>
       </c>
-      <c r="M6" s="86">
+      <c r="M6" s="85">
         <v>0.27063531765882942</v>
       </c>
-      <c r="N6" s="86">
+      <c r="N6" s="85">
         <f>PRODUCT(26,1/(25+26+20+26))</f>
         <v>0.26804123711340205</v>
       </c>
-      <c r="O6" s="86">
+      <c r="O6" s="85">
         <v>0.26700000000000002</v>
       </c>
-      <c r="P6" s="106">
-        <f t="shared" ref="P6:P8" si="2">AVERAGE(V22:AD22)</f>
+      <c r="P6" s="96">
+        <f t="shared" ref="P6:P8" si="2">AVERAGE(V23:AD23)</f>
         <v>0.26416937681255576</v>
       </c>
-      <c r="Q6" s="112">
+      <c r="Q6" s="101">
         <v>0.293005629141324</v>
       </c>
-      <c r="R6" s="112">
+      <c r="R6" s="101">
         <v>0.21879999875961401</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1">
-      <c r="B7" s="109" t="s">
+    <row r="7" spans="2:18" ht="15" thickBot="1">
+      <c r="B7" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="95">
         <f t="shared" si="0"/>
         <v>0.26228909484429597</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="85">
         <v>0.25366765970391503</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="85">
         <v>0.32628398791540791</v>
       </c>
-      <c r="F7" s="86">
+      <c r="F7" s="85">
         <v>0.32032032032032037</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="85">
         <v>0.32222222222222224</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="85">
         <v>0.31523397366044997</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="96">
         <f t="shared" si="1"/>
         <v>0.20812924710149791</v>
       </c>
-      <c r="J7" s="86">
+      <c r="J7" s="85">
         <v>0.19059316885292202</v>
       </c>
-      <c r="K7" s="86">
+      <c r="K7" s="85">
         <v>0.26726726726726724</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L7" s="85">
         <v>0.23287671232876711</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="85">
         <v>0.27263631815907952</v>
       </c>
-      <c r="N7" s="86">
+      <c r="N7" s="85">
         <f>PRODUCT(26,1/(25+26+20+26))</f>
         <v>0.26804123711340205</v>
       </c>
-      <c r="O7" s="86">
+      <c r="O7" s="85">
         <v>0.28199999999999997</v>
       </c>
-      <c r="P7" s="106">
+      <c r="P7" s="96">
         <f t="shared" si="2"/>
         <v>0.23646195050183857</v>
       </c>
-      <c r="Q7" s="112">
+      <c r="Q7" s="101">
         <v>0.20678452605724901</v>
       </c>
-      <c r="R7" s="112">
+      <c r="R7" s="101">
         <v>0.26379999914403202</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15" thickBot="1">
-      <c r="B8" s="113" t="s">
+    <row r="8" spans="2:18" ht="15" thickBot="1">
+      <c r="B8" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="114">
+      <c r="C8" s="95">
         <f t="shared" si="0"/>
         <v>0.26222799657164902</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="86">
         <v>0.25423943888942901</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="86">
         <v>0.22960725075528707</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="86">
         <v>0.22222222222222224</v>
       </c>
-      <c r="G8" s="87">
+      <c r="G8" s="86">
         <v>0.2</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="86">
         <v>0.22513154207789801</v>
       </c>
-      <c r="I8" s="115">
+      <c r="I8" s="96">
         <f t="shared" si="1"/>
         <v>0.2066720982696805</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="86">
         <v>0.19089076748367201</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="86">
         <v>0.201201201201201</v>
       </c>
-      <c r="L8" s="87">
+      <c r="L8" s="86">
         <v>0.22831050228310504</v>
       </c>
-      <c r="M8" s="87">
+      <c r="M8" s="86">
         <v>0.19159579789894945</v>
       </c>
-      <c r="N8" s="87">
+      <c r="N8" s="86">
         <f>PRODUCT(20,1/(25+26+20+26))</f>
         <v>0.20618556701030927</v>
       </c>
-      <c r="O8" s="87">
+      <c r="O8" s="86">
         <v>0.19500000000000001</v>
       </c>
-      <c r="P8" s="115">
+      <c r="P8" s="96">
         <f t="shared" si="2"/>
         <v>0.25439897010755169</v>
       </c>
-      <c r="Q8" s="116">
+      <c r="Q8" s="103">
         <v>0.20688748480812499</v>
       </c>
-      <c r="R8" s="116">
+      <c r="R8" s="103">
         <v>0.249499999910303</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1"/>
-    <row r="11" spans="2:21">
-      <c r="B11" s="145" t="s">
+    <row r="10" spans="2:18" ht="15" thickBot="1"/>
+    <row r="11" spans="2:18" s="112" customFormat="1">
+      <c r="B11" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="126" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="G11" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="146" t="s">
+      <c r="H11" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="146" t="s">
+      <c r="J11" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="K11" s="146" t="s">
+      <c r="K11" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="L11" s="147" t="s">
+      <c r="L11" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
     </row>
-    <row r="12" spans="2:21">
-      <c r="B12" s="160"/>
-      <c r="C12" s="71" t="s">
+    <row r="12" spans="2:18" s="112" customFormat="1">
+      <c r="B12" s="134"/>
+      <c r="C12" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="L12" s="148" t="s">
+      <c r="L12" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
     </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="160" t="s">
+    <row r="13" spans="2:18" s="112" customFormat="1">
+      <c r="B13" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="112">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="112">
         <v>0.27200000000000002</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="112">
         <v>0.23</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="112">
         <v>0.248</v>
       </c>
-      <c r="G13" s="83">
+      <c r="G13" s="112">
         <v>0.27100000000000002</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="112">
         <v>0.24</v>
       </c>
-      <c r="I13" s="127">
+      <c r="I13" s="185">
         <v>0.22832980972515857</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="112">
         <v>0.25700000000000001</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="112">
         <v>0.25</v>
       </c>
-      <c r="L13" s="149">
+      <c r="L13" s="129">
         <v>0.246</v>
       </c>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
     </row>
-    <row r="14" spans="2:21">
-      <c r="B14" s="160" t="s">
+    <row r="14" spans="2:18" s="112" customFormat="1">
+      <c r="B14" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="112">
         <v>0.254</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="112">
         <v>0.254</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="112">
         <v>0.22600000000000001</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="112">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G14" s="83">
+      <c r="G14" s="112">
         <v>0.254</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="112">
         <v>0.24399999999999999</v>
       </c>
-      <c r="I14" s="127">
+      <c r="I14" s="185">
         <v>0.23467230443974632</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="112">
         <v>0.20799999999999999</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="112">
         <v>0.20699999999999999</v>
       </c>
-      <c r="L14" s="149">
+      <c r="L14" s="129">
         <v>0.20799999999999999</v>
       </c>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
     </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="160" t="s">
+    <row r="15" spans="2:18" s="112" customFormat="1">
+      <c r="B15" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="112">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="112">
         <v>0.20199999999999999</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="112">
         <v>0.23199999999999998</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="112">
         <v>0.24</v>
       </c>
-      <c r="G15" s="83">
+      <c r="G15" s="112">
         <v>0.21899999999999997</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="112">
         <v>0.23100000000000001</v>
       </c>
-      <c r="I15" s="127">
+      <c r="I15" s="185">
         <v>0.2536997885835095</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="112">
         <v>0.222</v>
       </c>
-      <c r="K15" s="83">
+      <c r="K15" s="112">
         <v>0.22600000000000001</v>
       </c>
-      <c r="L15" s="149">
+      <c r="L15" s="129">
         <v>0.22600000000000001</v>
       </c>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
     </row>
-    <row r="16" spans="2:21" ht="15" thickBot="1">
-      <c r="B16" s="161" t="s">
+    <row r="16" spans="2:18" s="112" customFormat="1" ht="15" thickBot="1">
+      <c r="B16" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="157">
+      <c r="C16" s="131">
         <v>0.28199999999999997</v>
       </c>
-      <c r="D16" s="157">
+      <c r="D16" s="131">
         <v>0.27200000000000002</v>
       </c>
-      <c r="E16" s="157">
+      <c r="E16" s="131">
         <v>0.313</v>
       </c>
-      <c r="F16" s="157">
+      <c r="F16" s="131">
         <v>0.28600000000000003</v>
       </c>
-      <c r="G16" s="157">
+      <c r="G16" s="131">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H16" s="157">
+      <c r="H16" s="131">
         <v>0.28399999999999997</v>
       </c>
-      <c r="I16" s="158">
+      <c r="I16" s="132">
         <v>0.28329809725158567</v>
       </c>
-      <c r="J16" s="157">
+      <c r="J16" s="131">
         <v>0.313</v>
       </c>
-      <c r="K16" s="157">
+      <c r="K16" s="131">
         <v>0.317</v>
       </c>
-      <c r="L16" s="159">
+      <c r="L16" s="133">
         <v>0.32</v>
       </c>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
     </row>
-    <row r="17" spans="2:32">
-      <c r="B17" s="160"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
+    <row r="17" spans="2:32" s="112" customFormat="1" ht="15" thickBot="1">
+      <c r="B17" s="186" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="188" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="188" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="188" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" s="189" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="18" spans="2:32" s="118" customFormat="1" ht="14.4" hidden="1" customHeight="1">
-      <c r="B18" s="152"/>
-      <c r="C18" s="140" t="s">
+    <row r="18" spans="2:32" s="112" customFormat="1" ht="15" thickBot="1">
+      <c r="B18" s="190"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+    </row>
+    <row r="19" spans="2:32" s="104" customFormat="1" ht="14.4" customHeight="1">
+      <c r="B19" s="193"/>
+      <c r="C19" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="144" t="s">
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="144"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="144"/>
-      <c r="U18" s="144"/>
-      <c r="V18" s="117" t="s">
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="195"/>
+      <c r="S19" s="195"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="195"/>
+      <c r="V19" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="117"/>
+      <c r="W19" s="174"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="174"/>
+      <c r="Z19" s="174"/>
+      <c r="AA19" s="174"/>
+      <c r="AB19" s="174"/>
+      <c r="AC19" s="174"/>
+      <c r="AD19" s="174"/>
+      <c r="AE19" s="174"/>
+      <c r="AF19" s="196"/>
     </row>
-    <row r="19" spans="2:32" s="118" customFormat="1" ht="14.4" hidden="1" customHeight="1">
-      <c r="B19" s="152"/>
-      <c r="C19" s="139" t="s">
+    <row r="20" spans="2:32" s="104" customFormat="1" ht="14.4" customHeight="1">
+      <c r="B20" s="130"/>
+      <c r="C20" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="139" t="s">
+      <c r="D20" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="139" t="s">
+      <c r="E20" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="139" t="s">
+      <c r="F20" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="139" t="s">
+      <c r="G20" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="139" t="s">
+      <c r="H20" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="I19" s="139" t="s">
+      <c r="I20" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="139" t="s">
+      <c r="J20" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="139" t="s">
+      <c r="K20" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="L19" s="151" t="s">
+      <c r="L20" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="M19" s="139" t="s">
+      <c r="M20" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="N19" s="139" t="s">
+      <c r="N20" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="O19" s="139" t="s">
+      <c r="O20" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="P19" s="139" t="s">
+      <c r="P20" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="Q19" s="139" t="s">
+      <c r="Q20" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="R19" s="139" t="s">
+      <c r="R20" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="S19" s="139" t="s">
+      <c r="S20" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="T19" s="139" t="s">
+      <c r="T20" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="U19" s="139" t="s">
+      <c r="U20" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="V19" s="136" t="s">
+      <c r="V20" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="W19" s="119" t="s">
+      <c r="W20" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="X19" s="119" t="s">
+      <c r="X20" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="Y19" s="119" t="s">
+      <c r="Y20" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="Z19" s="119" t="s">
+      <c r="Z20" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="AA19" s="119" t="s">
+      <c r="AA20" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="AB19" s="119" t="s">
+      <c r="AB20" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="AC19" s="119" t="s">
+      <c r="AC20" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="AD19" s="119" t="s">
+      <c r="AD20" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="AE19" s="119" t="s">
+      <c r="AE20" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="AF19" s="119" t="s">
+      <c r="AF20" s="109" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="2:32" s="122" customFormat="1" ht="14.4" hidden="1" customHeight="1">
-      <c r="B20" s="152"/>
-      <c r="C20" s="142" t="s">
+    <row r="21" spans="2:32" s="108" customFormat="1" ht="14.4" customHeight="1">
+      <c r="B21" s="130"/>
+      <c r="C21" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="142" t="s">
+      <c r="D21" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="141" t="s">
+      <c r="E21" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="141" t="s">
+      <c r="F21" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="141" t="s">
+      <c r="G21" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="141" t="s">
+      <c r="H21" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="141" t="s">
+      <c r="I21" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="J20" s="141" t="s">
+      <c r="J21" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="K20" s="141" t="s">
+      <c r="K21" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="L20" s="153" t="s">
+      <c r="L21" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="M20" s="141" t="s">
+      <c r="M21" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="N20" s="141" t="s">
+      <c r="N21" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="O20" s="141" t="s">
+      <c r="O21" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="P20" s="141" t="s">
+      <c r="P21" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="Q20" s="141" t="s">
+      <c r="Q21" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="R20" s="141" t="s">
+      <c r="R21" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="S20" s="141" t="s">
+      <c r="S21" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="T20" s="141" t="s">
+      <c r="T21" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="U20" s="141" t="s">
+      <c r="U21" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="V20" s="137" t="s">
+      <c r="V21" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="W20" s="120" t="s">
+      <c r="W21" s="106" t="s">
         <v>221</v>
       </c>
-      <c r="X20" s="120" t="s">
+      <c r="X21" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="Y20" s="120" t="s">
+      <c r="Y21" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="Z20" s="120" t="s">
+      <c r="Z21" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="AA20" s="120" t="s">
+      <c r="AA21" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="AB20" s="120" t="s">
+      <c r="AB21" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="AC20" s="120" t="s">
+      <c r="AC21" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="AD20" s="120" t="s">
+      <c r="AD21" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="AE20" s="121" t="s">
+      <c r="AE21" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="AF20" s="120" t="s">
+      <c r="AF21" s="107" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="118" customFormat="1" ht="14.4" hidden="1" customHeight="1">
-      <c r="B21" s="152" t="s">
+    <row r="22" spans="2:32" s="104" customFormat="1" ht="14.4" customHeight="1">
+      <c r="B22" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="139">
+      <c r="C22" s="104">
         <v>0.240300823068722</v>
       </c>
-      <c r="D21" s="139">
+      <c r="D22" s="104">
         <v>0.23986131895615001</v>
       </c>
-      <c r="E21" s="139">
+      <c r="E22" s="104">
         <v>0.24619295026856799</v>
       </c>
-      <c r="F21" s="139">
+      <c r="F22" s="104">
         <v>0.23363544813695875</v>
       </c>
-      <c r="G21" s="139">
+      <c r="G22" s="104">
         <v>0.23923923923923923</v>
       </c>
-      <c r="H21" s="139">
+      <c r="H22" s="104">
         <v>0.26190476190476192</v>
       </c>
-      <c r="I21" s="143">
+      <c r="I22" s="197">
         <v>0.25701298296958203</v>
       </c>
-      <c r="J21" s="139">
+      <c r="J22" s="104">
         <v>0.29214240406617048</v>
       </c>
-      <c r="K21" s="139">
+      <c r="K22" s="104">
         <v>0.29002883230117305</v>
       </c>
-      <c r="L21" s="151">
+      <c r="L22" s="104">
         <v>0.29148235352081941</v>
       </c>
-      <c r="M21" s="139">
+      <c r="M22" s="104">
         <v>0.28948986719564246</v>
       </c>
-      <c r="N21" s="139">
+      <c r="N22" s="104">
         <v>0.28958218408867364</v>
       </c>
-      <c r="O21" s="139">
+      <c r="O22" s="104">
         <v>0.29007946736716506</v>
       </c>
-      <c r="P21" s="139">
+      <c r="P22" s="104">
         <v>0.30980502765660201</v>
       </c>
-      <c r="Q21" s="139">
+      <c r="Q22" s="104">
         <v>0.26626626626626598</v>
       </c>
-      <c r="R21" s="139">
+      <c r="R22" s="104">
         <v>0.23287671232876711</v>
       </c>
-      <c r="S21" s="139">
+      <c r="S22" s="104">
         <v>0.26513256628314158</v>
       </c>
-      <c r="T21" s="139">
+      <c r="T22" s="104">
         <f>PRODUCT(25,1/(25+26+20+26))</f>
         <v>0.25773195876288657</v>
       </c>
-      <c r="U21" s="139">
+      <c r="U22" s="104">
         <v>0.25600000000000001</v>
       </c>
-      <c r="V21" s="136">
+      <c r="V22" s="122">
         <v>0.24579344747161</v>
       </c>
-      <c r="W21" s="119">
+      <c r="W22" s="105">
         <v>0.25465856887494298</v>
       </c>
-      <c r="X21" s="119">
+      <c r="X22" s="105">
         <v>0.25367139171132502</v>
       </c>
-      <c r="Y21" s="119">
+      <c r="Y22" s="105">
         <v>0.234557487448702</v>
       </c>
-      <c r="Z21" s="119">
+      <c r="Z22" s="105">
         <v>0.24892340881083699</v>
       </c>
-      <c r="AA21" s="119">
+      <c r="AA22" s="105">
         <v>0.24618536341257299</v>
       </c>
-      <c r="AB21" s="119">
+      <c r="AB22" s="105">
         <v>0.23848439261227</v>
       </c>
-      <c r="AC21" s="119">
+      <c r="AC22" s="105">
         <v>0.24229752065619001</v>
       </c>
-      <c r="AD21" s="119">
+      <c r="AD22" s="105">
         <v>0.240155742204018</v>
       </c>
-      <c r="AE21" s="123">
+      <c r="AE22" s="109">
         <v>0.29332235999329997</v>
       </c>
-      <c r="AF21" s="119">
+      <c r="AF22" s="109">
         <v>0.26790000218605098</v>
       </c>
     </row>
-    <row r="22" spans="2:32" s="118" customFormat="1" ht="14.4" hidden="1" customHeight="1">
-      <c r="B22" s="152" t="s">
+    <row r="23" spans="2:32" s="104" customFormat="1" ht="14.4" customHeight="1">
+      <c r="B23" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="139">
+      <c r="C23" s="104">
         <v>0.23612814177409899</v>
       </c>
-      <c r="D22" s="139">
+      <c r="D23" s="104">
         <v>0.23467553336913599</v>
       </c>
-      <c r="E22" s="139">
+      <c r="E23" s="104">
         <v>0.24589995113808602</v>
       </c>
-      <c r="F22" s="139">
+      <c r="F23" s="104">
         <v>0.21047331319234644</v>
       </c>
-      <c r="G22" s="139">
+      <c r="G23" s="104">
         <v>0.21821821821821824</v>
       </c>
-      <c r="H22" s="139">
+      <c r="H23" s="104">
         <v>0.21587301587301588</v>
       </c>
-      <c r="I22" s="143">
+      <c r="I23" s="197">
         <v>0.20262150129206999</v>
       </c>
-      <c r="J22" s="139">
+      <c r="J23" s="104">
         <v>0.2950368020570604</v>
       </c>
-      <c r="K22" s="139">
+      <c r="K23" s="104">
         <v>0.29375406329502046</v>
       </c>
-      <c r="L22" s="151">
+      <c r="L23" s="104">
         <v>0.29475464164432552</v>
       </c>
-      <c r="M22" s="139">
+      <c r="M23" s="104">
         <v>0.29294103400243199</v>
       </c>
-      <c r="N22" s="139">
+      <c r="N23" s="104">
         <v>0.29347405594963388</v>
       </c>
-      <c r="O22" s="139">
+      <c r="O23" s="104">
         <v>0.2984262222848133</v>
       </c>
-      <c r="P22" s="139">
+      <c r="P23" s="104">
         <v>0.308711036006802</v>
       </c>
-      <c r="Q22" s="139">
+      <c r="Q23" s="104">
         <v>0.26526526526526523</v>
       </c>
-      <c r="R22" s="139">
+      <c r="R23" s="104">
         <v>0.30593607305936077</v>
       </c>
-      <c r="S22" s="139">
+      <c r="S23" s="104">
         <v>0.27063531765882942</v>
       </c>
-      <c r="T22" s="139">
+      <c r="T23" s="104">
         <f>PRODUCT(26,1/(25+26+20+26))</f>
         <v>0.26804123711340205</v>
       </c>
-      <c r="U22" s="139">
+      <c r="U23" s="104">
         <v>0.26700000000000002</v>
       </c>
-      <c r="V22" s="136">
+      <c r="V23" s="122">
         <v>0.26572526392058099</v>
       </c>
-      <c r="W22" s="119">
+      <c r="W23" s="105">
         <v>0.27190150578285099</v>
       </c>
-      <c r="X22" s="119">
+      <c r="X23" s="105">
         <v>0.27187147927134198</v>
       </c>
-      <c r="Y22" s="119">
+      <c r="Y23" s="105">
         <v>0.25953364825908298</v>
       </c>
-      <c r="Z22" s="119">
+      <c r="Z23" s="105">
         <v>0.26708999586749099</v>
       </c>
-      <c r="AA22" s="119">
+      <c r="AA23" s="105">
         <v>0.25854340734658898</v>
       </c>
-      <c r="AB22" s="119">
+      <c r="AB23" s="105">
         <v>0.260057303688423</v>
       </c>
-      <c r="AC22" s="119">
+      <c r="AC23" s="105">
         <v>0.256057565050617</v>
       </c>
-      <c r="AD22" s="119">
+      <c r="AD23" s="105">
         <v>0.266744222126025</v>
       </c>
-      <c r="AE22" s="123">
+      <c r="AE23" s="109">
         <v>0.293005629141324</v>
       </c>
-      <c r="AF22" s="119">
+      <c r="AF23" s="109">
         <v>0.21879999875961401</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="118" customFormat="1" ht="14.4" hidden="1" customHeight="1">
-      <c r="B23" s="152" t="s">
+    <row r="24" spans="2:32" s="104" customFormat="1" ht="14.4" customHeight="1">
+      <c r="B24" s="130" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="139">
+      <c r="C24" s="104">
         <v>0.26207974415288299</v>
       </c>
-      <c r="D23" s="139">
+      <c r="D24" s="104">
         <v>0.262498445535709</v>
       </c>
-      <c r="E23" s="139">
+      <c r="E24" s="104">
         <v>0.25366765970391503</v>
       </c>
-      <c r="F23" s="139">
+      <c r="F24" s="104">
         <v>0.32628398791540791</v>
       </c>
-      <c r="G23" s="139">
+      <c r="G24" s="104">
         <v>0.32032032032032037</v>
       </c>
-      <c r="H23" s="139">
+      <c r="H24" s="104">
         <v>0.32222222222222224</v>
       </c>
-      <c r="I23" s="139">
+      <c r="I24" s="104">
         <v>0.31523397366044997</v>
       </c>
-      <c r="J23" s="139">
+      <c r="J24" s="104">
         <v>0.20720837001040576</v>
       </c>
-      <c r="K23" s="139">
+      <c r="K24" s="104">
         <v>0.20883110697810769</v>
       </c>
-      <c r="L23" s="151">
+      <c r="L24" s="104">
         <v>0.20784910529427003</v>
       </c>
-      <c r="M23" s="139">
+      <c r="M24" s="104">
         <v>0.20990585967364009</v>
       </c>
-      <c r="N23" s="139">
+      <c r="N24" s="104">
         <v>0.20914660898096821</v>
       </c>
-      <c r="O23" s="139">
+      <c r="O24" s="104">
         <v>0.2058344316715956</v>
       </c>
-      <c r="P23" s="139">
+      <c r="P24" s="104">
         <v>0.19059316885292202</v>
       </c>
-      <c r="Q23" s="139">
+      <c r="Q24" s="104">
         <v>0.26726726726726724</v>
       </c>
-      <c r="R23" s="139">
+      <c r="R24" s="104">
         <v>0.23287671232876711</v>
       </c>
-      <c r="S23" s="139">
+      <c r="S24" s="104">
         <v>0.27263631815907952</v>
       </c>
-      <c r="T23" s="139">
+      <c r="T24" s="104">
         <f>PRODUCT(26,1/(25+26+20+26))</f>
         <v>0.26804123711340205</v>
       </c>
-      <c r="U23" s="139">
+      <c r="U24" s="104">
         <v>0.28199999999999997</v>
       </c>
-      <c r="V23" s="136">
+      <c r="V24" s="122">
         <v>0.23666701034222301</v>
       </c>
-      <c r="W23" s="119">
+      <c r="W24" s="105">
         <v>0.22920962220202301</v>
       </c>
-      <c r="X23" s="119">
+      <c r="X24" s="105">
         <v>0.227550302063868</v>
       </c>
-      <c r="Y23" s="119">
+      <c r="Y24" s="105">
         <v>0.241383172350881</v>
       </c>
-      <c r="Z23" s="119">
+      <c r="Z24" s="105">
         <v>0.23170309072075501</v>
       </c>
-      <c r="AA23" s="119">
+      <c r="AA24" s="105">
         <v>0.23994579623200901</v>
       </c>
-      <c r="AB23" s="119">
+      <c r="AB24" s="105">
         <v>0.242592743735903</v>
       </c>
-      <c r="AC23" s="119">
+      <c r="AC24" s="105">
         <v>0.24247709089035599</v>
       </c>
-      <c r="AD23" s="119">
+      <c r="AD24" s="105">
         <v>0.23662872597852899</v>
       </c>
-      <c r="AE23" s="123">
+      <c r="AE24" s="109">
         <v>0.20678452605724901</v>
       </c>
-      <c r="AF23" s="119">
+      <c r="AF24" s="109">
         <v>0.26379999914403202</v>
       </c>
     </row>
-    <row r="24" spans="2:32" s="118" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="B24" s="152" t="s">
+    <row r="25" spans="2:32" s="104" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B25" s="198" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="139">
+      <c r="C25" s="199">
         <v>0.26149129100429502</v>
       </c>
-      <c r="D24" s="139">
+      <c r="D25" s="199">
         <v>0.26296470213900303</v>
       </c>
-      <c r="E24" s="139">
+      <c r="E25" s="199">
         <v>0.25423943888942901</v>
       </c>
-      <c r="F24" s="139">
+      <c r="F25" s="199">
         <v>0.22960725075528707</v>
       </c>
-      <c r="G24" s="139">
+      <c r="G25" s="199">
         <v>0.22222222222222224</v>
       </c>
-      <c r="H24" s="139">
+      <c r="H25" s="199">
         <v>0.2</v>
       </c>
-      <c r="I24" s="139">
+      <c r="I25" s="199">
         <v>0.22513154207789801</v>
       </c>
-      <c r="J24" s="139">
+      <c r="J25" s="199">
         <v>0.20561242386636333</v>
       </c>
-      <c r="K24" s="139">
+      <c r="K25" s="199">
         <v>0.2073859974256988</v>
       </c>
-      <c r="L24" s="151">
+      <c r="L25" s="199">
         <v>0.205913899540585</v>
       </c>
-      <c r="M24" s="139">
+      <c r="M25" s="199">
         <v>0.20766323912828552</v>
       </c>
-      <c r="N24" s="139">
+      <c r="N25" s="199">
         <v>0.20779715098072424</v>
       </c>
-      <c r="O24" s="139">
+      <c r="O25" s="199">
         <v>0.20565987867642604</v>
       </c>
-      <c r="P24" s="139">
+      <c r="P25" s="199">
         <v>0.19089076748367201</v>
       </c>
-      <c r="Q24" s="139">
+      <c r="Q25" s="199">
         <v>0.201201201201201</v>
       </c>
-      <c r="R24" s="139">
+      <c r="R25" s="199">
         <v>0.22831050228310504</v>
       </c>
-      <c r="S24" s="139">
+      <c r="S25" s="199">
         <v>0.19159579789894945</v>
       </c>
-      <c r="T24" s="139">
+      <c r="T25" s="199">
         <f>PRODUCT(20,1/(25+26+20+26))</f>
         <v>0.20618556701030927</v>
       </c>
-      <c r="U24" s="139">
+      <c r="U25" s="199">
         <v>0.19500000000000001</v>
       </c>
-      <c r="V24" s="138">
+      <c r="V25" s="124">
         <v>0.251814278265585</v>
       </c>
-      <c r="W24" s="124">
+      <c r="W25" s="110">
         <v>0.24423030314018099</v>
       </c>
-      <c r="X24" s="124">
+      <c r="X25" s="110">
         <v>0.246906826953463</v>
       </c>
-      <c r="Y24" s="124">
+      <c r="Y25" s="110">
         <v>0.26452569194133202</v>
       </c>
-      <c r="Z24" s="124">
+      <c r="Z25" s="110">
         <v>0.25228350460091498</v>
       </c>
-      <c r="AA24" s="124">
+      <c r="AA25" s="110">
         <v>0.25532543300882599</v>
       </c>
-      <c r="AB24" s="124">
+      <c r="AB25" s="110">
         <v>0.25886555996340199</v>
       </c>
-      <c r="AC24" s="124">
+      <c r="AC25" s="110">
         <v>0.25916782340283501</v>
       </c>
-      <c r="AD24" s="124">
+      <c r="AD25" s="110">
         <v>0.25647130969142601</v>
       </c>
-      <c r="AE24" s="125">
+      <c r="AE25" s="111">
         <v>0.20688748480812499</v>
       </c>
-      <c r="AF24" s="124">
+      <c r="AF25" s="111">
         <v>0.249499999910303</v>
       </c>
-    </row>
-    <row r="25" spans="2:32" ht="15" thickBot="1">
-      <c r="B25" s="162" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="154" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="154" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="154" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="154" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="154" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" s="154" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="155" t="s">
-        <v>248</v>
-      </c>
-      <c r="J25" s="155" t="s">
-        <v>249</v>
-      </c>
-      <c r="K25" s="155" t="s">
-        <v>249</v>
-      </c>
-      <c r="L25" s="156" t="s">
-        <v>249</v>
-      </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
     </row>
     <row r="27" spans="2:32">
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="V18:AF18"/>
+  <mergeCells count="7">
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:O2"/>
-    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="J19:U19"/>
+    <mergeCell ref="V19:AF19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19180,12 +19167,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E257B0-B4CC-4D48-8F6E-D519390AC652}">
   <dimension ref="B1:AD18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O29" sqref="I29:O29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -19286,82 +19273,82 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.4515036268400061E-3</v>
       </c>
       <c r="E3" s="33" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.8152446772060158E-2</v>
       </c>
       <c r="F3" s="54" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6276957446715809E-2</v>
       </c>
       <c r="G3" s="33" cm="1">
-        <f t="array" aca="1" ref="G3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.5612365855432942E-2</v>
       </c>
       <c r="H3" s="34" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7217426086407879E-2</v>
       </c>
       <c r="I3" s="9" cm="1">
-        <f t="array" aca="1" ref="I3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.4951129898990342E-2</v>
       </c>
       <c r="J3" s="9" cm="1">
-        <f t="array" aca="1" ref="J3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.1527922455216539E-2</v>
       </c>
       <c r="K3" s="44" cm="1">
-        <f t="array" aca="1" ref="K3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6491576829298211E-2</v>
       </c>
       <c r="L3" s="44" cm="1">
-        <f t="array" aca="1" ref="L3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.1959700380056877E-2</v>
       </c>
       <c r="M3" s="44" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.1728132159311447E-2</v>
       </c>
       <c r="N3" s="44" cm="1">
-        <f t="array" aca="1" ref="N3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.3729531914366298E-2</v>
       </c>
       <c r="O3" s="44" cm="1">
-        <f t="array" aca="1" ref="O3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9242768359458155E-2</v>
       </c>
       <c r="P3" s="13" cm="1">
-        <f t="array" aca="1" ref="P3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.9873380895213365E-2</v>
       </c>
       <c r="Q3" s="9" cm="1">
-        <f t="array" aca="1" ref="Q3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.5444028204205249E-2</v>
       </c>
       <c r="R3" s="45" cm="1">
-        <f t="array" aca="1" ref="R3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R3" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.7419807076976112E-2</v>
       </c>
       <c r="U3" s="22" t="s">
         <v>211</v>
       </c>
       <c r="V3" s="64" cm="1">
-        <f t="array" ref="V3">SQRT(SUMSQ(Raw_RNA!$I$13:$I$16-Raw_RNA!E$5:E$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="V3">SQRT(SUMSQ(Raw_ribonucleotides!$I$13:$I$16-Raw_ribonucleotides!E$5:E$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.6810559616635557E-2</v>
       </c>
       <c r="W3" s="64" cm="1">
-        <f t="array" ref="W3">SQRT(SUMSQ(Raw_RNA!$I$13:$I$16-Raw_RNA!F$5:F$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="W3">SQRT(SUMSQ(Raw_ribonucleotides!$I$13:$I$16-Raw_ribonucleotides!F$5:F$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.6255568219420937E-2</v>
       </c>
       <c r="X3" s="64" cm="1">
-        <f t="array" ref="X3">SQRT(SUMSQ(Raw_RNA!$I$13:$I$16-Raw_RNA!G$5:G$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="X3">SQRT(SUMSQ(Raw_ribonucleotides!$I$13:$I$16-Raw_ribonucleotides!G$5:G$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>5.7259469919796385E-2</v>
       </c>
       <c r="Y3" s="64" cm="1">
-        <f t="array" ref="Y3">SQRT(SUMSQ(Raw_RNA!$I$13:$I$16-Raw_RNA!H$5:H$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="Y3">SQRT(SUMSQ(Raw_ribonucleotides!$I$13:$I$16-Raw_ribonucleotides!H$5:H$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.7486267708774302E-2</v>
       </c>
       <c r="Z3" s="65"/>
@@ -19375,82 +19362,82 @@
         <v>147</v>
       </c>
       <c r="C4" s="11" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.4515036268400061E-3</v>
       </c>
       <c r="E4" s="8" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.2698399709821991E-2</v>
       </c>
       <c r="F4" s="19" cm="1">
-        <f t="array" aca="1" ref="F4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9630517801584664E-2</v>
       </c>
       <c r="G4" s="8" cm="1">
-        <f t="array" aca="1" ref="G4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.6877826953210369E-2</v>
       </c>
       <c r="H4" s="14" cm="1">
-        <f t="array" aca="1" ref="H4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.0705583154250796E-2</v>
       </c>
       <c r="I4" cm="1">
-        <f t="array" aca="1" ref="I4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.6586266590593235E-2</v>
       </c>
       <c r="J4" cm="1">
-        <f t="array" aca="1" ref="J4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.321228981968785E-2</v>
       </c>
       <c r="K4" s="42" cm="1">
-        <f t="array" aca="1" ref="K4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.0724409633619984E-2</v>
       </c>
       <c r="L4" s="42" cm="1">
-        <f t="array" aca="1" ref="L4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.4950791745347119E-2</v>
       </c>
       <c r="M4" s="42" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6244251860908169E-2</v>
       </c>
       <c r="N4" s="42" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.8014101769439505E-2</v>
       </c>
       <c r="O4" s="42" cm="1">
-        <f t="array" aca="1" ref="O4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.4833256067289674E-2</v>
       </c>
       <c r="P4" s="11" cm="1">
-        <f t="array" aca="1" ref="P4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.2563141811896623E-2</v>
       </c>
       <c r="Q4" cm="1">
-        <f t="array" aca="1" ref="Q4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.7117836158389825E-2</v>
       </c>
       <c r="R4" s="43" cm="1">
-        <f t="array" aca="1" ref="R4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R4" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.8239586797885267E-2</v>
       </c>
       <c r="U4" s="22" t="s">
         <v>212</v>
       </c>
       <c r="V4" s="64" cm="1">
-        <f t="array" ref="V4">SQRT(SUMSQ(Raw_RNA!$J$13:$J$16-Raw_RNA!E$5:E$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="V4">SQRT(SUMSQ(Raw_ribonucleotides!$J$13:$J$16-Raw_ribonucleotides!E$5:E$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.7789232780805037E-2</v>
       </c>
       <c r="W4" s="64" cm="1">
-        <f t="array" ref="W4">SQRT(SUMSQ(Raw_RNA!$J$13:$J$16-Raw_RNA!F$5:F$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="W4">SQRT(SUMSQ(Raw_ribonucleotides!$J$13:$J$16-Raw_ribonucleotides!F$5:F$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.7689266011159613E-2</v>
       </c>
       <c r="X4" s="64" cm="1">
-        <f t="array" ref="X4">SQRT(SUMSQ(Raw_RNA!$J$13:$J$16-Raw_RNA!G$5:G$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="X4">SQRT(SUMSQ(Raw_ribonucleotides!$J$13:$J$16-Raw_ribonucleotides!G$5:G$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>7.5662961373844692E-2</v>
       </c>
       <c r="Y4" s="64" cm="1">
-        <f t="array" ref="Y4">SQRT(SUMSQ(Raw_RNA!$J$13:$J$16-Raw_RNA!H$5:H$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="Y4">SQRT(SUMSQ(Raw_ribonucleotides!$J$13:$J$16-Raw_ribonucleotides!H$5:H$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.4113898959263102E-2</v>
       </c>
       <c r="Z4" s="65"/>
@@ -19464,83 +19451,83 @@
         <v>148</v>
       </c>
       <c r="C5" s="11" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.8152446772060158E-2</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.2698399709821991E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.7359113376857021E-3</v>
       </c>
       <c r="G5" s="15" cm="1">
-        <f t="array" aca="1" ref="G5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.0744867604873506E-2</v>
       </c>
       <c r="H5" s="36" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.3695755438889335E-2</v>
       </c>
       <c r="I5" cm="1">
-        <f t="array" aca="1" ref="I5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.8765203241305606E-2</v>
       </c>
       <c r="J5" cm="1">
-        <f t="array" aca="1" ref="J5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>9.402582023404342E-2</v>
       </c>
       <c r="K5" s="38" cm="1">
-        <f t="array" aca="1" ref="K5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.5707781807583989E-2</v>
       </c>
       <c r="L5" s="38" cm="1">
-        <f t="array" aca="1" ref="L5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.6783820814948588E-2</v>
       </c>
       <c r="M5" s="38" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.7261184526716446E-2</v>
       </c>
       <c r="N5" s="38" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.4259182604743763E-2</v>
       </c>
       <c r="O5" s="38" cm="1">
-        <f t="array" aca="1" ref="O5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.1394966155368855E-2</v>
       </c>
       <c r="P5" s="11" cm="1">
-        <f t="array" aca="1" ref="P5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.407023285877155E-2</v>
       </c>
       <c r="Q5" cm="1">
-        <f t="array" aca="1" ref="Q5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.9325941173004538E-2</v>
       </c>
       <c r="R5" s="39" cm="1">
-        <f t="array" aca="1" ref="R5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R5" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7226884366157745E-2</v>
       </c>
       <c r="U5" s="22" t="s">
         <v>213</v>
       </c>
       <c r="V5" s="64" cm="1">
-        <f t="array" ref="V5">SQRT(SUMSQ(Raw_RNA!$K$13:$K$16-Raw_RNA!E$5:E$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="V5">SQRT(SUMSQ(Raw_ribonucleotides!$K$13:$K$16-Raw_ribonucleotides!E$5:E$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.7034008747383689E-2</v>
       </c>
       <c r="W5" s="64" cm="1">
-        <f t="array" ref="W5">SQRT(SUMSQ(Raw_RNA!$K$13:$K$16-Raw_RNA!F$5:F$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="W5">SQRT(SUMSQ(Raw_ribonucleotides!$K$13:$K$16-Raw_ribonucleotides!F$5:F$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.7306746277701529E-2</v>
       </c>
       <c r="X5" s="64" cm="1">
-        <f t="array" ref="X5">SQRT(SUMSQ(Raw_RNA!$K$13:$K$16-Raw_RNA!G$5:G$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="X5">SQRT(SUMSQ(Raw_ribonucleotides!$K$13:$K$16-Raw_ribonucleotides!G$5:G$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>7.6105469277960858E-2</v>
       </c>
       <c r="Y5" s="64" cm="1">
-        <f t="array" ref="Y5">SQRT(SUMSQ(Raw_RNA!$K$13:$K$16-Raw_RNA!H$5:H$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="Y5">SQRT(SUMSQ(Raw_ribonucleotides!$K$13:$K$16-Raw_ribonucleotides!H$5:H$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.4169441320004295E-2</v>
       </c>
       <c r="Z5" s="65"/>
@@ -19554,83 +19541,83 @@
         <v>149</v>
       </c>
       <c r="C6" s="11" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6276957446715809E-2</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9630517801584664E-2</v>
       </c>
       <c r="E6" s="15" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.7359113376857021E-3</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15" cm="1">
-        <f t="array" aca="1" ref="G6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.5942633746338392E-2</v>
       </c>
       <c r="H6" s="36" cm="1">
-        <f t="array" aca="1" ref="H6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.2180913445153686E-2</v>
       </c>
       <c r="I6" cm="1">
-        <f t="array" aca="1" ref="I6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.2984941064715897E-2</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" aca="1" ref="J6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.8004651084702581E-2</v>
       </c>
       <c r="K6" s="38" cm="1">
-        <f t="array" aca="1" ref="K6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9371292170765029E-2</v>
       </c>
       <c r="L6" s="38" cm="1">
-        <f t="array" aca="1" ref="L6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.2085335505452525E-2</v>
       </c>
       <c r="M6" s="38" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.0711664876641261E-2</v>
       </c>
       <c r="N6" s="38" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.8126731890341041E-2</v>
       </c>
       <c r="O6" s="38" cm="1">
-        <f t="array" aca="1" ref="O6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.4892985209253893E-2</v>
       </c>
       <c r="P6" s="11" cm="1">
-        <f t="array" aca="1" ref="P6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.0527013763255267E-2</v>
       </c>
       <c r="Q6" cm="1">
-        <f t="array" aca="1" ref="Q6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.3558941559788607E-2</v>
       </c>
       <c r="R6" s="39" cm="1">
-        <f t="array" aca="1" ref="R6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R6" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.4497832043343064E-2</v>
       </c>
       <c r="U6" s="22" t="s">
         <v>214</v>
       </c>
       <c r="V6" s="64" cm="1">
-        <f t="array" ref="V6">SQRT(SUMSQ(Raw_RNA!$L$13:$L$16-Raw_RNA!E$5:E$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="V6">SQRT(SUMSQ(Raw_ribonucleotides!$L$13:$L$16-Raw_ribonucleotides!E$5:E$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.7798832528953815E-2</v>
       </c>
       <c r="W6" s="64" cm="1">
-        <f t="array" ref="W6">SQRT(SUMSQ(Raw_RNA!$L$13:$L$16-Raw_RNA!F$5:F$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="W6">SQRT(SUMSQ(Raw_ribonucleotides!$L$13:$L$16-Raw_ribonucleotides!F$5:F$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.8203622561612706E-2</v>
       </c>
       <c r="X6" s="64" cm="1">
-        <f t="array" ref="X6">SQRT(SUMSQ(Raw_RNA!$L$13:$L$16-Raw_RNA!G$5:G$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="X6">SQRT(SUMSQ(Raw_ribonucleotides!$L$13:$L$16-Raw_ribonucleotides!G$5:G$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>7.7417152297741237E-2</v>
       </c>
       <c r="Y6" s="64" cm="1">
-        <f t="array" ref="Y6">SQRT(SUMSQ(Raw_RNA!$L$13:$L$16-Raw_RNA!H$5:H$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="Y6">SQRT(SUMSQ(Raw_ribonucleotides!$L$13:$L$16-Raw_ribonucleotides!H$5:H$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.5408218913969488E-2</v>
       </c>
       <c r="Z6" s="65"/>
@@ -19644,64 +19631,64 @@
         <v>150</v>
       </c>
       <c r="C7" s="11" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.5612365855432942E-2</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.6877826953210369E-2</v>
       </c>
       <c r="E7" s="15" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.0744867604873506E-2</v>
       </c>
       <c r="F7" s="15" cm="1">
-        <f t="array" aca="1" ref="F7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.5942633746338392E-2</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="36" cm="1">
-        <f t="array" aca="1" ref="H7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.4832078116484227E-2</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" aca="1" ref="I7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.0880459407132432E-2</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" aca="1" ref="J7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.4146478312215764E-2</v>
       </c>
       <c r="K7" s="38" cm="1">
-        <f t="array" aca="1" ref="K7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7013872327643846E-2</v>
       </c>
       <c r="L7" s="38" cm="1">
-        <f t="array" aca="1" ref="L7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.6592204141288996E-2</v>
       </c>
       <c r="M7" s="38" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7211291675713506E-2</v>
       </c>
       <c r="N7" s="38" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7791453994415011E-2</v>
       </c>
       <c r="O7" s="38" cm="1">
-        <f t="array" aca="1" ref="O7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.275538841002594E-2</v>
       </c>
       <c r="P7" s="11" cm="1">
-        <f t="array" aca="1" ref="P7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.6862568682565326E-2</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" aca="1" ref="Q7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.1256235941337301E-2</v>
       </c>
       <c r="R7" s="39" cm="1">
-        <f t="array" aca="1" ref="R7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R7" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.8431485384273947E-2</v>
       </c>
       <c r="U7" s="67" t="s">
@@ -19712,23 +19699,23 @@
       <c r="X7" s="65"/>
       <c r="Y7" s="65"/>
       <c r="Z7" s="64" cm="1">
-        <f t="array" ref="Z7">SQRT(SUMSQ(Raw_RNA!$C$13:$C$16-Raw_RNA!K$5:K$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="Z7">SQRT(SUMSQ(Raw_ribonucleotides!$C$13:$C$16-Raw_ribonucleotides!K$5:K$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>5.4169597804555408E-2</v>
       </c>
       <c r="AA7" s="64" cm="1">
-        <f t="array" ref="AA7">SQRT(SUMSQ(Raw_RNA!$C$13:$C$16-Raw_RNA!L$5:L$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AA7">SQRT(SUMSQ(Raw_ribonucleotides!$C$13:$C$16-Raw_ribonucleotides!L$5:L$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.5203581437023743E-2</v>
       </c>
       <c r="AB7" s="64" cm="1">
-        <f t="array" ref="AB7">SQRT(SUMSQ(Raw_RNA!$C$13:$C$16-Raw_RNA!M$5:M$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AB7">SQRT(SUMSQ(Raw_ribonucleotides!$C$13:$C$16-Raw_ribonucleotides!M$5:M$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>5.9856079449455223E-2</v>
       </c>
       <c r="AC7" s="64" cm="1">
-        <f t="array" ref="AC7">SQRT(SUMSQ(Raw_RNA!$C$13:$C$16-Raw_RNA!N$5:N$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AC7">SQRT(SUMSQ(Raw_ribonucleotides!$C$13:$C$16-Raw_ribonucleotides!N$5:N$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>5.3010275194766629E-2</v>
       </c>
       <c r="AD7" s="27" cm="1">
-        <f t="array" ref="AD7">SQRT(SUMSQ(Raw_RNA!$C$13:$C$16-Raw_RNA!O$5:O$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AD7">SQRT(SUMSQ(Raw_ribonucleotides!$C$13:$C$16-Raw_ribonucleotides!O$5:O$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.1802103524071068E-2</v>
       </c>
     </row>
@@ -19737,64 +19724,64 @@
         <v>151</v>
       </c>
       <c r="C8" s="12" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7217426086407879E-2</v>
       </c>
       <c r="D8" s="3" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.0705583154250796E-2</v>
       </c>
       <c r="E8" s="37" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.3695755438889335E-2</v>
       </c>
       <c r="F8" s="37" cm="1">
-        <f t="array" aca="1" ref="F8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.2180913445153686E-2</v>
       </c>
       <c r="G8" s="37" cm="1">
-        <f t="array" aca="1" ref="G8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.4832078116484227E-2</v>
       </c>
       <c r="H8" s="53"/>
       <c r="I8" s="3" cm="1">
-        <f t="array" aca="1" ref="I8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.3170288270575534E-2</v>
       </c>
       <c r="J8" s="3" cm="1">
-        <f t="array" aca="1" ref="J8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.7678033489160673E-2</v>
       </c>
       <c r="K8" s="40" cm="1">
-        <f t="array" aca="1" ref="K8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.14829198381177E-2</v>
       </c>
       <c r="L8" s="40" cm="1">
-        <f t="array" aca="1" ref="L8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.7173812944380962E-2</v>
       </c>
       <c r="M8" s="40" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.36778354597799E-2</v>
       </c>
       <c r="N8" s="40" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.1431760508048053E-2</v>
       </c>
       <c r="O8" s="40" cm="1">
-        <f t="array" aca="1" ref="O8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9236539295786632E-2</v>
       </c>
       <c r="P8" s="12" cm="1">
-        <f t="array" aca="1" ref="P8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.2428035342853521E-2</v>
       </c>
       <c r="Q8" s="3" cm="1">
-        <f t="array" aca="1" ref="Q8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.3453709467294737E-2</v>
       </c>
       <c r="R8" s="41" cm="1">
-        <f t="array" aca="1" ref="R8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R8" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.0081333245936443E-2</v>
       </c>
       <c r="U8" s="67" t="s">
@@ -19805,23 +19792,23 @@
       <c r="X8" s="65"/>
       <c r="Y8" s="65"/>
       <c r="Z8" s="64" cm="1">
-        <f t="array" ref="Z8">SQRT(SUMSQ(Raw_RNA!$D$13:$D$16-Raw_RNA!K$5:K$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="Z8">SQRT(SUMSQ(Raw_ribonucleotides!$D$13:$D$16-Raw_ribonucleotides!K$5:K$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.8559417191508469E-2</v>
       </c>
       <c r="AA8" s="64" cm="1">
-        <f t="array" ref="AA8">SQRT(SUMSQ(Raw_RNA!$D$13:$D$16-Raw_RNA!L$5:L$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AA8">SQRT(SUMSQ(Raw_ribonucleotides!$D$13:$D$16-Raw_ribonucleotides!L$5:L$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.210145751046309E-2</v>
       </c>
       <c r="AB8" s="64" cm="1">
-        <f t="array" ref="AB8">SQRT(SUMSQ(Raw_RNA!$D$13:$D$16-Raw_RNA!M$5:M$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AB8">SQRT(SUMSQ(Raw_ribonucleotides!$D$13:$D$16-Raw_ribonucleotides!M$5:M$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>5.4263755394468642E-2</v>
       </c>
       <c r="AC8" s="64" cm="1">
-        <f t="array" ref="AC8">SQRT(SUMSQ(Raw_RNA!$D$13:$D$16-Raw_RNA!N$5:N$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AC8">SQRT(SUMSQ(Raw_ribonucleotides!$D$13:$D$16-Raw_ribonucleotides!N$5:N$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.7680493730774841E-2</v>
       </c>
       <c r="AD8" s="27" cm="1">
-        <f t="array" ref="AD8">SQRT(SUMSQ(Raw_RNA!$D$13:$D$16-Raw_RNA!O$5:O$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AD8">SQRT(SUMSQ(Raw_ribonucleotides!$D$13:$D$16-Raw_ribonucleotides!O$5:O$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>5.6466804407545507E-2</v>
       </c>
     </row>
@@ -19830,64 +19817,64 @@
         <v>152</v>
       </c>
       <c r="C9" s="13" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.4951129898990342E-2</v>
       </c>
       <c r="D9" s="9" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.6586266590593235E-2</v>
       </c>
       <c r="E9" s="44" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.8765203241305606E-2</v>
       </c>
       <c r="F9" s="44" cm="1">
-        <f t="array" aca="1" ref="F9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.2984941064715897E-2</v>
       </c>
       <c r="G9" s="44" cm="1">
-        <f t="array" aca="1" ref="G9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.0880459407132432E-2</v>
       </c>
       <c r="H9" s="45" cm="1">
-        <f t="array" aca="1" ref="H9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.3170288270575534E-2</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9" cm="1">
-        <f t="array" aca="1" ref="J9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.6777524453055449E-2</v>
       </c>
       <c r="K9" s="33" cm="1">
-        <f t="array" aca="1" ref="K9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.5288717402333587E-2</v>
       </c>
       <c r="L9" s="33" cm="1">
-        <f t="array" aca="1" ref="L9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.3626288354769003E-2</v>
       </c>
       <c r="M9" s="33" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7453055015076765E-2</v>
       </c>
       <c r="N9" s="33" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6652594845556649E-2</v>
       </c>
       <c r="O9" s="33" cm="1">
-        <f t="array" aca="1" ref="O9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.3445804598450793E-2</v>
       </c>
       <c r="P9" s="13" cm="1">
-        <f t="array" aca="1" ref="P9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9002143374831807E-2</v>
       </c>
       <c r="Q9" s="9" cm="1">
-        <f t="array" aca="1" ref="Q9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.8015385174891846E-3</v>
       </c>
       <c r="R9" s="45" cm="1">
-        <f t="array" aca="1" ref="R9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R9" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.2934611197321728E-2</v>
       </c>
       <c r="U9" s="67" t="s">
@@ -19898,23 +19885,23 @@
       <c r="X9" s="65"/>
       <c r="Y9" s="65"/>
       <c r="Z9" s="64" cm="1">
-        <f t="array" ref="Z9">SQRT(SUMSQ(Raw_RNA!$E$13:$E$16-Raw_RNA!K$5:K$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="Z9">SQRT(SUMSQ(Raw_ribonucleotides!$E$13:$E$16-Raw_ribonucleotides!K$5:K$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.4420017616037925E-2</v>
       </c>
       <c r="AA9" s="64" cm="1">
-        <f t="array" ref="AA9">SQRT(SUMSQ(Raw_RNA!$E$13:$E$16-Raw_RNA!L$5:L$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AA9">SQRT(SUMSQ(Raw_ribonucleotides!$E$13:$E$16-Raw_ribonucleotides!L$5:L$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>5.8247598444101774E-2</v>
       </c>
       <c r="AB9" s="64" cm="1">
-        <f t="array" ref="AB9">SQRT(SUMSQ(Raw_RNA!$E$13:$E$16-Raw_RNA!M$5:M$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AB9">SQRT(SUMSQ(Raw_ribonucleotides!$E$13:$E$16-Raw_ribonucleotides!M$5:M$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>7.0030171064803581E-2</v>
       </c>
       <c r="AC9" s="64" cm="1">
-        <f t="array" ref="AC9">SQRT(SUMSQ(Raw_RNA!$E$13:$E$16-Raw_RNA!N$5:N$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AC9">SQRT(SUMSQ(Raw_ribonucleotides!$E$13:$E$16-Raw_ribonucleotides!N$5:N$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.17349597522047E-2</v>
       </c>
       <c r="AD9" s="27" cm="1">
-        <f t="array" ref="AD9">SQRT(SUMSQ(Raw_RNA!$E$13:$E$16-Raw_RNA!O$5:O$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AD9">SQRT(SUMSQ(Raw_ribonucleotides!$E$13:$E$16-Raw_ribonucleotides!O$5:O$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>6.8521894311234566E-2</v>
       </c>
     </row>
@@ -19923,63 +19910,63 @@
         <v>153</v>
       </c>
       <c r="C10" s="11" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.1527922455216539E-2</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.321228981968785E-2</v>
       </c>
       <c r="E10" s="42" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>9.402582023404342E-2</v>
       </c>
       <c r="F10" s="42" cm="1">
-        <f t="array" aca="1" ref="F10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.8004651084702581E-2</v>
       </c>
       <c r="G10" s="42" cm="1">
-        <f t="array" aca="1" ref="G10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.4146478312215764E-2</v>
       </c>
       <c r="H10" s="43" cm="1">
-        <f t="array" aca="1" ref="H10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.7678033489160673E-2</v>
       </c>
       <c r="I10" cm="1">
-        <f t="array" aca="1" ref="I10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.6777524453055449E-2</v>
       </c>
       <c r="K10" s="8" cm="1">
-        <f t="array" aca="1" ref="K10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.9417560517054669E-2</v>
       </c>
       <c r="L10" s="8" cm="1">
-        <f t="array" aca="1" ref="L10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.7733114082029182E-2</v>
       </c>
       <c r="M10" s="8" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.0440471223107061E-2</v>
       </c>
       <c r="N10" s="8" cm="1">
-        <f t="array" aca="1" ref="N10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.1472738454154607E-2</v>
       </c>
       <c r="O10" s="8" cm="1">
-        <f t="array" aca="1" ref="O10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.7023868024959748E-2</v>
       </c>
       <c r="P10" s="11" cm="1">
-        <f t="array" aca="1" ref="P10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.5508593281332071E-2</v>
       </c>
       <c r="Q10" cm="1">
-        <f t="array" aca="1" ref="Q10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.6096530304584522E-2</v>
       </c>
       <c r="R10" s="43" cm="1">
-        <f t="array" aca="1" ref="R10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R10" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.8253768953558516E-2</v>
       </c>
       <c r="U10" s="67" t="s">
@@ -19990,23 +19977,23 @@
       <c r="X10" s="65"/>
       <c r="Y10" s="65"/>
       <c r="Z10" s="64" cm="1">
-        <f t="array" ref="Z10">SQRT(SUMSQ(Raw_RNA!$F$13:$F$16-Raw_RNA!K$5:K$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="Z10">SQRT(SUMSQ(Raw_ribonucleotides!$F$13:$F$16-Raw_ribonucleotides!K$5:K$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.9522110419502406E-2</v>
       </c>
       <c r="AA10" s="64" cm="1">
-        <f t="array" ref="AA10">SQRT(SUMSQ(Raw_RNA!$F$13:$F$16-Raw_RNA!L$5:L$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AA10">SQRT(SUMSQ(Raw_ribonucleotides!$F$13:$F$16-Raw_ribonucleotides!L$5:L$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.9993271997872617E-2</v>
       </c>
       <c r="AB10" s="64" cm="1">
-        <f t="array" ref="AB10">SQRT(SUMSQ(Raw_RNA!$F$13:$F$16-Raw_RNA!M$5:M$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AB10">SQRT(SUMSQ(Raw_ribonucleotides!$F$13:$F$16-Raw_ribonucleotides!M$5:M$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>5.5369484030618157E-2</v>
       </c>
       <c r="AC10" s="64" cm="1">
-        <f t="array" ref="AC10">SQRT(SUMSQ(Raw_RNA!$F$13:$F$16-Raw_RNA!N$5:N$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AC10">SQRT(SUMSQ(Raw_ribonucleotides!$F$13:$F$16-Raw_ribonucleotides!N$5:N$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.7483763887521839E-2</v>
       </c>
       <c r="AD10" s="27" cm="1">
-        <f t="array" ref="AD10">SQRT(SUMSQ(Raw_RNA!$F$13:$F$16-Raw_RNA!O$5:O$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AD10">SQRT(SUMSQ(Raw_ribonucleotides!$F$13:$F$16-Raw_ribonucleotides!O$5:O$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>5.4290883212561585E-2</v>
       </c>
     </row>
@@ -20015,64 +20002,64 @@
         <v>154</v>
       </c>
       <c r="C11" s="11" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6491576829298211E-2</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.0724409633619984E-2</v>
       </c>
       <c r="E11" s="38" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.5707781807583989E-2</v>
       </c>
       <c r="F11" s="38" cm="1">
-        <f t="array" aca="1" ref="F11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9371292170765029E-2</v>
       </c>
       <c r="G11" s="38" cm="1">
-        <f t="array" aca="1" ref="G11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7013872327643846E-2</v>
       </c>
       <c r="H11" s="39" cm="1">
-        <f t="array" aca="1" ref="H11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.14829198381177E-2</v>
       </c>
       <c r="I11" cm="1">
-        <f t="array" aca="1" ref="I11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.5288717402333587E-2</v>
       </c>
       <c r="J11" cm="1">
-        <f t="array" aca="1" ref="J11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.9417560517054669E-2</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15" cm="1">
-        <f t="array" aca="1" ref="L11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.422937843759629E-2</v>
       </c>
       <c r="M11" s="15" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.1484392011130727E-3</v>
       </c>
       <c r="N11" s="15" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.1474109051449311E-3</v>
       </c>
       <c r="O11" s="15" cm="1">
-        <f t="array" aca="1" ref="O11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>9.5382629152492605E-3</v>
       </c>
       <c r="P11" s="11" cm="1">
-        <f t="array" aca="1" ref="P11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.2533501018407275E-2</v>
       </c>
       <c r="Q11" cm="1">
-        <f t="array" aca="1" ref="Q11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.602796067389398E-2</v>
       </c>
       <c r="R11" s="39" cm="1">
-        <f t="array" aca="1" ref="R11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R11" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.3565182814478851E-2</v>
       </c>
       <c r="U11" s="69" t="s">
@@ -20083,23 +20070,23 @@
       <c r="X11" s="61"/>
       <c r="Y11" s="61"/>
       <c r="Z11" s="28" cm="1">
-        <f t="array" ref="Z11">SQRT(SUMSQ(Raw_RNA!$G$13:$G$16-Raw_RNA!K$5:K$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="Z11">SQRT(SUMSQ(Raw_ribonucleotides!$G$13:$G$16-Raw_ribonucleotides!K$5:K$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>3.7020102227707817E-2</v>
       </c>
       <c r="AA11" s="28" cm="1">
-        <f t="array" ref="AA11">SQRT(SUMSQ(Raw_RNA!$G$13:$G$16-Raw_RNA!L$5:L$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AA11">SQRT(SUMSQ(Raw_ribonucleotides!$G$13:$G$16-Raw_ribonucleotides!L$5:L$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>3.5742174586054949E-2</v>
       </c>
       <c r="AB11" s="28" cm="1">
-        <f t="array" ref="AB11">SQRT(SUMSQ(Raw_RNA!$G$13:$G$16-Raw_RNA!M$5:M$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AB11">SQRT(SUMSQ(Raw_ribonucleotides!$G$13:$G$16-Raw_ribonucleotides!M$5:M$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.2824982329146562E-2</v>
       </c>
       <c r="AC11" s="28" cm="1">
-        <f t="array" ref="AC11">SQRT(SUMSQ(Raw_RNA!$G$13:$G$16-Raw_RNA!N$5:N$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AC11">SQRT(SUMSQ(Raw_ribonucleotides!$G$13:$G$16-Raw_ribonucleotides!N$5:N$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>3.6261956406273214E-2</v>
       </c>
       <c r="AD11" s="29" cm="1">
-        <f t="array" ref="AD11">SQRT(SUMSQ(Raw_RNA!$G$13:$G$16-Raw_RNA!O$5:O$8) / COUNTA(Raw_RNA!$C$5:$C$8))</f>
+        <f t="array" ref="AD11">SQRT(SUMSQ(Raw_ribonucleotides!$G$13:$G$16-Raw_ribonucleotides!O$5:O$8) / COUNTA(Raw_ribonucleotides!$C$5:$C$8))</f>
         <v>4.495553358597805E-2</v>
       </c>
     </row>
@@ -20108,64 +20095,64 @@
         <v>155</v>
       </c>
       <c r="C12" s="11" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.1959700380056877E-2</v>
       </c>
       <c r="D12" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.4950791745347119E-2</v>
       </c>
       <c r="E12" s="38" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.6783820814948588E-2</v>
       </c>
       <c r="F12" s="38" cm="1">
-        <f t="array" aca="1" ref="F12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.2085335505452525E-2</v>
       </c>
       <c r="G12" s="38" cm="1">
-        <f t="array" aca="1" ref="G12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.6592204141288996E-2</v>
       </c>
       <c r="H12" s="39" cm="1">
-        <f t="array" aca="1" ref="H12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.7173812944380962E-2</v>
       </c>
       <c r="I12" cm="1">
-        <f t="array" aca="1" ref="I12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.3626288354769003E-2</v>
       </c>
       <c r="J12" cm="1">
-        <f t="array" aca="1" ref="J12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.7733114082029182E-2</v>
       </c>
       <c r="K12" s="15" cm="1">
-        <f t="array" aca="1" ref="K12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.422937843759629E-2</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6108791242479385E-2</v>
       </c>
       <c r="N12" s="15" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.0740276636794198E-2</v>
       </c>
       <c r="O12" s="15" cm="1">
-        <f t="array" aca="1" ref="O12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.732757416439593E-2</v>
       </c>
       <c r="P12" s="11" cm="1">
-        <f t="array" aca="1" ref="P12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.5417314053254196E-2</v>
       </c>
       <c r="Q12" cm="1">
-        <f t="array" aca="1" ref="Q12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.5215836507398346E-2</v>
       </c>
       <c r="R12" s="39" cm="1">
-        <f t="array" aca="1" ref="R12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R12" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.0558309786696967E-2</v>
       </c>
     </row>
@@ -20174,64 +20161,64 @@
         <v>156</v>
       </c>
       <c r="C13" s="11" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.1728132159311447E-2</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6244251860908169E-2</v>
       </c>
       <c r="E13" s="38" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.7261184526716446E-2</v>
       </c>
       <c r="F13" s="38" cm="1">
-        <f t="array" aca="1" ref="F13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.0711664876641261E-2</v>
       </c>
       <c r="G13" s="38" cm="1">
-        <f t="array" aca="1" ref="G13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7211291675713506E-2</v>
       </c>
       <c r="H13" s="39" cm="1">
-        <f t="array" aca="1" ref="H13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.36778354597799E-2</v>
       </c>
       <c r="I13" cm="1">
-        <f t="array" aca="1" ref="I13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7453055015076765E-2</v>
       </c>
       <c r="J13" cm="1">
-        <f t="array" aca="1" ref="J13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.0440471223107061E-2</v>
       </c>
       <c r="K13" s="15" cm="1">
-        <f t="array" aca="1" ref="K13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.1484392011130727E-3</v>
       </c>
       <c r="L13" s="15" cm="1">
-        <f t="array" aca="1" ref="L13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6108791242479385E-2</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.5946840850049996E-3</v>
       </c>
       <c r="O13" s="15" cm="1">
-        <f t="array" aca="1" ref="O13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.9979716875561834E-3</v>
       </c>
       <c r="P13" s="11" cm="1">
-        <f t="array" aca="1" ref="P13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7753055434898632E-2</v>
       </c>
       <c r="Q13" cm="1">
-        <f t="array" aca="1" ref="Q13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.8292915522313238E-2</v>
       </c>
       <c r="R13" s="39" cm="1">
-        <f t="array" aca="1" ref="R13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R13" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9132902176964211E-2</v>
       </c>
     </row>
@@ -20240,64 +20227,64 @@
         <v>157</v>
       </c>
       <c r="C14" s="11" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.3729531914366298E-2</v>
       </c>
       <c r="D14" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.8014101769439505E-2</v>
       </c>
       <c r="E14" s="38" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.4259182604743763E-2</v>
       </c>
       <c r="F14" s="38" cm="1">
-        <f t="array" aca="1" ref="F14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.8126731890341041E-2</v>
       </c>
       <c r="G14" s="38" cm="1">
-        <f t="array" aca="1" ref="G14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7791453994415011E-2</v>
       </c>
       <c r="H14" s="39" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.1431760508048053E-2</v>
       </c>
       <c r="I14" cm="1">
-        <f t="array" aca="1" ref="I14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.6652594845556649E-2</v>
       </c>
       <c r="J14" cm="1">
-        <f t="array" aca="1" ref="J14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.1472738454154607E-2</v>
       </c>
       <c r="K14" s="15" cm="1">
-        <f t="array" aca="1" ref="K14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.1474109051449311E-3</v>
       </c>
       <c r="L14" s="15" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.0740276636794198E-2</v>
       </c>
       <c r="M14" s="15" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>8.5946840850049996E-3</v>
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15" cm="1">
-        <f t="array" aca="1" ref="O14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>9.0006642331142382E-3</v>
       </c>
       <c r="P14" s="11" cm="1">
-        <f t="array" aca="1" ref="P14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.9578920138457875E-2</v>
       </c>
       <c r="Q14" cm="1">
-        <f t="array" aca="1" ref="Q14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7559202823933505E-2</v>
       </c>
       <c r="R14" s="39" cm="1">
-        <f t="array" aca="1" ref="R14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R14" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.3249875408153072E-2</v>
       </c>
     </row>
@@ -20306,64 +20293,64 @@
         <v>158</v>
       </c>
       <c r="C15" s="12" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9242768359458155E-2</v>
       </c>
       <c r="D15" s="3" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.4833256067289674E-2</v>
       </c>
       <c r="E15" s="40" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.1394966155368855E-2</v>
       </c>
       <c r="F15" s="40" cm="1">
-        <f t="array" aca="1" ref="F15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.4892985209253893E-2</v>
       </c>
       <c r="G15" s="40" cm="1">
-        <f t="array" aca="1" ref="G15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.275538841002594E-2</v>
       </c>
       <c r="H15" s="41" cm="1">
-        <f t="array" aca="1" ref="H15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9236539295786632E-2</v>
       </c>
       <c r="I15" s="3" cm="1">
-        <f t="array" aca="1" ref="I15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.3445804598450793E-2</v>
       </c>
       <c r="J15" s="3" cm="1">
-        <f t="array" aca="1" ref="J15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.7023868024959748E-2</v>
       </c>
       <c r="K15" s="37" cm="1">
-        <f t="array" aca="1" ref="K15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>9.5382629152492605E-3</v>
       </c>
       <c r="L15" s="37" cm="1">
-        <f t="array" aca="1" ref="L15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.732757416439593E-2</v>
       </c>
       <c r="M15" s="37" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.9979716875561834E-3</v>
       </c>
       <c r="N15" s="37" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>9.0006642331142382E-3</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="12" cm="1">
-        <f t="array" aca="1" ref="P15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7853769596899942E-2</v>
       </c>
       <c r="Q15" s="3" cm="1">
-        <f t="array" aca="1" ref="Q15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.4350679583298407E-2</v>
       </c>
       <c r="R15" s="41" cm="1">
-        <f t="array" aca="1" ref="R15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R15" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7968211022451043E-2</v>
       </c>
     </row>
@@ -20372,64 +20359,64 @@
         <v>159</v>
       </c>
       <c r="C16" s="11" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.9873380895213365E-2</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.2563141811896623E-2</v>
       </c>
       <c r="E16" s="42" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.407023285877155E-2</v>
       </c>
       <c r="F16" s="42" cm="1">
-        <f t="array" aca="1" ref="F16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.0527013763255267E-2</v>
       </c>
       <c r="G16" s="42" cm="1">
-        <f t="array" aca="1" ref="G16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.6862568682565326E-2</v>
       </c>
       <c r="H16" s="43" cm="1">
-        <f t="array" aca="1" ref="H16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.2428035342853521E-2</v>
       </c>
       <c r="I16" cm="1">
-        <f t="array" aca="1" ref="I16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9002143374831807E-2</v>
       </c>
       <c r="J16" cm="1">
-        <f t="array" aca="1" ref="J16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.5508593281332071E-2</v>
       </c>
       <c r="K16" s="42" cm="1">
-        <f t="array" aca="1" ref="K16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.2533501018407275E-2</v>
       </c>
       <c r="L16" s="42" cm="1">
-        <f t="array" aca="1" ref="L16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.5417314053254196E-2</v>
       </c>
       <c r="M16" s="42" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7753055434898632E-2</v>
       </c>
       <c r="N16" s="42" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.9578920138457875E-2</v>
       </c>
       <c r="O16" s="42" cm="1">
-        <f t="array" aca="1" ref="O16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7853769596899942E-2</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" cm="1">
-        <f t="array" aca="1" ref="Q16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9710199207844223E-2</v>
       </c>
       <c r="R16" s="14" cm="1">
-        <f t="array" aca="1" ref="R16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R16" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.896354569791057E-2</v>
       </c>
     </row>
@@ -20438,63 +20425,63 @@
         <v>160</v>
       </c>
       <c r="C17" s="11" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.5444028204205249E-2</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.7117836158389825E-2</v>
       </c>
       <c r="E17" s="42" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.9325941173004538E-2</v>
       </c>
       <c r="F17" s="42" cm="1">
-        <f t="array" aca="1" ref="F17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.3558941559788607E-2</v>
       </c>
       <c r="G17" s="42" cm="1">
-        <f t="array" aca="1" ref="G17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.1256235941337301E-2</v>
       </c>
       <c r="H17" s="43" cm="1">
-        <f t="array" aca="1" ref="H17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>7.3453709467294737E-2</v>
       </c>
       <c r="I17" cm="1">
-        <f t="array" aca="1" ref="I17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.8015385174891846E-3</v>
       </c>
       <c r="J17" cm="1">
-        <f t="array" aca="1" ref="J17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.6096530304584522E-2</v>
       </c>
       <c r="K17" s="42" cm="1">
-        <f t="array" aca="1" ref="K17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.602796067389398E-2</v>
       </c>
       <c r="L17" s="42" cm="1">
-        <f t="array" aca="1" ref="L17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.5215836507398346E-2</v>
       </c>
       <c r="M17" s="42" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.8292915522313238E-2</v>
       </c>
       <c r="N17" s="42" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7559202823933505E-2</v>
       </c>
       <c r="O17" s="42" cm="1">
-        <f t="array" aca="1" ref="O17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>4.4350679583298407E-2</v>
       </c>
       <c r="P17" s="11" cm="1">
-        <f t="array" aca="1" ref="P17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9710199207844223E-2</v>
       </c>
       <c r="R17" s="14" cm="1">
-        <f t="array" aca="1" ref="R17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="R17" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.2960746009355318E-2</v>
       </c>
     </row>
@@ -20503,63 +20490,63 @@
         <v>161</v>
       </c>
       <c r="C18" s="12" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="C18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.7419807076976112E-2</v>
       </c>
       <c r="D18" s="3" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="D18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>1.8239586797885267E-2</v>
       </c>
       <c r="E18" s="40" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="E18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7226884366157745E-2</v>
       </c>
       <c r="F18" s="40" cm="1">
-        <f t="array" aca="1" ref="F18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="F18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.4497832043343064E-2</v>
       </c>
       <c r="G18" s="40" cm="1">
-        <f t="array" aca="1" ref="G18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="G18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.8431485384273947E-2</v>
       </c>
       <c r="H18" s="41" cm="1">
-        <f t="array" aca="1" ref="H18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="H18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.0081333245936443E-2</v>
       </c>
       <c r="I18" s="3" cm="1">
-        <f t="array" aca="1" ref="I18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="I18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.2934611197321728E-2</v>
       </c>
       <c r="J18" s="3" cm="1">
-        <f t="array" aca="1" ref="J18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="J18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>6.8253768953558516E-2</v>
       </c>
       <c r="K18" s="40" cm="1">
-        <f t="array" aca="1" ref="K18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="K18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.3565182814478851E-2</v>
       </c>
       <c r="L18" s="40" cm="1">
-        <f t="array" aca="1" ref="L18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="L18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.0558309786696967E-2</v>
       </c>
       <c r="M18" s="40" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="M18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.9132902176964211E-2</v>
       </c>
       <c r="N18" s="40" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="N18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.3249875408153072E-2</v>
       </c>
       <c r="O18" s="40" cm="1">
-        <f t="array" aca="1" ref="O18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="O18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>3.7968211022451043E-2</v>
       </c>
       <c r="P18" s="12" cm="1">
-        <f t="array" aca="1" ref="P18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="P18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>2.896354569791057E-2</v>
       </c>
       <c r="Q18" s="3" cm="1">
-        <f t="array" aca="1" ref="Q18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_RNA'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_RNA!$B$5:$B$8))</f>
+        <f t="array" aca="1" ref="Q18" ca="1">SQRT(SUMSQ(INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,ROW(),4),1,"")&amp;8)-INDIRECT("'Raw_ribonucleotides'!"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;5&amp;":"&amp;SUBSTITUTE(ADDRESS(1,COLUMN(),4),1,"")&amp;8))/ COUNTA(Raw_ribonucleotides!$B$5:$B$8))</f>
         <v>5.2960746009355318E-2</v>
       </c>
       <c r="R18" s="53"/>
@@ -20570,7 +20557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123B2611-9EEA-4742-8ABB-D26B750AD2FB}">
   <dimension ref="B2:B18"/>
   <sheetViews>
